--- a/data/csv/stats_fielding_raw_tsl_2024.xlsx
+++ b/data/csv/stats_fielding_raw_tsl_2024.xlsx
@@ -20,456 +20,555 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="150">
-  <si>
-    <t xml:space="preserve">SURNAME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">First name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Team</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="183">
+  <si>
+    <t xml:space="preserve">Player</t>
   </si>
   <si>
     <t xml:space="preserve">G</t>
   </si>
   <si>
+    <t xml:space="preserve"> C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLD%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DPs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SBA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SBA%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MENDOZA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RICARDO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATLANTA...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARDINALES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARLOS A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DODGER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MADRIGAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORIC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATLANTA.....</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRUZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAFAEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DODGERS.......</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOVAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GABRIEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORIOLES.....</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GARCIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUISFER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAMPA......</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARAYA</t>
+  </si>
+  <si>
     <t xml:space="preserve">C</t>
   </si>
   <si>
-    <t xml:space="preserve">PO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FLD%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DPs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SBA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SBA%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CARDINALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CARLOS A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DODGER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MENDOZA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RICARDO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATLANTA...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MADRIGAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORIC</t>
+    <t xml:space="preserve">ATLANTA...........</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RODRIGUEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAINER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATLANTA..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AZCUY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOSHUA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAMPA........</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WALO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEBASTIAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FRANCO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOAN KELLY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATLANTA.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EVIAN ROMERO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JORGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATLANTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BONGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DODGERS.........</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHINEA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PABLO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOLENMAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEM OUDE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAMPA...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MERKELBACK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BENNETT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAMPA..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GAMBERA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANDREA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORIOLES....</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PERUZZO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MATIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TORREALBA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAMPA.........</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARRASCO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FREIONIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DODGERS.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FINOL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DODGERS...........</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YANCARLO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAMONJCA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIRKO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VAN MOOK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAURO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JUAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATLANTA........</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGUILAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DELGADO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIEGO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAMPA.......</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NIEMEYER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FINN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GORTEMULDER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEPIJN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QUINTANA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMUEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CASTILLO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALEJANDRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALBERTINI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DANIELE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORIOLES.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INFANTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAIMOND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAMPA.....</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROJAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANGEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASCANIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARLOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COLOMBO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GABRIELE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORIOLES..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAVIDE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DODGERS....</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LARA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEDRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAMPA..........</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEREZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIGUEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DODGERS......</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MILANO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MANUEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BALICE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALEX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATLANTA.......</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VARGAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATLANTA......</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REGAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORIOLES......</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GONZALEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAYAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALONSO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DODGERS.....</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TORRES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORIOLES..........</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARTIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANSELMI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GANASSI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPECK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JURI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DODGERS........</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BENCOMO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOSE ANGEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SWAAK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORIOLES........</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROCCO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RUBERTI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COLLAZO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JESUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE LOS SANTOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUARIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATLAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NACAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LESLIE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KOCH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOBIAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORIOLES.......</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NARANJO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORIOLES...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEVIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZIRONI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAICOL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MONTIEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DANIEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VRANA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROMAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OTAL TORO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALEXANDER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORIOLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALDIVIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARCEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DODGERS...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZAMBRANO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABRAHAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DODGERS..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SERRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROLDAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANTON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WILDER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE LA ROSA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EDUARDO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORIOLES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIAZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENMANUEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BORLONI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MATTEO</t>
   </si>
   <si>
     <t xml:space="preserve">ATLANTA....</t>
   </si>
   <si>
-    <t xml:space="preserve">GAMBERA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DAVIDE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DODGERS....</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MILANO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MANUEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAMPA......</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CRUZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RAFAEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOVAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GABRIEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORIOLES....</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RODRIGUEZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RAINER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATLANTA..</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GARCIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUISFER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AZCUY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JOSHUA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARAYA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WALO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEBASTIAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRANCO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JOAN KELLY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATLANTA.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHINEA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PABLO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALDIVIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARCEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DODGERS...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EVIAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROMERO JORGE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATLANTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MERKELBACK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BENNETT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAMPA..</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CARRASCO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FREIONIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DODGERS.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PERUZZO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MATIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOLENMAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEM OUDE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAMPA...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FINOL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TORREALBA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANDREA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YANCARLO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAMONJCA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MIRKO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BONGE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JUAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VAN MOOK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAURO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DELGADO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIEGO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGUILAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NIEMEYER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FINN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QUINTANA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMUEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GORTEMULDER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PEPIJN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CASTILLO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALEJANDRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALBERTINI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DANIELE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORIOLES.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROJAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANGEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INFANTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RAIMOND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAMPA.....</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASCANIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CARLOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COLOMBO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GABRIELE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORIOLES..</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LARA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PEDRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BALICE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALEX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PEREZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MIGUEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BENCOMO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JOSE ANGEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COLLAZO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JESUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VARGAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TORRES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REGAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GONZALEZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DAYAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALONSO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARTIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANSELMI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GANASSI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPECK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JURI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROCCO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RUBERTI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NACAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LESLIE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE LOS SANTOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GUARIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATLAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KOCH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOBIAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NARANJO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORIOLES...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZIRONI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAICOL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MONTIEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DANIEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SWAAK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BLUE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VRANA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROMAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OTAL TORO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALEXANDER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORIOLE</t>
+    <t xml:space="preserve">LUIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REINA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROINEL</t>
   </si>
 </sst>
 </file>
@@ -671,27 +770,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P63"/>
+  <dimension ref="A1:P73"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="6.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="2.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="3.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="4.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="3.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="4.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="3.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="2.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="6.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="5.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="0" width="5.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="6.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="7.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="4.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="3.38"/>
   </cols>
@@ -700,70 +797,68 @@
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>2</v>
-      </c>
       <c r="E1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="0" t="s">
         <v>12</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>18</v>
+      <c r="D2" s="0" t="str">
+        <f aca="false">MID(C2, 1, 3)</f>
+        <v>ATL</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>11</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="I2" s="0" t="n">
         <v>0</v>
@@ -772,13 +867,16 @@
         <v>1</v>
       </c>
       <c r="K2" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="N2" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="O2" s="0" t="n">
         <v>0</v>
@@ -789,25 +887,29 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>22</v>
+        <v>18</v>
+      </c>
+      <c r="D3" s="0" t="str">
+        <f aca="false">MID(C3, 1, 3)</f>
+        <v>DOD</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>11</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="I3" s="0" t="n">
         <v>0</v>
@@ -816,16 +918,13 @@
         <v>1</v>
       </c>
       <c r="K3" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="N3" s="0" t="n">
-        <v>1</v>
       </c>
       <c r="O3" s="0" t="n">
         <v>0</v>
@@ -836,25 +935,29 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="D4" s="0" t="str">
+        <f aca="false">MID(C4, 1, 3)</f>
+        <v>ATL</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>11</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I4" s="0" t="n">
         <v>0</v>
@@ -883,25 +986,29 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>18</v>
+        <v>24</v>
+      </c>
+      <c r="D5" s="0" t="str">
+        <f aca="false">MID(C5, 1, 3)</f>
+        <v>DOD</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>11</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I5" s="0" t="n">
         <v>0</v>
@@ -910,16 +1017,13 @@
         <v>1</v>
       </c>
       <c r="K5" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" s="0" t="n">
-        <v>0.667</v>
+        <v>0</v>
       </c>
       <c r="O5" s="0" t="n">
         <v>0</v>
@@ -930,25 +1034,29 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>32</v>
+        <v>27</v>
+      </c>
+      <c r="D6" s="0" t="str">
+        <f aca="false">MID(C6, 1, 3)</f>
+        <v>ORI</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>11</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I6" s="0" t="n">
         <v>0</v>
@@ -960,13 +1068,10 @@
         <v>1</v>
       </c>
       <c r="L6" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="N6" s="0" t="n">
-        <v>1</v>
       </c>
       <c r="O6" s="0" t="n">
         <v>0</v>
@@ -977,25 +1082,29 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>18</v>
+        <v>30</v>
+      </c>
+      <c r="D7" s="0" t="str">
+        <f aca="false">MID(C7, 1, 3)</f>
+        <v>TAM</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>11</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I7" s="0" t="n">
         <v>0</v>
@@ -1021,25 +1130,29 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>38</v>
+        <v>33</v>
+      </c>
+      <c r="D8" s="0" t="str">
+        <f aca="false">MID(C8, 1, 3)</f>
+        <v>ATL</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>11</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I8" s="0" t="n">
         <v>0</v>
@@ -1048,7 +1161,7 @@
         <v>1</v>
       </c>
       <c r="K8" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8" s="0" t="n">
         <v>0</v>
@@ -1065,16 +1178,20 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>22</v>
+        <v>36</v>
+      </c>
+      <c r="D9" s="0" t="str">
+        <f aca="false">MID(C9, 1, 3)</f>
+        <v>ATL</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>11</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>10</v>
@@ -1109,25 +1226,29 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>32</v>
+        <v>39</v>
+      </c>
+      <c r="D10" s="0" t="str">
+        <f aca="false">MID(C10, 1, 3)</f>
+        <v>TAM</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>11</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>0</v>
@@ -1136,7 +1257,7 @@
         <v>1</v>
       </c>
       <c r="K10" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" s="0" t="n">
         <v>0</v>
@@ -1153,22 +1274,26 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>32</v>
+        <v>30</v>
+      </c>
+      <c r="D11" s="0" t="str">
+        <f aca="false">MID(C11, 1, 3)</f>
+        <v>TAM</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>11</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H11" s="0" t="n">
         <v>0</v>
@@ -1197,25 +1322,29 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>22</v>
+        <v>44</v>
+      </c>
+      <c r="D12" s="0" t="str">
+        <f aca="false">MID(C12, 1, 3)</f>
+        <v>ATL</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>11</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H12" s="0" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I12" s="0" t="n">
         <v>0</v>
@@ -1224,7 +1353,7 @@
         <v>1</v>
       </c>
       <c r="K12" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L12" s="0" t="n">
         <v>0</v>
@@ -1241,25 +1370,29 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>32</v>
+      <c r="D13" s="0" t="str">
+        <f aca="false">MID(C13, 1, 3)</f>
+        <v>ATL</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>11</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>5</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="0" t="n">
         <v>0</v>
@@ -1285,25 +1418,29 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="C14" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>22</v>
+      <c r="D14" s="0" t="str">
+        <f aca="false">MID(C14, 1, 3)</f>
+        <v>DOD</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>11</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>5</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" s="0" t="n">
         <v>0</v>
@@ -1329,22 +1466,26 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="B15" s="0" t="s">
-        <v>53</v>
-      </c>
       <c r="C15" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>32</v>
+        <v>39</v>
+      </c>
+      <c r="D15" s="0" t="str">
+        <f aca="false">MID(C15, 1, 3)</f>
+        <v>TAM</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>11</v>
       </c>
       <c r="F15" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G15" s="0" t="n">
         <v>4</v>
-      </c>
-      <c r="G15" s="0" t="n">
-        <v>3</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>1</v>
@@ -1376,16 +1517,20 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="C16" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>18</v>
+      <c r="D16" s="0" t="str">
+        <f aca="false">MID(C16, 1, 3)</f>
+        <v>TAM</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>11</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>4</v>
@@ -1406,10 +1551,13 @@
         <v>0</v>
       </c>
       <c r="L16" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M16" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="N16" s="0" t="n">
+        <v>0.667</v>
       </c>
       <c r="O16" s="0" t="n">
         <v>0</v>
@@ -1420,25 +1568,29 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="C17" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>22</v>
+      <c r="D17" s="0" t="str">
+        <f aca="false">MID(C17, 1, 3)</f>
+        <v>TAM</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>11</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G17" s="0" t="n">
         <v>3</v>
       </c>
       <c r="H17" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" s="0" t="n">
         <v>0</v>
@@ -1464,16 +1616,20 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="C18" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>32</v>
+      <c r="D18" s="0" t="str">
+        <f aca="false">MID(C18, 1, 3)</f>
+        <v>ORI</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>11</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>3</v>
@@ -1508,16 +1664,20 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="B19" s="0" t="s">
-        <v>64</v>
-      </c>
       <c r="C19" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="D19" s="0" t="str">
+        <f aca="false">MID(C19, 1, 3)</f>
+        <v>ATL</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>11</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>3</v>
@@ -1538,13 +1698,10 @@
         <v>0</v>
       </c>
       <c r="L19" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M19" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="N19" s="0" t="n">
-        <v>0.571</v>
+        <v>0</v>
       </c>
       <c r="O19" s="0" t="n">
         <v>0</v>
@@ -1555,25 +1712,29 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="B20" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>22</v>
+      <c r="D20" s="0" t="str">
+        <f aca="false">MID(C20, 1, 3)</f>
+        <v>TAM</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>11</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>3</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H20" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20" s="0" t="n">
         <v>0</v>
@@ -1588,6 +1749,9 @@
         <v>0</v>
       </c>
       <c r="M20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" s="0" t="n">
         <v>0</v>
       </c>
       <c r="O20" s="0" t="n">
@@ -1599,43 +1763,47 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="C21" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="C21" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>32</v>
+      <c r="D21" s="0" t="str">
+        <f aca="false">MID(C21, 1, 3)</f>
+        <v>DOD</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>11</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>3</v>
       </c>
       <c r="G21" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="M21" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="H21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="N21" s="0" t="n">
-        <v>0</v>
+        <v>0.571</v>
       </c>
       <c r="O21" s="0" t="n">
         <v>0</v>
@@ -1646,16 +1814,20 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="B22" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>18</v>
+      <c r="D22" s="0" t="str">
+        <f aca="false">MID(C22, 1, 3)</f>
+        <v>DOD</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>11</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>3</v>
@@ -1693,25 +1865,29 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="B23" s="0" t="s">
-        <v>73</v>
-      </c>
       <c r="C23" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D23" s="0" t="s">
-        <v>32</v>
+        <v>15</v>
+      </c>
+      <c r="D23" s="0" t="str">
+        <f aca="false">MID(C23, 1, 3)</f>
+        <v>ATL</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>11</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G23" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H23" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" s="0" t="n">
         <v>0</v>
@@ -1723,13 +1899,13 @@
         <v>0</v>
       </c>
       <c r="L23" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M23" s="0" t="n">
         <v>1</v>
       </c>
       <c r="N23" s="0" t="n">
-        <v>0</v>
+        <v>0.667</v>
       </c>
       <c r="O23" s="0" t="n">
         <v>0</v>
@@ -1740,16 +1916,20 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>74</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24" s="0" t="s">
-        <v>38</v>
+        <v>61</v>
+      </c>
+      <c r="D24" s="0" t="str">
+        <f aca="false">MID(C24, 1, 3)</f>
+        <v>ORI</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>11</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>2</v>
@@ -1784,25 +1964,29 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25" s="0" t="s">
-        <v>22</v>
+        <v>61</v>
+      </c>
+      <c r="D25" s="0" t="str">
+        <f aca="false">MID(C25, 1, 3)</f>
+        <v>ORI</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>11</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>2</v>
       </c>
       <c r="G25" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25" s="0" t="n">
         <v>0</v>
@@ -1831,16 +2015,20 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>77</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="D26" s="0" t="s">
-        <v>38</v>
+        <v>78</v>
+      </c>
+      <c r="D26" s="0" t="str">
+        <f aca="false">MID(C26, 1, 3)</f>
+        <v>ATL</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>11</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>2</v>
@@ -1861,10 +2049,13 @@
         <v>0</v>
       </c>
       <c r="L26" s="0" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M26" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="N26" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="O26" s="0" t="n">
         <v>0</v>
@@ -1875,22 +2066,26 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D27" s="0" t="s">
-        <v>22</v>
+        <v>61</v>
+      </c>
+      <c r="D27" s="0" t="str">
+        <f aca="false">MID(C27, 1, 3)</f>
+        <v>ORI</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>11</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H27" s="0" t="n">
         <v>0</v>
@@ -1905,13 +2100,13 @@
         <v>0</v>
       </c>
       <c r="L27" s="0" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="M27" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N27" s="0" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="O27" s="0" t="n">
         <v>0</v>
@@ -1922,22 +2117,26 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" s="0" t="s">
-        <v>18</v>
+        <v>82</v>
+      </c>
+      <c r="D28" s="0" t="str">
+        <f aca="false">MID(C28, 1, 3)</f>
+        <v>TAM</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>11</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" s="0" t="n">
         <v>1</v>
@@ -1952,10 +2151,13 @@
         <v>0</v>
       </c>
       <c r="L28" s="0" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="M28" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="N28" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="O28" s="0" t="n">
         <v>0</v>
@@ -1966,46 +2168,50 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="D29" s="0" t="s">
-        <v>38</v>
+        <v>27</v>
+      </c>
+      <c r="D29" s="0" t="str">
+        <f aca="false">MID(C29, 1, 3)</f>
+        <v>ORI</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>11</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>2</v>
+        <v>92</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="H29" s="0" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="I29" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" s="0" t="n">
-        <v>1</v>
+        <v>0.989</v>
       </c>
       <c r="K29" s="0" t="n">
         <v>0</v>
       </c>
       <c r="L29" s="0" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="M29" s="0" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="N29" s="0" t="n">
-        <v>0.667</v>
+        <v>0.657</v>
       </c>
       <c r="O29" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P29" s="0" t="n">
         <v>0</v>
@@ -2013,43 +2219,47 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D30" s="0" t="s">
-        <v>32</v>
+        <v>58</v>
+      </c>
+      <c r="D30" s="0" t="str">
+        <f aca="false">MID(C30, 1, 3)</f>
+        <v>TAM</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>11</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="H30" s="0" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I30" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" s="0" t="n">
-        <v>1</v>
+        <v>0.981</v>
       </c>
       <c r="K30" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L30" s="0" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M30" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N30" s="0" t="n">
-        <v>1</v>
+        <v>0.692</v>
       </c>
       <c r="O30" s="0" t="n">
         <v>0</v>
@@ -2060,46 +2270,50 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>34</v>
+        <v>88</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="D31" s="0" t="s">
-        <v>38</v>
+        <v>15</v>
+      </c>
+      <c r="D31" s="0" t="str">
+        <f aca="false">MID(C31, 1, 3)</f>
+        <v>ATL</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>11</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>1</v>
+        <v>91</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>1</v>
+        <v>79</v>
       </c>
       <c r="H31" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I31" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J31" s="0" t="n">
-        <v>1</v>
+        <v>0.978</v>
       </c>
       <c r="K31" s="0" t="n">
         <v>0</v>
       </c>
       <c r="L31" s="0" t="n">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="M31" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N31" s="0" t="n">
-        <v>0.5</v>
+        <v>0.853</v>
       </c>
       <c r="O31" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P31" s="0" t="n">
         <v>0</v>
@@ -2107,46 +2321,50 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="D32" s="0" t="s">
-        <v>38</v>
+        <v>58</v>
+      </c>
+      <c r="D32" s="0" t="str">
+        <f aca="false">MID(C32, 1, 3)</f>
+        <v>TAM</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>11</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>83</v>
+        <v>30</v>
       </c>
       <c r="G32" s="0" t="n">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="H32" s="0" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I32" s="0" t="n">
         <v>1</v>
       </c>
       <c r="J32" s="0" t="n">
-        <v>0.988</v>
+        <v>0.967</v>
       </c>
       <c r="K32" s="0" t="n">
         <v>0</v>
       </c>
       <c r="L32" s="0" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="M32" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N32" s="0" t="n">
-        <v>0.677</v>
+        <v>1</v>
       </c>
       <c r="O32" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P32" s="0" t="n">
         <v>0</v>
@@ -2154,46 +2372,50 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="D33" s="0" t="s">
-        <v>22</v>
+        <v>93</v>
+      </c>
+      <c r="D33" s="0" t="str">
+        <f aca="false">MID(C33, 1, 3)</f>
+        <v>ORI</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>11</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="G33" s="0" t="n">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="H33" s="0" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I33" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J33" s="0" t="n">
-        <v>0.978</v>
+        <v>0.963</v>
       </c>
       <c r="K33" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L33" s="0" t="n">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="M33" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N33" s="0" t="n">
-        <v>0.839</v>
+        <v>0.833</v>
       </c>
       <c r="O33" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P33" s="0" t="n">
         <v>0</v>
@@ -2201,46 +2423,50 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="D34" s="0" t="s">
-        <v>32</v>
+        <v>96</v>
+      </c>
+      <c r="D34" s="0" t="str">
+        <f aca="false">MID(C34, 1, 3)</f>
+        <v>TAM</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>11</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="H34" s="0" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I34" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J34" s="0" t="n">
-        <v>0.976</v>
+        <v>0.962</v>
       </c>
       <c r="K34" s="0" t="n">
         <v>1</v>
       </c>
       <c r="L34" s="0" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="M34" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N34" s="0" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="O34" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P34" s="0" t="n">
         <v>0</v>
@@ -2248,40 +2474,47 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="D35" s="0" t="s">
-        <v>32</v>
+        <v>24</v>
+      </c>
+      <c r="D35" s="0" t="str">
+        <f aca="false">MID(C35, 1, 3)</f>
+        <v>DOD</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>11</v>
       </c>
       <c r="F35" s="0" t="n">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="H35" s="0" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="I35" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J35" s="0" t="n">
-        <v>0.966</v>
+        <v>0.962</v>
       </c>
       <c r="K35" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L35" s="0" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M35" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="N35" s="0" t="n">
+        <v>0.545</v>
       </c>
       <c r="O35" s="0" t="n">
         <v>0</v>
@@ -2292,43 +2525,44 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="D36" s="0" t="s">
-        <v>38</v>
+        <v>30</v>
+      </c>
+      <c r="D36" s="0" t="str">
+        <f aca="false">MID(C36, 1, 3)</f>
+        <v>TAM</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>11</v>
       </c>
       <c r="F36" s="0" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G36" s="0" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="H36" s="0" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="I36" s="0" t="n">
         <v>1</v>
       </c>
       <c r="J36" s="0" t="n">
-        <v>0.963</v>
+        <v>0.96</v>
       </c>
       <c r="K36" s="0" t="n">
         <v>2</v>
       </c>
       <c r="L36" s="0" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M36" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" s="0" t="n">
-        <v>0.833</v>
+        <v>0</v>
       </c>
       <c r="O36" s="0" t="n">
         <v>0</v>
@@ -2339,43 +2573,47 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="D37" s="0" t="s">
-        <v>18</v>
+        <v>103</v>
+      </c>
+      <c r="D37" s="0" t="str">
+        <f aca="false">MID(C37, 1, 3)</f>
+        <v>ORI</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>11</v>
       </c>
       <c r="F37" s="0" t="n">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="H37" s="0" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I37" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J37" s="0" t="n">
-        <v>0.962</v>
+        <v>0.958</v>
       </c>
       <c r="K37" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L37" s="0" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M37" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N37" s="0" t="n">
-        <v>0.545</v>
+        <v>0.667</v>
       </c>
       <c r="O37" s="0" t="n">
         <v>0</v>
@@ -2386,46 +2624,50 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="D38" s="0" t="s">
-        <v>32</v>
+        <v>105</v>
+      </c>
+      <c r="D38" s="0" t="str">
+        <f aca="false">MID(C38, 1, 3)</f>
+        <v>DOD</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>11</v>
       </c>
       <c r="F38" s="0" t="n">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="G38" s="0" t="n">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="H38" s="0" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="I38" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J38" s="0" t="n">
-        <v>0.962</v>
+        <v>0.955</v>
       </c>
       <c r="K38" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L38" s="0" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="M38" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N38" s="0" t="n">
-        <v>1</v>
+        <v>0.667</v>
       </c>
       <c r="O38" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P38" s="0" t="n">
         <v>0</v>
@@ -2433,40 +2675,47 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D39" s="0" t="s">
-        <v>32</v>
+        <v>108</v>
+      </c>
+      <c r="D39" s="0" t="str">
+        <f aca="false">MID(C39, 1, 3)</f>
+        <v>TAM</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <v>11</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="G39" s="0" t="n">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="H39" s="0" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="I39" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J39" s="0" t="n">
-        <v>0.96</v>
+        <v>0.952</v>
       </c>
       <c r="K39" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L39" s="0" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M39" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="N39" s="0" t="n">
+        <v>0.75</v>
       </c>
       <c r="O39" s="0" t="n">
         <v>0</v>
@@ -2477,43 +2726,44 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="D40" s="0" t="s">
-        <v>38</v>
+        <v>111</v>
+      </c>
+      <c r="D40" s="0" t="str">
+        <f aca="false">MID(C40, 1, 3)</f>
+        <v>DOD</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <v>11</v>
       </c>
       <c r="F40" s="0" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G40" s="0" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H40" s="0" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I40" s="0" t="n">
         <v>1</v>
       </c>
       <c r="J40" s="0" t="n">
-        <v>0.957</v>
+        <v>0.947</v>
       </c>
       <c r="K40" s="0" t="n">
         <v>0</v>
       </c>
       <c r="L40" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M40" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="N40" s="0" t="n">
-        <v>0.667</v>
+        <v>0</v>
       </c>
       <c r="O40" s="0" t="n">
         <v>0</v>
@@ -2524,43 +2774,47 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D41" s="0" t="s">
-        <v>32</v>
+        <v>82</v>
+      </c>
+      <c r="D41" s="0" t="str">
+        <f aca="false">MID(C41, 1, 3)</f>
+        <v>TAM</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <v>11</v>
       </c>
       <c r="F41" s="0" t="n">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="G41" s="0" t="n">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="H41" s="0" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I41" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J41" s="0" t="n">
         <v>0.947</v>
       </c>
       <c r="K41" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L41" s="0" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="M41" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N41" s="0" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="O41" s="0" t="n">
         <v>0</v>
@@ -2571,31 +2825,35 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D42" s="0" t="s">
-        <v>22</v>
+        <v>116</v>
+      </c>
+      <c r="D42" s="0" t="str">
+        <f aca="false">MID(C42, 1, 3)</f>
+        <v>ATL</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <v>11</v>
       </c>
       <c r="F42" s="0" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G42" s="0" t="n">
         <v>8</v>
       </c>
       <c r="H42" s="0" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I42" s="0" t="n">
         <v>1</v>
       </c>
       <c r="J42" s="0" t="n">
-        <v>0.941</v>
+        <v>0.944</v>
       </c>
       <c r="K42" s="0" t="n">
         <v>0</v>
@@ -2618,22 +2876,26 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="D43" s="0" t="s">
-        <v>18</v>
+        <v>118</v>
+      </c>
+      <c r="D43" s="0" t="str">
+        <f aca="false">MID(C43, 1, 3)</f>
+        <v>ATL</v>
+      </c>
+      <c r="E43" s="0" t="n">
+        <v>11</v>
       </c>
       <c r="F43" s="0" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G43" s="0" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H43" s="0" t="n">
         <v>0</v>
@@ -2642,7 +2904,7 @@
         <v>1</v>
       </c>
       <c r="J43" s="0" t="n">
-        <v>0.933</v>
+        <v>0.929</v>
       </c>
       <c r="K43" s="0" t="n">
         <v>0</v>
@@ -2662,46 +2924,47 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="D44" s="0" t="s">
-        <v>22</v>
+        <v>120</v>
+      </c>
+      <c r="D44" s="0" t="str">
+        <f aca="false">MID(C44, 1, 3)</f>
+        <v>ORI</v>
+      </c>
+      <c r="E44" s="0" t="n">
+        <v>11</v>
       </c>
       <c r="F44" s="0" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G44" s="0" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H44" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I44" s="0" t="n">
         <v>1</v>
       </c>
       <c r="J44" s="0" t="n">
-        <v>0.933</v>
+        <v>0.917</v>
       </c>
       <c r="K44" s="0" t="n">
         <v>0</v>
       </c>
       <c r="L44" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M44" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" s="0" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O44" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P44" s="0" t="n">
         <v>0</v>
@@ -2709,37 +2972,41 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="D45" s="0" t="s">
-        <v>18</v>
+        <v>105</v>
+      </c>
+      <c r="D45" s="0" t="str">
+        <f aca="false">MID(C45, 1, 3)</f>
+        <v>DOD</v>
+      </c>
+      <c r="E45" s="0" t="n">
+        <v>11</v>
       </c>
       <c r="F45" s="0" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G45" s="0" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H45" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I45" s="0" t="n">
         <v>1</v>
       </c>
       <c r="J45" s="0" t="n">
-        <v>0.929</v>
+        <v>0.909</v>
       </c>
       <c r="K45" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L45" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M45" s="0" t="n">
         <v>0</v>
@@ -2756,43 +3023,50 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D46" s="0" t="s">
-        <v>22</v>
+        <v>124</v>
+      </c>
+      <c r="D46" s="0" t="str">
+        <f aca="false">MID(C46, 1, 3)</f>
+        <v>DOD</v>
+      </c>
+      <c r="E46" s="0" t="n">
+        <v>11</v>
       </c>
       <c r="F46" s="0" t="n">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="G46" s="0" t="n">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="H46" s="0" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I46" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J46" s="0" t="n">
-        <v>0.929</v>
+        <v>0.906</v>
       </c>
       <c r="K46" s="0" t="n">
         <v>0</v>
       </c>
       <c r="L46" s="0" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="M46" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="N46" s="0" t="n">
+        <v>0.913</v>
       </c>
       <c r="O46" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P46" s="0" t="n">
         <v>0</v>
@@ -2800,31 +3074,35 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="B47" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="D47" s="0" t="str">
+        <f aca="false">MID(C47, 1, 3)</f>
+        <v>ORI</v>
+      </c>
+      <c r="E47" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="F47" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="G47" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="H47" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="I47" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="C47" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="D47" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="F47" s="0" t="n">
-        <v>37</v>
-      </c>
-      <c r="G47" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="H47" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="I47" s="0" t="n">
-        <v>3</v>
-      </c>
       <c r="J47" s="0" t="n">
-        <v>0.919</v>
+        <v>0.905</v>
       </c>
       <c r="K47" s="0" t="n">
         <v>2</v>
@@ -2847,34 +3125,38 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="D48" s="0" t="s">
-        <v>38</v>
+        <v>105</v>
+      </c>
+      <c r="D48" s="0" t="str">
+        <f aca="false">MID(C48, 1, 3)</f>
+        <v>DOD</v>
+      </c>
+      <c r="E48" s="0" t="n">
+        <v>11</v>
       </c>
       <c r="F48" s="0" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G48" s="0" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H48" s="0" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I48" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J48" s="0" t="n">
-        <v>0.909</v>
+        <v>0.9</v>
       </c>
       <c r="K48" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L48" s="0" t="n">
         <v>0</v>
@@ -2891,43 +3173,47 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="C49" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="D49" s="0" t="str">
+        <f aca="false">MID(C49, 1, 3)</f>
+        <v>DOD</v>
+      </c>
+      <c r="E49" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="F49" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="D49" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="F49" s="0" t="n">
-        <v>11</v>
-      </c>
       <c r="G49" s="0" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="H49" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I49" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J49" s="0" t="n">
-        <v>0.909</v>
+        <v>0.893</v>
       </c>
       <c r="K49" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L49" s="0" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M49" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N49" s="0" t="n">
-        <v>1</v>
+        <v>0.857</v>
       </c>
       <c r="O49" s="0" t="n">
         <v>0</v>
@@ -2938,46 +3224,50 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>34</v>
+        <v>131</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="D50" s="0" t="s">
-        <v>18</v>
+        <v>132</v>
+      </c>
+      <c r="D50" s="0" t="str">
+        <f aca="false">MID(C50, 1, 3)</f>
+        <v>DOD</v>
+      </c>
+      <c r="E50" s="0" t="n">
+        <v>11</v>
       </c>
       <c r="F50" s="0" t="n">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="G50" s="0" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="H50" s="0" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="I50" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="J50" s="0" t="n">
+        <v>0.889</v>
+      </c>
+      <c r="K50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="J50" s="0" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="K50" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L50" s="0" t="n">
-        <v>20</v>
-      </c>
       <c r="M50" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N50" s="0" t="n">
-        <v>0.909</v>
+        <v>1</v>
       </c>
       <c r="O50" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P50" s="0" t="n">
         <v>0</v>
@@ -2985,43 +3275,50 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="D51" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D51" s="0" t="str">
+        <f aca="false">MID(C51, 1, 3)</f>
+        <v>ATL</v>
+      </c>
+      <c r="E51" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="F51" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="F51" s="0" t="n">
-        <v>20</v>
-      </c>
       <c r="G51" s="0" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H51" s="0" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I51" s="0" t="n">
         <v>2</v>
       </c>
       <c r="J51" s="0" t="n">
-        <v>0.9</v>
+        <v>0.889</v>
       </c>
       <c r="K51" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L51" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M51" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="N51" s="0" t="n">
+        <v>0.5</v>
       </c>
       <c r="O51" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P51" s="0" t="n">
         <v>0</v>
@@ -3029,43 +3326,44 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>27</v>
+        <v>136</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="D52" s="0" t="s">
-        <v>18</v>
+        <v>137</v>
+      </c>
+      <c r="D52" s="0" t="str">
+        <f aca="false">MID(C52, 1, 3)</f>
+        <v>ORI</v>
+      </c>
+      <c r="E52" s="0" t="n">
+        <v>11</v>
       </c>
       <c r="F52" s="0" t="n">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="G52" s="0" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="H52" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I52" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J52" s="0" t="n">
-        <v>0.893</v>
+        <v>0.889</v>
       </c>
       <c r="K52" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L52" s="0" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M52" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" s="0" t="n">
-        <v>0.857</v>
+        <v>0</v>
       </c>
       <c r="O52" s="0" t="n">
         <v>0</v>
@@ -3076,43 +3374,47 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="D53" s="0" t="s">
-        <v>18</v>
+        <v>27</v>
+      </c>
+      <c r="D53" s="0" t="str">
+        <f aca="false">MID(C53, 1, 3)</f>
+        <v>ORI</v>
+      </c>
+      <c r="E53" s="0" t="n">
+        <v>11</v>
       </c>
       <c r="F53" s="0" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="G53" s="0" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="H53" s="0" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I53" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J53" s="0" t="n">
-        <v>0.88</v>
+        <v>0.875</v>
       </c>
       <c r="K53" s="0" t="n">
         <v>1</v>
       </c>
       <c r="L53" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M53" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N53" s="0" t="n">
-        <v>1</v>
+        <v>0.333</v>
       </c>
       <c r="O53" s="0" t="n">
         <v>0</v>
@@ -3123,25 +3425,29 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="D54" s="0" t="s">
-        <v>38</v>
+        <v>124</v>
+      </c>
+      <c r="D54" s="0" t="str">
+        <f aca="false">MID(C54, 1, 3)</f>
+        <v>DOD</v>
+      </c>
+      <c r="E54" s="0" t="n">
+        <v>11</v>
       </c>
       <c r="F54" s="0" t="n">
         <v>16</v>
       </c>
       <c r="G54" s="0" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H54" s="0" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I54" s="0" t="n">
         <v>2</v>
@@ -3150,7 +3456,7 @@
         <v>0.875</v>
       </c>
       <c r="K54" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L54" s="0" t="n">
         <v>1</v>
@@ -3170,28 +3476,32 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="D55" s="0" t="s">
-        <v>18</v>
+        <v>144</v>
+      </c>
+      <c r="D55" s="0" t="str">
+        <f aca="false">MID(C55, 1, 3)</f>
+        <v>ATL</v>
+      </c>
+      <c r="E55" s="0" t="n">
+        <v>11</v>
       </c>
       <c r="F55" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="G55" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="G55" s="0" t="n">
-        <v>2</v>
-      </c>
       <c r="H55" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I55" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J55" s="0" t="n">
         <v>0.857</v>
@@ -3200,13 +3510,10 @@
         <v>0</v>
       </c>
       <c r="L55" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M55" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="N55" s="0" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="O55" s="0" t="n">
         <v>0</v>
@@ -3217,40 +3524,47 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="D56" s="0" t="s">
-        <v>22</v>
+        <v>111</v>
+      </c>
+      <c r="D56" s="0" t="str">
+        <f aca="false">MID(C56, 1, 3)</f>
+        <v>DOD</v>
+      </c>
+      <c r="E56" s="0" t="n">
+        <v>11</v>
       </c>
       <c r="F56" s="0" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G56" s="0" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H56" s="0" t="n">
         <v>4</v>
       </c>
       <c r="I56" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J56" s="0" t="n">
-        <v>0.846</v>
+        <v>0.857</v>
       </c>
       <c r="K56" s="0" t="n">
         <v>0</v>
       </c>
       <c r="L56" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M56" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="N56" s="0" t="n">
+        <v>0.5</v>
       </c>
       <c r="O56" s="0" t="n">
         <v>0</v>
@@ -3261,16 +3575,20 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="D57" s="0" t="s">
-        <v>38</v>
+        <v>149</v>
+      </c>
+      <c r="D57" s="0" t="str">
+        <f aca="false">MID(C57, 1, 3)</f>
+        <v>ORI</v>
+      </c>
+      <c r="E57" s="0" t="n">
+        <v>11</v>
       </c>
       <c r="F57" s="0" t="n">
         <v>18</v>
@@ -3308,22 +3626,26 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="D58" s="0" t="s">
-        <v>38</v>
+        <v>151</v>
+      </c>
+      <c r="D58" s="0" t="str">
+        <f aca="false">MID(C58, 1, 3)</f>
+        <v>ORI</v>
+      </c>
+      <c r="E58" s="0" t="n">
+        <v>11</v>
       </c>
       <c r="F58" s="0" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G58" s="0" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H58" s="0" t="n">
         <v>3</v>
@@ -3332,7 +3654,7 @@
         <v>3</v>
       </c>
       <c r="J58" s="0" t="n">
-        <v>0.8</v>
+        <v>0.813</v>
       </c>
       <c r="K58" s="0" t="n">
         <v>1</v>
@@ -3352,40 +3674,47 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>139</v>
+        <v>34</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="D59" s="0" t="s">
-        <v>38</v>
+        <v>96</v>
+      </c>
+      <c r="D59" s="0" t="str">
+        <f aca="false">MID(C59, 1, 3)</f>
+        <v>TAM</v>
+      </c>
+      <c r="E59" s="0" t="n">
+        <v>11</v>
       </c>
       <c r="F59" s="0" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G59" s="0" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H59" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I59" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J59" s="0" t="n">
-        <v>0.778</v>
+        <v>0.8</v>
       </c>
       <c r="K59" s="0" t="n">
         <v>0</v>
       </c>
       <c r="L59" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M59" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="N59" s="0" t="n">
+        <v>0.571</v>
       </c>
       <c r="O59" s="0" t="n">
         <v>0</v>
@@ -3396,43 +3725,44 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="D60" s="0" t="s">
-        <v>38</v>
+        <v>27</v>
+      </c>
+      <c r="D60" s="0" t="str">
+        <f aca="false">MID(C60, 1, 3)</f>
+        <v>ORI</v>
+      </c>
+      <c r="E60" s="0" t="n">
+        <v>11</v>
       </c>
       <c r="F60" s="0" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G60" s="0" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H60" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J60" s="0" t="n">
-        <v>0.75</v>
+        <v>0.778</v>
       </c>
       <c r="K60" s="0" t="n">
         <v>0</v>
       </c>
       <c r="L60" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M60" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="N60" s="0" t="n">
-        <v>1</v>
       </c>
       <c r="O60" s="0" t="n">
         <v>0</v>
@@ -3443,25 +3773,29 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="D61" s="0" t="s">
-        <v>38</v>
+        <v>61</v>
+      </c>
+      <c r="D61" s="0" t="str">
+        <f aca="false">MID(C61, 1, 3)</f>
+        <v>ORI</v>
+      </c>
+      <c r="E61" s="0" t="n">
+        <v>11</v>
       </c>
       <c r="F61" s="0" t="n">
         <v>4</v>
       </c>
       <c r="G61" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H61" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I61" s="0" t="n">
         <v>1</v>
@@ -3470,13 +3804,16 @@
         <v>0.75</v>
       </c>
       <c r="K61" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L61" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M61" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="N61" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="O61" s="0" t="n">
         <v>0</v>
@@ -3487,31 +3824,35 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="D62" s="0" t="s">
-        <v>18</v>
+        <v>24</v>
+      </c>
+      <c r="D62" s="0" t="str">
+        <f aca="false">MID(C62, 1, 3)</f>
+        <v>DOD</v>
+      </c>
+      <c r="E62" s="0" t="n">
+        <v>11</v>
       </c>
       <c r="F62" s="0" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G62" s="0" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H62" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I62" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J62" s="0" t="n">
-        <v>0.727</v>
+        <v>0.692</v>
       </c>
       <c r="K62" s="0" t="n">
         <v>0</v>
@@ -3534,16 +3875,20 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="D63" s="0" t="s">
-        <v>38</v>
+        <v>161</v>
+      </c>
+      <c r="D63" s="0" t="str">
+        <f aca="false">MID(C63, 1, 3)</f>
+        <v>ORI</v>
+      </c>
+      <c r="E63" s="0" t="n">
+        <v>11</v>
       </c>
       <c r="F63" s="0" t="n">
         <v>9</v>
@@ -3576,6 +3921,507 @@
         <v>0</v>
       </c>
       <c r="P63" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="D64" s="0" t="str">
+        <f aca="false">MID(C64, 1, 3)</f>
+        <v>DOD</v>
+      </c>
+      <c r="E64" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="F64" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G64" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H64" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="J64" s="0" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="K64" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L64" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M64" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O64" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P64" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="D65" s="0" t="str">
+        <f aca="false">MID(C65, 1, 3)</f>
+        <v>DOD</v>
+      </c>
+      <c r="E65" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="F65" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G65" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H65" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J65" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K65" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L65" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N65" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O65" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P65" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="D66" s="0" t="str">
+        <f aca="false">MID(C66, 1, 3)</f>
+        <v>ATL</v>
+      </c>
+      <c r="E66" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="F66" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G66" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I66" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="J66" s="0" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="K66" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="M66" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N66" s="0" t="n">
+        <v>0.909</v>
+      </c>
+      <c r="O66" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P66" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="C67" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D67" s="0" t="str">
+        <f aca="false">MID(C67, 1, 3)</f>
+        <v>ATL</v>
+      </c>
+      <c r="E67" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="F67" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G67" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="J67" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M67" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O67" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P67" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="D68" s="0" t="str">
+        <f aca="false">MID(C68, 1, 3)</f>
+        <v>ATL</v>
+      </c>
+      <c r="E68" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="F68" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G68" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J68" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L68" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M68" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O68" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P68" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="C69" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="D69" s="0" t="str">
+        <f aca="false">MID(C69, 1, 3)</f>
+        <v>ORI</v>
+      </c>
+      <c r="E69" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="F69" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L69" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="M69" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N69" s="0" t="n">
+        <v>0.714</v>
+      </c>
+      <c r="O69" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P69" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="C70" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="D70" s="0" t="str">
+        <f aca="false">MID(C70, 1, 3)</f>
+        <v>TAM</v>
+      </c>
+      <c r="E70" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="F70" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L70" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="M70" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N70" s="0" t="n">
+        <v>0.857</v>
+      </c>
+      <c r="O70" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P70" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="C71" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="D71" s="0" t="str">
+        <f aca="false">MID(C71, 1, 3)</f>
+        <v>ATL</v>
+      </c>
+      <c r="E71" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="F71" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L71" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="M71" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N71" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O71" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P71" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="C72" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="D72" s="0" t="str">
+        <f aca="false">MID(C72, 1, 3)</f>
+        <v>ATL</v>
+      </c>
+      <c r="E72" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="F72" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L72" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="M72" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N72" s="0" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="O72" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P72" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="C73" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D73" s="0" t="str">
+        <f aca="false">MID(C73, 1, 3)</f>
+        <v>TAM</v>
+      </c>
+      <c r="E73" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="F73" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L73" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M73" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N73" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O73" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P73" s="0" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/csv/stats_fielding_raw_tsl_2024.xlsx
+++ b/data/csv/stats_fielding_raw_tsl_2024.xlsx
@@ -20,11 +20,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="186">
   <si>
     <t xml:space="preserve">Player</t>
   </si>
   <si>
+    <t xml:space="preserve">FIRST NAME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEAM</t>
+  </si>
+  <si>
     <t xml:space="preserve">G</t>
   </si>
   <si>
@@ -55,10 +61,7 @@
     <t xml:space="preserve">SBA%</t>
   </si>
   <si>
-    <t xml:space="preserve">PB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CI</t>
+    <t xml:space="preserve">PB  CI</t>
   </si>
   <si>
     <t xml:space="preserve">MENDOZA</t>
@@ -70,85 +73,382 @@
     <t xml:space="preserve">ATLANTA...</t>
   </si>
   <si>
+    <t xml:space="preserve">  0   0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MADRIGAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORIC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATLANTA.....</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRUZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAFAEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DODGERS.......</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GARCIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUISFER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAMPA......</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOVAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GABRIEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORIOLES.....</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RODRIGUEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAINER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATLANTA..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARAYA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATLANTA...........</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AZCUY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOSHUA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAMPA........</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHINEA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PABLO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BONGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DODGERS.........</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WALO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEBASTIAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FRANCO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YANCARLO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EVIAN ROMERO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JORGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATLANTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VAN MOOK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAURO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORIOLES....</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOLENMAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEM OUDE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAMPA...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FINOL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DODGERS...........</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARRASCO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FREIONIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DODGERS.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MERKELBACK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BENNETT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAMPA..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TORREALBA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAMPA.........</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAMONJCA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIRKO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PERUZZO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MATIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GAMBERA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANDREA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JUAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATLANTA........</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGUILAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DELGADO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIEGO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAMPA.......</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NIEMEYER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FINN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1   0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GORTEMULDER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEPIJN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QUINTANA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMUEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALBERTINI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DANIELE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORIOLES.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROJAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANGEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CASTILLO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALEJANDRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INFANTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAIMOND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAMPA.....</t>
+  </si>
+  <si>
     <t xml:space="preserve">CARDINALES</t>
   </si>
   <si>
-    <t xml:space="preserve">CARLOS A</t>
+    <t xml:space="preserve">CARLOS</t>
   </si>
   <si>
     <t xml:space="preserve">DODGER</t>
   </si>
   <si>
-    <t xml:space="preserve">MADRIGAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORIC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATLANTA.....</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CRUZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RAFAEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DODGERS.......</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOVAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GABRIEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORIOLES.....</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GARCIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUISFER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAMPA......</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARAYA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATLANTA...........</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RODRIGUEZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RAINER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATLANTA..</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AZCUY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JOSHUA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAMPA........</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WALO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEBASTIAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRANCO</t>
+    <t xml:space="preserve">ASCANIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAVIDE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DODGERS....</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LARA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEDRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAMPA..........</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BALICE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALEX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATLANTA.......</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MILANO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MANUEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEREZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIGUEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DODGERS......</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COLOMBO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GABRIELE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORIOLES..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VARGAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATLANTA......</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REGAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORIOLES......</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GANASSI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARTIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANSELMI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GONZALEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAYAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TORRES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORIOLES..........</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALONSO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DODGERS.....</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2   0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPECK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JURI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DODGERS........</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BENCOMO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOSE ANGEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SWAAK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORIOLES........</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COLLAZO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JESUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROCCO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RUBERTI</t>
   </si>
   <si>
     <t xml:space="preserve">JOAN KELLY</t>
@@ -157,297 +457,6 @@
     <t xml:space="preserve">ATLANTA.</t>
   </si>
   <si>
-    <t xml:space="preserve">EVIAN ROMERO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JORGE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATLANTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BONGE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DODGERS.........</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHINEA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PABLO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOLENMAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEM OUDE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAMPA...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MERKELBACK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BENNETT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAMPA..</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GAMBERA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANDREA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORIOLES....</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PERUZZO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MATIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TORREALBA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAMPA.........</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CARRASCO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FREIONIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DODGERS.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FINOL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DODGERS...........</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YANCARLO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAMONJCA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MIRKO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VAN MOOK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAURO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JUAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATLANTA........</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGUILAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DELGADO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIEGO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAMPA.......</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NIEMEYER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FINN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GORTEMULDER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PEPIJN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QUINTANA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMUEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CASTILLO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALEJANDRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALBERTINI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DANIELE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORIOLES.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INFANTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RAIMOND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAMPA.....</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROJAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANGEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASCANIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CARLOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COLOMBO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GABRIELE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORIOLES..</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DAVIDE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DODGERS....</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LARA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PEDRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAMPA..........</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PEREZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MIGUEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DODGERS......</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MILANO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MANUEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BALICE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALEX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATLANTA.......</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VARGAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATLANTA......</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REGAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORIOLES......</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GONZALEZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DAYAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALONSO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DODGERS.....</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TORRES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORIOLES..........</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARTIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANSELMI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GANASSI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPECK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JURI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DODGERS........</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BENCOMO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JOSE ANGEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SWAAK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BLUE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORIOLES........</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROCCO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RUBERTI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COLLAZO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JESUS</t>
-  </si>
-  <si>
     <t xml:space="preserve">DE LOS SANTOS</t>
   </si>
   <si>
@@ -481,18 +490,18 @@
     <t xml:space="preserve">KEVIN</t>
   </si>
   <si>
+    <t xml:space="preserve">MONTIEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DANIEL</t>
+  </si>
+  <si>
     <t xml:space="preserve">ZIRONI</t>
   </si>
   <si>
     <t xml:space="preserve">MAICOL</t>
   </si>
   <si>
-    <t xml:space="preserve">MONTIEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DANIEL</t>
-  </si>
-  <si>
     <t xml:space="preserve">VRANA</t>
   </si>
   <si>
@@ -529,13 +538,37 @@
     <t xml:space="preserve">SERRA</t>
   </si>
   <si>
+    <t xml:space="preserve">ANTON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WILDER</t>
+  </si>
+  <si>
     <t xml:space="preserve">ROLDAN</t>
   </si>
   <si>
-    <t xml:space="preserve">ANTON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WILDER</t>
+    <t xml:space="preserve">LUIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIAZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENMANUEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REINA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROINEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BORLONI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MATTEO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATLANTA....</t>
   </si>
   <si>
     <t xml:space="preserve">DE LA ROSA</t>
@@ -545,30 +578,6 @@
   </si>
   <si>
     <t xml:space="preserve">ORIOLES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIAZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENMANUEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BORLONI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MATTEO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATLANTA....</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REINA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROINEL</t>
   </si>
 </sst>
 </file>
@@ -770,92 +779,92 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P73"/>
+  <dimension ref="A1:O73"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="18.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="4.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="3.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="0" width="4.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="4.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="3.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="2.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="6.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="5.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="0" width="5.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="7.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="4.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="3.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="4.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="6.3"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>2</v>
+      </c>
       <c r="E1" s="0" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2" s="0" t="str">
         <f aca="false">MID(C2, 1, 3)</f>
         <v>ATL</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="H2" s="0" t="n">
         <v>1</v>
@@ -867,7 +876,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L2" s="0" t="n">
         <v>1</v>
@@ -878,38 +887,35 @@
       <c r="N2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="O2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" s="0" t="n">
-        <v>0</v>
+      <c r="O2" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D3" s="0" t="str">
         <f aca="false">MID(C3, 1, 3)</f>
-        <v>DOD</v>
+        <v>ATL</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="I3" s="0" t="n">
         <v>0</v>
@@ -918,46 +924,46 @@
         <v>1</v>
       </c>
       <c r="K3" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L3" s="0" t="n">
         <v>0</v>
       </c>
       <c r="M3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="N3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D4" s="0" t="str">
         <f aca="false">MID(C4, 1, 3)</f>
-        <v>ATL</v>
+        <v>DOD</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>13</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="I4" s="0" t="n">
         <v>0</v>
@@ -972,43 +978,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" s="0" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D5" s="0" t="str">
         <f aca="false">MID(C5, 1, 3)</f>
-        <v>DOD</v>
+        <v>TAM</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I5" s="0" t="n">
         <v>0</v>
@@ -1025,29 +1025,26 @@
       <c r="M5" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="O5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" s="0" t="n">
-        <v>0</v>
+      <c r="O5" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D6" s="0" t="str">
         <f aca="false">MID(C6, 1, 3)</f>
         <v>ORI</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>13</v>
@@ -1073,29 +1070,26 @@
       <c r="M6" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="O6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" s="0" t="n">
-        <v>0</v>
+      <c r="O6" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D7" s="0" t="str">
         <f aca="false">MID(C7, 1, 3)</f>
-        <v>TAM</v>
+        <v>ATL</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>12</v>
@@ -1113,7 +1107,7 @@
         <v>1</v>
       </c>
       <c r="K7" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7" s="0" t="n">
         <v>0</v>
@@ -1121,38 +1115,35 @@
       <c r="M7" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="O7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" s="0" t="n">
-        <v>0</v>
+      <c r="O7" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D8" s="0" t="str">
         <f aca="false">MID(C8, 1, 3)</f>
         <v>ATL</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>4</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I8" s="0" t="n">
         <v>0</v>
@@ -1161,7 +1152,7 @@
         <v>1</v>
       </c>
       <c r="K8" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8" s="0" t="n">
         <v>0</v>
@@ -1169,38 +1160,35 @@
       <c r="M8" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="O8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" s="0" t="n">
-        <v>0</v>
+      <c r="O8" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D9" s="0" t="str">
         <f aca="false">MID(C9, 1, 3)</f>
-        <v>ATL</v>
+        <v>TAM</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I9" s="0" t="n">
         <v>0</v>
@@ -1209,7 +1197,7 @@
         <v>1</v>
       </c>
       <c r="K9" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" s="0" t="n">
         <v>0</v>
@@ -1217,38 +1205,35 @@
       <c r="M9" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="O9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" s="0" t="n">
-        <v>0</v>
+      <c r="O9" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B10" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="0" t="s">
         <v>38</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>39</v>
       </c>
       <c r="D10" s="0" t="str">
         <f aca="false">MID(C10, 1, 3)</f>
         <v>TAM</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>0</v>
@@ -1260,43 +1245,43 @@
         <v>0</v>
       </c>
       <c r="L10" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="N10" s="0" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="O10" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="D11" s="0" t="str">
         <f aca="false">MID(C11, 1, 3)</f>
-        <v>TAM</v>
+        <v>DOD</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>6</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" s="0" t="n">
         <v>0</v>
@@ -1313,35 +1298,32 @@
       <c r="M11" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="O11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" s="0" t="n">
-        <v>0</v>
+      <c r="O11" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="D12" s="0" t="str">
         <f aca="false">MID(C12, 1, 3)</f>
-        <v>ATL</v>
+        <v>TAM</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H12" s="0" t="n">
         <v>0</v>
@@ -1361,38 +1343,35 @@
       <c r="M12" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="O12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" s="0" t="n">
-        <v>0</v>
+      <c r="O12" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="D13" s="0" t="str">
         <f aca="false">MID(C13, 1, 3)</f>
         <v>ATL</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>5</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I13" s="0" t="n">
         <v>0</v>
@@ -1404,16 +1383,16 @@
         <v>0</v>
       </c>
       <c r="L13" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="N13" s="0" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="O13" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1428,19 +1407,19 @@
       </c>
       <c r="D14" s="0" t="str">
         <f aca="false">MID(C14, 1, 3)</f>
-        <v>DOD</v>
+        <v>ATL</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>5</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" s="0" t="n">
         <v>0</v>
@@ -1457,11 +1436,8 @@
       <c r="M14" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="O14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" s="0" t="n">
-        <v>0</v>
+      <c r="O14" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1472,23 +1448,23 @@
         <v>52</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="D15" s="0" t="str">
         <f aca="false">MID(C15, 1, 3)</f>
-        <v>TAM</v>
+        <v>ORI</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I15" s="0" t="n">
         <v>0</v>
@@ -1500,37 +1476,34 @@
         <v>0</v>
       </c>
       <c r="L15" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M15" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N15" s="0" t="n">
         <v>0.667</v>
       </c>
-      <c r="O15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" s="0" t="n">
-        <v>0</v>
+      <c r="O15" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D16" s="0" t="str">
         <f aca="false">MID(C16, 1, 3)</f>
         <v>TAM</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>4</v>
@@ -1559,38 +1532,35 @@
       <c r="N16" s="0" t="n">
         <v>0.667</v>
       </c>
-      <c r="O16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" s="0" t="n">
-        <v>0</v>
+      <c r="O16" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>58</v>
       </c>
       <c r="D17" s="0" t="str">
         <f aca="false">MID(C17, 1, 3)</f>
-        <v>TAM</v>
+        <v>DOD</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H17" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I17" s="0" t="n">
         <v>0</v>
@@ -1602,16 +1572,16 @@
         <v>0</v>
       </c>
       <c r="L17" s="0" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="N17" s="0" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="O17" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1626,40 +1596,40 @@
       </c>
       <c r="D18" s="0" t="str">
         <f aca="false">MID(C18, 1, 3)</f>
-        <v>ORI</v>
+        <v>DOD</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>3</v>
       </c>
       <c r="G18" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="M18" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="H18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" s="0" t="n">
-        <v>0</v>
+      <c r="N18" s="0" t="n">
+        <v>0.571</v>
+      </c>
+      <c r="O18" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1670,23 +1640,23 @@
         <v>63</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="D19" s="0" t="str">
         <f aca="false">MID(C19, 1, 3)</f>
-        <v>ATL</v>
+        <v>TAM</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>3</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H19" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" s="0" t="n">
         <v>0</v>
@@ -1703,29 +1673,26 @@
       <c r="M19" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="O19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" s="0" t="n">
-        <v>0</v>
+      <c r="O19" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D20" s="0" t="str">
         <f aca="false">MID(C20, 1, 3)</f>
         <v>TAM</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>3</v>
@@ -1746,37 +1713,34 @@
         <v>0</v>
       </c>
       <c r="L20" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M20" s="0" t="n">
         <v>1</v>
       </c>
       <c r="N20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" s="0" t="n">
-        <v>0</v>
+        <v>0.667</v>
+      </c>
+      <c r="O20" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="D21" s="0" t="str">
         <f aca="false">MID(C21, 1, 3)</f>
-        <v>DOD</v>
+        <v>ORI</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>3</v>
@@ -1797,19 +1761,13 @@
         <v>0</v>
       </c>
       <c r="L21" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M21" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="N21" s="0" t="n">
-        <v>0.571</v>
-      </c>
-      <c r="O21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" s="0" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="O21" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1817,26 +1775,26 @@
         <v>70</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="D22" s="0" t="str">
         <f aca="false">MID(C22, 1, 3)</f>
-        <v>DOD</v>
+        <v>ATL</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>3</v>
       </c>
       <c r="G22" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H22" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I22" s="0" t="n">
         <v>0</v>
@@ -1848,46 +1806,40 @@
         <v>0</v>
       </c>
       <c r="L22" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M22" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="N22" s="0" t="n">
-        <v>0.667</v>
-      </c>
-      <c r="O22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" s="0" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="O22" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="D23" s="0" t="str">
         <f aca="false">MID(C23, 1, 3)</f>
-        <v>ATL</v>
+        <v>ORI</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G23" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H23" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" s="0" t="n">
         <v>0</v>
@@ -1899,37 +1851,31 @@
         <v>0</v>
       </c>
       <c r="L23" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" s="0" t="n">
-        <v>0.667</v>
-      </c>
-      <c r="O23" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" s="0" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="O23" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>74</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="D24" s="0" t="str">
         <f aca="false">MID(C24, 1, 3)</f>
-        <v>ORI</v>
+        <v>ATL</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>2</v>
@@ -1950,43 +1896,43 @@
         <v>0</v>
       </c>
       <c r="L24" s="0" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M24" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="O24" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" s="0" t="n">
-        <v>0</v>
+      <c r="N24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O24" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D25" s="0" t="str">
         <f aca="false">MID(C25, 1, 3)</f>
         <v>ORI</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G25" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" s="0" t="n">
         <v>0</v>
@@ -2001,355 +1947,334 @@
         <v>2</v>
       </c>
       <c r="M25" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N25" s="0" t="n">
-        <v>0.667</v>
-      </c>
-      <c r="O25" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" s="0" t="n">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="O25" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D26" s="0" t="str">
         <f aca="false">MID(C26, 1, 3)</f>
-        <v>ATL</v>
+        <v>TAM</v>
       </c>
       <c r="E26" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="F26" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="G26" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H26" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K26" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" s="0" t="n">
-        <v>7</v>
-      </c>
       <c r="M26" s="0" t="n">
         <v>0</v>
       </c>
       <c r="N26" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="O26" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" s="0" t="n">
-        <v>0</v>
+      <c r="O26" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="D27" s="0" t="str">
         <f aca="false">MID(C27, 1, 3)</f>
         <v>ORI</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="H27" s="0" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I27" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J27" s="0" t="n">
-        <v>1</v>
+        <v>0.981</v>
       </c>
       <c r="K27" s="0" t="n">
         <v>0</v>
       </c>
       <c r="L27" s="0" t="n">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="M27" s="0" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="N27" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" s="0" t="n">
-        <v>0</v>
+        <v>0.684</v>
+      </c>
+      <c r="O27" s="0" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="D28" s="0" t="str">
         <f aca="false">MID(C28, 1, 3)</f>
         <v>TAM</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="H28" s="0" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I28" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" s="0" t="n">
-        <v>1</v>
+        <v>0.981</v>
       </c>
       <c r="K28" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L28" s="0" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M28" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O28" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" s="0" t="n">
-        <v>0</v>
+        <v>0.692</v>
+      </c>
+      <c r="O28" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D29" s="0" t="str">
         <f aca="false">MID(C29, 1, 3)</f>
-        <v>ORI</v>
+        <v>ATL</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H29" s="0" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I29" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J29" s="0" t="n">
-        <v>0.989</v>
+        <v>0.98</v>
       </c>
       <c r="K29" s="0" t="n">
         <v>0</v>
       </c>
       <c r="L29" s="0" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M29" s="0" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="N29" s="0" t="n">
-        <v>0.657</v>
-      </c>
-      <c r="O29" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="P29" s="0" t="n">
-        <v>0</v>
+        <v>0.857</v>
+      </c>
+      <c r="O29" s="0" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="D30" s="0" t="str">
         <f aca="false">MID(C30, 1, 3)</f>
-        <v>TAM</v>
+        <v>ORI</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H30" s="0" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I30" s="0" t="n">
         <v>1</v>
       </c>
       <c r="J30" s="0" t="n">
-        <v>0.981</v>
+        <v>0.97</v>
       </c>
       <c r="K30" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L30" s="0" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M30" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N30" s="0" t="n">
-        <v>0.692</v>
-      </c>
-      <c r="O30" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" s="0" t="n">
-        <v>0</v>
+        <v>0.833</v>
+      </c>
+      <c r="O30" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D31" s="0" t="str">
         <f aca="false">MID(C31, 1, 3)</f>
-        <v>ATL</v>
+        <v>DOD</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="H31" s="0" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I31" s="0" t="n">
         <v>2</v>
       </c>
       <c r="J31" s="0" t="n">
-        <v>0.978</v>
+        <v>0.968</v>
       </c>
       <c r="K31" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L31" s="0" t="n">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="M31" s="0" t="n">
         <v>5</v>
       </c>
       <c r="N31" s="0" t="n">
-        <v>0.853</v>
-      </c>
-      <c r="O31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="P31" s="0" t="n">
-        <v>0</v>
+        <v>0.615</v>
+      </c>
+      <c r="O31" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D32" s="0" t="str">
         <f aca="false">MID(C32, 1, 3)</f>
         <v>TAM</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G32" s="0" t="n">
         <v>16</v>
       </c>
       <c r="H32" s="0" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I32" s="0" t="n">
         <v>1</v>
       </c>
       <c r="J32" s="0" t="n">
-        <v>0.967</v>
+        <v>0.968</v>
       </c>
       <c r="K32" s="0" t="n">
         <v>0</v>
@@ -2363,191 +2288,173 @@
       <c r="N32" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="O32" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" s="0" t="n">
-        <v>0</v>
+      <c r="O32" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D33" s="0" t="str">
         <f aca="false">MID(C33, 1, 3)</f>
-        <v>ORI</v>
+        <v>TAM</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="G33" s="0" t="n">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="H33" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I33" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J33" s="0" t="n">
-        <v>0.963</v>
+        <v>0.965</v>
       </c>
       <c r="K33" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L33" s="0" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="M33" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N33" s="0" t="n">
-        <v>0.833</v>
-      </c>
-      <c r="O33" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="O33" s="0" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D34" s="0" t="str">
         <f aca="false">MID(C34, 1, 3)</f>
-        <v>TAM</v>
+        <v>DOD</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="H34" s="0" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="I34" s="0" t="n">
         <v>2</v>
       </c>
       <c r="J34" s="0" t="n">
-        <v>0.962</v>
+        <v>0.961</v>
       </c>
       <c r="K34" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34" s="0" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="M34" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="N34" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O34" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="P34" s="0" t="n">
-        <v>0</v>
+      <c r="O34" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B35" s="0" t="s">
         <v>98</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D35" s="0" t="str">
         <f aca="false">MID(C35, 1, 3)</f>
-        <v>DOD</v>
+        <v>TAM</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" s="0" t="n">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="H35" s="0" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="I35" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J35" s="0" t="n">
-        <v>0.962</v>
+        <v>0.96</v>
       </c>
       <c r="K35" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L35" s="0" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M35" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="N35" s="0" t="n">
-        <v>0.545</v>
-      </c>
-      <c r="O35" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" s="0" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="O35" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>30</v>
+        <v>102</v>
       </c>
       <c r="D36" s="0" t="str">
         <f aca="false">MID(C36, 1, 3)</f>
-        <v>TAM</v>
+        <v>DOD</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" s="0" t="n">
         <v>25</v>
       </c>
       <c r="G36" s="0" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H36" s="0" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I36" s="0" t="n">
         <v>1</v>
@@ -2556,106 +2463,103 @@
         <v>0.96</v>
       </c>
       <c r="K36" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L36" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="N36" s="0" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="O36" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D37" s="0" t="str">
         <f aca="false">MID(C37, 1, 3)</f>
-        <v>ORI</v>
+        <v>TAM</v>
       </c>
       <c r="E37" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>74</v>
+      </c>
+      <c r="G37" s="0" t="n">
+        <v>67</v>
+      </c>
+      <c r="H37" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="I37" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="J37" s="0" t="n">
+        <v>0.959</v>
+      </c>
+      <c r="K37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="F37" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="G37" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="H37" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="I37" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J37" s="0" t="n">
-        <v>0.958</v>
-      </c>
-      <c r="K37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" s="0" t="n">
-        <v>4</v>
-      </c>
       <c r="M37" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N37" s="0" t="n">
-        <v>0.667</v>
-      </c>
-      <c r="O37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" s="0" t="n">
-        <v>0</v>
+        <v>0.786</v>
+      </c>
+      <c r="O37" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D38" s="0" t="str">
         <f aca="false">MID(C38, 1, 3)</f>
-        <v>DOD</v>
+        <v>ATL</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" s="0" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G38" s="0" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H38" s="0" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I38" s="0" t="n">
         <v>1</v>
       </c>
       <c r="J38" s="0" t="n">
-        <v>0.955</v>
+        <v>0.957</v>
       </c>
       <c r="K38" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L38" s="0" t="n">
         <v>2</v>
@@ -2666,80 +2570,74 @@
       <c r="N38" s="0" t="n">
         <v>0.667</v>
       </c>
-      <c r="O38" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" s="0" t="n">
-        <v>0</v>
+      <c r="O38" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="D39" s="0" t="str">
         <f aca="false">MID(C39, 1, 3)</f>
         <v>TAM</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="G39" s="0" t="n">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="H39" s="0" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I39" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J39" s="0" t="n">
-        <v>0.952</v>
+        <v>0.947</v>
       </c>
       <c r="K39" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L39" s="0" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="M39" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N39" s="0" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="O39" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="O39" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D40" s="0" t="str">
         <f aca="false">MID(C40, 1, 3)</f>
         <v>DOD</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" s="0" t="n">
         <v>19</v>
@@ -2765,146 +2663,134 @@
       <c r="M40" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="O40" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" s="0" t="n">
-        <v>0</v>
+      <c r="O40" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D41" s="0" t="str">
         <f aca="false">MID(C41, 1, 3)</f>
-        <v>TAM</v>
+        <v>ORI</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" s="0" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G41" s="0" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="H41" s="0" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I41" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J41" s="0" t="n">
-        <v>0.947</v>
+        <v>0.933</v>
       </c>
       <c r="K41" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L41" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M41" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N41" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O41" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" s="0" t="n">
-        <v>0</v>
+        <v>0.667</v>
+      </c>
+      <c r="O41" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D42" s="0" t="str">
         <f aca="false">MID(C42, 1, 3)</f>
         <v>ATL</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" s="0" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G42" s="0" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H42" s="0" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I42" s="0" t="n">
         <v>1</v>
       </c>
       <c r="J42" s="0" t="n">
-        <v>0.944</v>
+        <v>0.929</v>
       </c>
       <c r="K42" s="0" t="n">
         <v>0</v>
       </c>
       <c r="L42" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M42" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" s="0" t="n">
-        <v>0.667</v>
-      </c>
-      <c r="O42" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" s="0" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="O42" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D43" s="0" t="str">
         <f aca="false">MID(C43, 1, 3)</f>
-        <v>ATL</v>
+        <v>ORI</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" s="0" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G43" s="0" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H43" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I43" s="0" t="n">
         <v>1</v>
       </c>
       <c r="J43" s="0" t="n">
-        <v>0.929</v>
+        <v>0.917</v>
       </c>
       <c r="K43" s="0" t="n">
         <v>0</v>
@@ -2915,185 +2801,173 @@
       <c r="M43" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="O43" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" s="0" t="n">
-        <v>0</v>
+      <c r="O43" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="D44" s="0" t="str">
         <f aca="false">MID(C44, 1, 3)</f>
-        <v>ORI</v>
+        <v>DOD</v>
       </c>
       <c r="E44" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" s="0" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="G44" s="0" t="n">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="H44" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="I44" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="I44" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="J44" s="0" t="n">
-        <v>0.917</v>
+        <v>0.912</v>
       </c>
       <c r="K44" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L44" s="0" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M44" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="N44" s="0" t="n">
+        <v>0.857</v>
+      </c>
+      <c r="O44" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D45" s="0" t="str">
         <f aca="false">MID(C45, 1, 3)</f>
         <v>DOD</v>
       </c>
       <c r="E45" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" s="0" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G45" s="0" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H45" s="0" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I45" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J45" s="0" t="n">
         <v>0.909</v>
       </c>
       <c r="K45" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L45" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M45" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="N45" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O45" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" s="0" t="n">
-        <v>0</v>
+      <c r="O45" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>23</v>
+        <v>125</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="D46" s="0" t="str">
         <f aca="false">MID(C46, 1, 3)</f>
         <v>DOD</v>
       </c>
       <c r="E46" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="F46" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="F46" s="0" t="n">
-        <v>53</v>
-      </c>
       <c r="G46" s="0" t="n">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="H46" s="0" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I46" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J46" s="0" t="n">
-        <v>0.906</v>
+        <v>0.909</v>
       </c>
       <c r="K46" s="0" t="n">
         <v>0</v>
       </c>
       <c r="L46" s="0" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="M46" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N46" s="0" t="n">
-        <v>0.913</v>
-      </c>
-      <c r="O46" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="P46" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="O46" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D47" s="0" t="str">
         <f aca="false">MID(C47, 1, 3)</f>
         <v>ORI</v>
       </c>
       <c r="E47" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" s="0" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G47" s="0" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H47" s="0" t="n">
         <v>22</v>
@@ -3102,7 +2976,7 @@
         <v>4</v>
       </c>
       <c r="J47" s="0" t="n">
-        <v>0.905</v>
+        <v>0.907</v>
       </c>
       <c r="K47" s="0" t="n">
         <v>2</v>
@@ -3116,86 +2990,83 @@
       <c r="N47" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="O47" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P47" s="0" t="n">
-        <v>0</v>
+      <c r="O47" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>128</v>
+        <v>22</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="D48" s="0" t="str">
         <f aca="false">MID(C48, 1, 3)</f>
         <v>DOD</v>
       </c>
       <c r="E48" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" s="0" t="n">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="G48" s="0" t="n">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="H48" s="0" t="n">
         <v>6</v>
       </c>
       <c r="I48" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J48" s="0" t="n">
-        <v>0.9</v>
+        <v>0.906</v>
       </c>
       <c r="K48" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L48" s="0" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="M48" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O48" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P48" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="N48" s="0" t="n">
+        <v>0.913</v>
+      </c>
+      <c r="O48" s="0" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="D49" s="0" t="str">
         <f aca="false">MID(C49, 1, 3)</f>
         <v>DOD</v>
       </c>
       <c r="E49" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" s="0" t="n">
         <v>28</v>
       </c>
       <c r="G49" s="0" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H49" s="0" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I49" s="0" t="n">
         <v>3</v>
@@ -3204,190 +3075,178 @@
         <v>0.893</v>
       </c>
       <c r="K49" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L49" s="0" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M49" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N49" s="0" t="n">
-        <v>0.857</v>
-      </c>
-      <c r="O49" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P49" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="O49" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>132</v>
+        <v>50</v>
       </c>
       <c r="D50" s="0" t="str">
         <f aca="false">MID(C50, 1, 3)</f>
-        <v>DOD</v>
+        <v>ATL</v>
       </c>
       <c r="E50" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" s="0" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G50" s="0" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H50" s="0" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I50" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J50" s="0" t="n">
         <v>0.889</v>
       </c>
       <c r="K50" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L50" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M50" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N50" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O50" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P50" s="0" t="n">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="O50" s="0" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>47</v>
+        <v>138</v>
       </c>
       <c r="D51" s="0" t="str">
         <f aca="false">MID(C51, 1, 3)</f>
-        <v>ATL</v>
+        <v>ORI</v>
       </c>
       <c r="E51" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" s="0" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="G51" s="0" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="H51" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I51" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J51" s="0" t="n">
         <v>0.889</v>
       </c>
       <c r="K51" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L51" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M51" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O51" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="P51" s="0" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="O51" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D52" s="0" t="str">
         <f aca="false">MID(C52, 1, 3)</f>
-        <v>ORI</v>
+        <v>DOD</v>
       </c>
       <c r="E52" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" s="0" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="G52" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H52" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I52" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J52" s="0" t="n">
-        <v>0.889</v>
+        <v>0.875</v>
       </c>
       <c r="K52" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L52" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M52" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="O52" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P52" s="0" t="n">
-        <v>0</v>
+      <c r="N52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O52" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D53" s="0" t="str">
         <f aca="false">MID(C53, 1, 3)</f>
         <v>ORI</v>
       </c>
       <c r="E53" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" s="0" t="n">
         <v>16</v>
@@ -3416,80 +3275,71 @@
       <c r="N53" s="0" t="n">
         <v>0.333</v>
       </c>
-      <c r="O53" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P53" s="0" t="n">
-        <v>0</v>
+      <c r="O53" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>140</v>
+        <v>46</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="D54" s="0" t="str">
         <f aca="false">MID(C54, 1, 3)</f>
-        <v>DOD</v>
+        <v>ATL</v>
       </c>
       <c r="E54" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" s="0" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G54" s="0" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H54" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I54" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J54" s="0" t="n">
         <v>0.875</v>
       </c>
       <c r="K54" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L54" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M54" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="N54" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O54" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P54" s="0" t="n">
-        <v>0</v>
+      <c r="O54" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D55" s="0" t="str">
         <f aca="false">MID(C55, 1, 3)</f>
         <v>ATL</v>
       </c>
       <c r="E55" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" s="0" t="n">
         <v>14</v>
@@ -3515,29 +3365,26 @@
       <c r="M55" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="O55" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P55" s="0" t="n">
-        <v>0</v>
+      <c r="O55" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D56" s="0" t="str">
         <f aca="false">MID(C56, 1, 3)</f>
         <v>DOD</v>
       </c>
       <c r="E56" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" s="0" t="n">
         <v>7</v>
@@ -3566,44 +3413,41 @@
       <c r="N56" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="O56" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P56" s="0" t="n">
-        <v>0</v>
+      <c r="O56" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D57" s="0" t="str">
         <f aca="false">MID(C57, 1, 3)</f>
         <v>ORI</v>
       </c>
       <c r="E57" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" s="0" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G57" s="0" t="n">
         <v>12</v>
       </c>
       <c r="H57" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I57" s="0" t="n">
         <v>3</v>
       </c>
       <c r="J57" s="0" t="n">
-        <v>0.833</v>
+        <v>0.842</v>
       </c>
       <c r="K57" s="0" t="n">
         <v>0</v>
@@ -3617,35 +3461,32 @@
       <c r="N57" s="0" t="n">
         <v>0.667</v>
       </c>
-      <c r="O57" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P57" s="0" t="n">
-        <v>0</v>
+      <c r="O57" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D58" s="0" t="str">
         <f aca="false">MID(C58, 1, 3)</f>
         <v>ORI</v>
       </c>
       <c r="E58" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" s="0" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G58" s="0" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H58" s="0" t="n">
         <v>3</v>
@@ -3654,7 +3495,7 @@
         <v>3</v>
       </c>
       <c r="J58" s="0" t="n">
-        <v>0.813</v>
+        <v>0.833</v>
       </c>
       <c r="K58" s="0" t="n">
         <v>1</v>
@@ -3665,19 +3506,16 @@
       <c r="M58" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="O58" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P58" s="0" t="n">
-        <v>0</v>
+      <c r="O58" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C59" s="0" t="s">
         <v>96</v>
@@ -3687,22 +3525,22 @@
         <v>TAM</v>
       </c>
       <c r="E59" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="G59" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H59" s="0" t="n">
-        <v>4</v>
-      </c>
       <c r="I59" s="0" t="n">
         <v>1</v>
       </c>
       <c r="J59" s="0" t="n">
-        <v>0.8</v>
+        <v>0.833</v>
       </c>
       <c r="K59" s="0" t="n">
         <v>0</v>
@@ -3716,134 +3554,125 @@
       <c r="N59" s="0" t="n">
         <v>0.571</v>
       </c>
-      <c r="O59" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P59" s="0" t="n">
-        <v>0</v>
+      <c r="O59" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="D60" s="0" t="str">
         <f aca="false">MID(C60, 1, 3)</f>
         <v>ORI</v>
       </c>
       <c r="E60" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" s="0" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G60" s="0" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H60" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J60" s="0" t="n">
-        <v>0.778</v>
+        <v>0.8</v>
       </c>
       <c r="K60" s="0" t="n">
         <v>0</v>
       </c>
       <c r="L60" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M60" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="O60" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P60" s="0" t="n">
-        <v>0</v>
+      <c r="N60" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O60" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="D61" s="0" t="str">
         <f aca="false">MID(C61, 1, 3)</f>
         <v>ORI</v>
       </c>
       <c r="E61" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" s="0" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G61" s="0" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H61" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J61" s="0" t="n">
-        <v>0.75</v>
+        <v>0.778</v>
       </c>
       <c r="K61" s="0" t="n">
         <v>0</v>
       </c>
       <c r="L61" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M61" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="N61" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O61" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P61" s="0" t="n">
-        <v>0</v>
+      <c r="O61" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D62" s="0" t="str">
         <f aca="false">MID(C62, 1, 3)</f>
         <v>DOD</v>
       </c>
       <c r="E62" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" s="0" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G62" s="0" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H62" s="0" t="n">
         <v>1</v>
@@ -3852,7 +3681,7 @@
         <v>4</v>
       </c>
       <c r="J62" s="0" t="n">
-        <v>0.692</v>
+        <v>0.733</v>
       </c>
       <c r="K62" s="0" t="n">
         <v>0</v>
@@ -3866,29 +3695,26 @@
       <c r="N62" s="0" t="n">
         <v>0.75</v>
       </c>
-      <c r="O62" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P62" s="0" t="n">
-        <v>0</v>
+      <c r="O62" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D63" s="0" t="str">
         <f aca="false">MID(C63, 1, 3)</f>
         <v>ORI</v>
       </c>
       <c r="E63" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" s="0" t="n">
         <v>9</v>
@@ -3917,29 +3743,26 @@
       <c r="N63" s="0" t="n">
         <v>0.75</v>
       </c>
-      <c r="O63" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P63" s="0" t="n">
-        <v>0</v>
+      <c r="O63" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D64" s="0" t="str">
         <f aca="false">MID(C64, 1, 3)</f>
         <v>DOD</v>
       </c>
       <c r="E64" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" s="0" t="n">
         <v>6</v>
@@ -3965,29 +3788,26 @@
       <c r="M64" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="O64" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P64" s="0" t="n">
-        <v>0</v>
+      <c r="O64" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D65" s="0" t="str">
         <f aca="false">MID(C65, 1, 3)</f>
         <v>DOD</v>
       </c>
       <c r="E65" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" s="0" t="n">
         <v>2</v>
@@ -4016,29 +3836,26 @@
       <c r="N65" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="O65" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P65" s="0" t="n">
-        <v>0</v>
+      <c r="O65" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="D66" s="0" t="str">
         <f aca="false">MID(C66, 1, 3)</f>
         <v>ATL</v>
       </c>
       <c r="E66" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" s="0" t="n">
         <v>3</v>
@@ -4059,37 +3876,34 @@
         <v>0</v>
       </c>
       <c r="L66" s="0" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M66" s="0" t="n">
         <v>1</v>
       </c>
       <c r="N66" s="0" t="n">
-        <v>0.909</v>
-      </c>
-      <c r="O66" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P66" s="0" t="n">
-        <v>0</v>
+        <v>0.917</v>
+      </c>
+      <c r="O66" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>15</v>
+        <v>118</v>
       </c>
       <c r="D67" s="0" t="str">
         <f aca="false">MID(C67, 1, 3)</f>
         <v>ATL</v>
       </c>
       <c r="E67" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" s="0" t="n">
         <v>2</v>
@@ -4115,32 +3929,29 @@
       <c r="M67" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="O67" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P67" s="0" t="n">
-        <v>0</v>
+      <c r="O67" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>118</v>
+        <v>16</v>
       </c>
       <c r="D68" s="0" t="str">
         <f aca="false">MID(C68, 1, 3)</f>
         <v>ATL</v>
       </c>
       <c r="E68" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G68" s="0" t="n">
         <v>0</v>
@@ -4149,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="I68" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J68" s="0" t="n">
         <v>0</v>
@@ -4163,29 +3974,26 @@
       <c r="M68" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="O68" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P68" s="0" t="n">
-        <v>0</v>
+      <c r="O68" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>172</v>
+        <v>112</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>174</v>
+        <v>108</v>
       </c>
       <c r="D69" s="0" t="str">
         <f aca="false">MID(C69, 1, 3)</f>
-        <v>ORI</v>
+        <v>ATL</v>
       </c>
       <c r="E69" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" s="0" t="n">
         <v>0</v>
@@ -4206,37 +4014,34 @@
         <v>0</v>
       </c>
       <c r="L69" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M69" s="0" t="n">
         <v>2</v>
       </c>
       <c r="N69" s="0" t="n">
-        <v>0.714</v>
-      </c>
-      <c r="O69" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P69" s="0" t="n">
-        <v>0</v>
+        <v>0.667</v>
+      </c>
+      <c r="O69" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D70" s="0" t="str">
         <f aca="false">MID(C70, 1, 3)</f>
         <v>TAM</v>
       </c>
       <c r="E70" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" s="0" t="n">
         <v>0</v>
@@ -4265,29 +4070,26 @@
       <c r="N70" s="0" t="n">
         <v>0.857</v>
       </c>
-      <c r="O70" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P70" s="0" t="n">
-        <v>0</v>
+      <c r="O70" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>179</v>
+        <v>38</v>
       </c>
       <c r="D71" s="0" t="str">
         <f aca="false">MID(C71, 1, 3)</f>
-        <v>ATL</v>
+        <v>TAM</v>
       </c>
       <c r="E71" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" s="0" t="n">
         <v>0</v>
@@ -4308,7 +4110,7 @@
         <v>0</v>
       </c>
       <c r="L71" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M71" s="0" t="n">
         <v>0</v>
@@ -4316,29 +4118,26 @@
       <c r="N71" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="O71" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P71" s="0" t="n">
-        <v>0</v>
+      <c r="O71" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>110</v>
+        <v>180</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>116</v>
+        <v>182</v>
       </c>
       <c r="D72" s="0" t="str">
         <f aca="false">MID(C72, 1, 3)</f>
         <v>ATL</v>
       </c>
       <c r="E72" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" s="0" t="n">
         <v>0</v>
@@ -4362,34 +4161,31 @@
         <v>4</v>
       </c>
       <c r="M72" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N72" s="0" t="n">
-        <v>0.667</v>
-      </c>
-      <c r="O72" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P72" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="O72" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>39</v>
+        <v>185</v>
       </c>
       <c r="D73" s="0" t="str">
         <f aca="false">MID(C73, 1, 3)</f>
-        <v>TAM</v>
+        <v>ORI</v>
       </c>
       <c r="E73" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" s="0" t="n">
         <v>0</v>
@@ -4410,19 +4206,16 @@
         <v>0</v>
       </c>
       <c r="L73" s="0" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="M73" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N73" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O73" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P73" s="0" t="n">
-        <v>0</v>
+        <v>0.8</v>
+      </c>
+      <c r="O73" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/data/csv/stats_fielding_raw_tsl_2024.xlsx
+++ b/data/csv/stats_fielding_raw_tsl_2024.xlsx
@@ -20,33 +20,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="185">
   <si>
     <t xml:space="preserve">Player</t>
   </si>
   <si>
-    <t xml:space="preserve">FIRST NAME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TEAM</t>
+    <t xml:space="preserve">First Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Team</t>
   </si>
   <si>
     <t xml:space="preserve">G</t>
   </si>
   <si>
-    <t xml:space="preserve"> C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FLD%</t>
+    <t xml:space="preserve">  C</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FLD%</t>
   </si>
   <si>
     <t xml:space="preserve">DPs</t>
@@ -58,10 +58,13 @@
     <t xml:space="preserve">CSB</t>
   </si>
   <si>
-    <t xml:space="preserve">SBA%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PB  CI</t>
+    <t xml:space="preserve"> SBA%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CI</t>
   </si>
   <si>
     <t xml:space="preserve">MENDOZA</t>
@@ -73,9 +76,6 @@
     <t xml:space="preserve">ATLANTA...</t>
   </si>
   <si>
-    <t xml:space="preserve">  0   0</t>
-  </si>
-  <si>
     <t xml:space="preserve">MADRIGAL</t>
   </si>
   <si>
@@ -85,6 +85,24 @@
     <t xml:space="preserve">ATLANTA.....</t>
   </si>
   <si>
+    <t xml:space="preserve">GARCIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUISFER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAMPA......</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARAYA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATLANTA...........</t>
+  </si>
+  <si>
     <t xml:space="preserve">CRUZ</t>
   </si>
   <si>
@@ -94,15 +112,6 @@
     <t xml:space="preserve">DODGERS.......</t>
   </si>
   <si>
-    <t xml:space="preserve">GARCIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUISFER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAMPA......</t>
-  </si>
-  <si>
     <t xml:space="preserve">TOVAR</t>
   </si>
   <si>
@@ -121,13 +130,10 @@
     <t xml:space="preserve">ATLANTA..</t>
   </si>
   <si>
-    <t xml:space="preserve">ARAYA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATLANTA...........</t>
+    <t xml:space="preserve">WALO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEBASTIAN</t>
   </si>
   <si>
     <t xml:space="preserve">AZCUY</t>
@@ -154,10 +160,13 @@
     <t xml:space="preserve">DODGERS.........</t>
   </si>
   <si>
-    <t xml:space="preserve">WALO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEBASTIAN</t>
+    <t xml:space="preserve">CARRASCO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FREIONIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DODGERS.</t>
   </si>
   <si>
     <t xml:space="preserve">FRANCO</t>
@@ -199,13 +208,16 @@
     <t xml:space="preserve">DODGERS...........</t>
   </si>
   <si>
-    <t xml:space="preserve">CARRASCO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FREIONIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DODGERS.</t>
+    <t xml:space="preserve">LAMONJCA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIRKO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GAMBERA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANDREA</t>
   </si>
   <si>
     <t xml:space="preserve">MERKELBACK</t>
@@ -226,51 +238,36 @@
     <t xml:space="preserve">TAMPA.........</t>
   </si>
   <si>
-    <t xml:space="preserve">LAMONJCA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MIRKO</t>
-  </si>
-  <si>
     <t xml:space="preserve">PERUZZO</t>
   </si>
   <si>
     <t xml:space="preserve">MATIS</t>
   </si>
   <si>
-    <t xml:space="preserve">GAMBERA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANDREA</t>
-  </si>
-  <si>
     <t xml:space="preserve">JUAN</t>
   </si>
   <si>
     <t xml:space="preserve">ATLANTA........</t>
   </si>
   <si>
+    <t xml:space="preserve">DELGADO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIEGO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAMPA.......</t>
+  </si>
+  <si>
     <t xml:space="preserve">AGUILAR</t>
   </si>
   <si>
-    <t xml:space="preserve">DELGADO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIEGO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAMPA.......</t>
-  </si>
-  <si>
     <t xml:space="preserve">NIEMEYER</t>
   </si>
   <si>
     <t xml:space="preserve">FINN</t>
   </si>
   <si>
-    <t xml:space="preserve">  1   0</t>
-  </si>
-  <si>
     <t xml:space="preserve">GORTEMULDER</t>
   </si>
   <si>
@@ -292,16 +289,22 @@
     <t xml:space="preserve">ORIOLES.</t>
   </si>
   <si>
+    <t xml:space="preserve">CASTILLO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALEJANDRO</t>
+  </si>
+  <si>
     <t xml:space="preserve">ROJAS</t>
   </si>
   <si>
     <t xml:space="preserve">ANGEL</t>
   </si>
   <si>
-    <t xml:space="preserve">CASTILLO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALEJANDRO</t>
+    <t xml:space="preserve">ASCANIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARLOS</t>
   </si>
   <si>
     <t xml:space="preserve">INFANTE</t>
@@ -313,55 +316,115 @@
     <t xml:space="preserve">TAMPA.....</t>
   </si>
   <si>
+    <t xml:space="preserve">LARA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEDRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAMPA..........</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAVIDE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DODGERS....</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEREZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIGUEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DODGERS......</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BALICE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALEX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATLANTA.......</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MILANO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MANUEL</t>
+  </si>
+  <si>
     <t xml:space="preserve">CARDINALES</t>
   </si>
   <si>
-    <t xml:space="preserve">CARLOS</t>
+    <t xml:space="preserve">CARLOS A</t>
   </si>
   <si>
     <t xml:space="preserve">DODGER</t>
   </si>
   <si>
-    <t xml:space="preserve">ASCANIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DAVIDE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DODGERS....</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LARA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PEDRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAMPA..........</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BALICE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALEX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATLANTA.......</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MILANO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MANUEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PEREZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MIGUEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DODGERS......</t>
+    <t xml:space="preserve">VARGAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATLANTA......</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GONZALEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAYAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALONSO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DODGERS.....</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TORRES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORIOLES..........</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REGAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORIOLES......</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GANASSI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARTIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANSELMI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPECK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JURI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DODGERS........</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BENCOMO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOSE ANGEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SWAAK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORIOLES........</t>
   </si>
   <si>
     <t xml:space="preserve">COLOMBO</t>
@@ -373,78 +436,18 @@
     <t xml:space="preserve">ORIOLES..</t>
   </si>
   <si>
-    <t xml:space="preserve">VARGAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATLANTA......</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REGAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORIOLES......</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GANASSI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARTIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANSELMI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GONZALEZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DAYAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TORRES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORIOLES..........</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALONSO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DODGERS.....</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2   0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPECK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JURI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DODGERS........</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BENCOMO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JOSE ANGEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SWAAK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BLUE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORIOLES........</t>
-  </si>
-  <si>
     <t xml:space="preserve">COLLAZO</t>
   </si>
   <si>
     <t xml:space="preserve">JESUS</t>
   </si>
   <si>
+    <t xml:space="preserve">NARANJO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORIOLES...</t>
+  </si>
+  <si>
     <t xml:space="preserve">ROCCO</t>
   </si>
   <si>
@@ -466,6 +469,12 @@
     <t xml:space="preserve">ATLAN</t>
   </si>
   <si>
+    <t xml:space="preserve">ZIRONI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAICOL</t>
+  </si>
+  <si>
     <t xml:space="preserve">NACAR</t>
   </si>
   <si>
@@ -481,12 +490,6 @@
     <t xml:space="preserve">ORIOLES.......</t>
   </si>
   <si>
-    <t xml:space="preserve">NARANJO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORIOLES...</t>
-  </si>
-  <si>
     <t xml:space="preserve">KEVIN</t>
   </si>
   <si>
@@ -496,18 +499,21 @@
     <t xml:space="preserve">DANIEL</t>
   </si>
   <si>
-    <t xml:space="preserve">ZIRONI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAICOL</t>
-  </si>
-  <si>
     <t xml:space="preserve">VRANA</t>
   </si>
   <si>
     <t xml:space="preserve">ROMAN</t>
   </si>
   <si>
+    <t xml:space="preserve">VALDIVIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARCEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DODGERS...</t>
+  </si>
+  <si>
     <t xml:space="preserve">OTAL TORO</t>
   </si>
   <si>
@@ -517,15 +523,6 @@
     <t xml:space="preserve">ORIOLE</t>
   </si>
   <si>
-    <t xml:space="preserve">VALDIVIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARCEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DODGERS...</t>
-  </si>
-  <si>
     <t xml:space="preserve">ZAMBRANO</t>
   </si>
   <si>
@@ -547,37 +544,37 @@
     <t xml:space="preserve">ROLDAN</t>
   </si>
   <si>
+    <t xml:space="preserve">DIAZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENMANUEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REINA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROINEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE LA ROSA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EDUARDO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORIOLES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BORLONI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MATTEO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATLANTA....</t>
+  </si>
+  <si>
     <t xml:space="preserve">LUIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIAZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENMANUEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REINA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROINEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BORLONI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MATTEO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATLANTA....</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE LA ROSA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EDUARDO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORIOLES</t>
   </si>
 </sst>
 </file>
@@ -779,24 +776,26 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O73"/>
+  <dimension ref="A1:P73"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="N1" activeCellId="15" sqref="N4:N10 N12 N15 N19:N21 N23 N33 N37 N40:N41 N45 N47 N50 N53 N55:N57 N63 N67:N68 N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="0" width="4.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="4.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="3.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="2.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="6.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="15.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="6.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="3.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="4.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="3.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="7.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="5.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="0" width="5.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="4.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="6.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="7.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="4.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="3.94"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -842,29 +841,32 @@
       <c r="O1" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="P1" s="0" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2" s="0" t="str">
-        <f aca="false">MID(C2, 1, 3)</f>
+        <f aca="false">MID(C2,1, 3)</f>
         <v>ATL</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="H2" s="0" t="n">
         <v>1</v>
@@ -887,8 +889,11 @@
       <c r="N2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="O2" s="0" t="s">
-        <v>17</v>
+      <c r="O2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -902,20 +907,20 @@
         <v>20</v>
       </c>
       <c r="D3" s="0" t="str">
-        <f aca="false">MID(C3, 1, 3)</f>
+        <f aca="false">MID(C3,1, 3)</f>
         <v>ATL</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I3" s="0" t="n">
         <v>0</v>
@@ -935,8 +940,11 @@
       <c r="N3" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="O3" s="0" t="s">
-        <v>17</v>
+      <c r="O3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -950,20 +958,20 @@
         <v>23</v>
       </c>
       <c r="D4" s="0" t="str">
-        <f aca="false">MID(C4, 1, 3)</f>
-        <v>DOD</v>
+        <f aca="false">MID(C4,1, 3)</f>
+        <v>TAM</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I4" s="0" t="n">
         <v>0</v>
@@ -980,8 +988,11 @@
       <c r="M4" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="O4" s="0" t="s">
-        <v>17</v>
+      <c r="O4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -995,20 +1006,20 @@
         <v>26</v>
       </c>
       <c r="D5" s="0" t="str">
-        <f aca="false">MID(C5, 1, 3)</f>
-        <v>TAM</v>
+        <f aca="false">MID(C5,1, 3)</f>
+        <v>ATL</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="I5" s="0" t="n">
         <v>0</v>
@@ -1017,7 +1028,7 @@
         <v>1</v>
       </c>
       <c r="K5" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5" s="0" t="n">
         <v>0</v>
@@ -1025,8 +1036,11 @@
       <c r="M5" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="O5" s="0" t="s">
-        <v>17</v>
+      <c r="O5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1040,20 +1054,20 @@
         <v>29</v>
       </c>
       <c r="D6" s="0" t="str">
-        <f aca="false">MID(C6, 1, 3)</f>
-        <v>ORI</v>
+        <f aca="false">MID(C6,1, 3)</f>
+        <v>DOD</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I6" s="0" t="n">
         <v>0</v>
@@ -1070,8 +1084,11 @@
       <c r="M6" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="O6" s="0" t="s">
-        <v>17</v>
+      <c r="O6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1085,20 +1102,20 @@
         <v>32</v>
       </c>
       <c r="D7" s="0" t="str">
-        <f aca="false">MID(C7, 1, 3)</f>
-        <v>ATL</v>
+        <f aca="false">MID(C7,1, 3)</f>
+        <v>ORI</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I7" s="0" t="n">
         <v>0</v>
@@ -1107,7 +1124,7 @@
         <v>1</v>
       </c>
       <c r="K7" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7" s="0" t="n">
         <v>0</v>
@@ -1115,8 +1132,11 @@
       <c r="M7" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="O7" s="0" t="s">
-        <v>17</v>
+      <c r="O7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1130,20 +1150,20 @@
         <v>35</v>
       </c>
       <c r="D8" s="0" t="str">
-        <f aca="false">MID(C8, 1, 3)</f>
+        <f aca="false">MID(C8,1, 3)</f>
         <v>ATL</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>12</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I8" s="0" t="n">
         <v>0</v>
@@ -1152,7 +1172,7 @@
         <v>1</v>
       </c>
       <c r="K8" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8" s="0" t="n">
         <v>0</v>
@@ -1160,8 +1180,11 @@
       <c r="M8" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="O8" s="0" t="s">
-        <v>17</v>
+      <c r="O8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1172,20 +1195,20 @@
         <v>37</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="D9" s="0" t="str">
-        <f aca="false">MID(C9, 1, 3)</f>
+        <f aca="false">MID(C9,1, 3)</f>
         <v>TAM</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H9" s="0" t="n">
         <v>0</v>
@@ -1205,35 +1228,38 @@
       <c r="M9" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="O9" s="0" t="s">
-        <v>17</v>
+      <c r="O9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="C10" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="0" t="s">
-        <v>38</v>
-      </c>
       <c r="D10" s="0" t="str">
-        <f aca="false">MID(C10, 1, 3)</f>
+        <f aca="false">MID(C10,1, 3)</f>
         <v>TAM</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>0</v>
@@ -1245,16 +1271,16 @@
         <v>0</v>
       </c>
       <c r="L10" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M10" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="N10" s="0" t="n">
-        <v>0.667</v>
-      </c>
-      <c r="O10" s="0" t="s">
-        <v>17</v>
+        <v>0</v>
+      </c>
+      <c r="O10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1265,14 +1291,14 @@
         <v>42</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D11" s="0" t="str">
-        <f aca="false">MID(C11, 1, 3)</f>
-        <v>DOD</v>
+        <f aca="false">MID(C11,1, 3)</f>
+        <v>TAM</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>6</v>
@@ -1293,40 +1319,46 @@
         <v>0</v>
       </c>
       <c r="L11" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" s="0" t="s">
-        <v>17</v>
+        <v>2</v>
+      </c>
+      <c r="N11" s="0" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="O11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="C12" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="0" t="s">
-        <v>26</v>
-      </c>
       <c r="D12" s="0" t="str">
-        <f aca="false">MID(C12, 1, 3)</f>
-        <v>TAM</v>
+        <f aca="false">MID(C12,1, 3)</f>
+        <v>DOD</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>6</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H12" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" s="0" t="n">
         <v>0</v>
@@ -1343,8 +1375,11 @@
       <c r="M12" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="O12" s="0" t="s">
-        <v>17</v>
+      <c r="O12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1355,71 +1390,74 @@
         <v>47</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="D13" s="0" t="str">
-        <f aca="false">MID(C13, 1, 3)</f>
-        <v>ATL</v>
+        <f aca="false">MID(C13,1, 3)</f>
+        <v>DOD</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>5</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H13" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="M13" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="I13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="M13" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="N13" s="0" t="n">
-        <v>0.667</v>
-      </c>
-      <c r="O13" s="0" t="s">
-        <v>17</v>
+        <v>0.571</v>
+      </c>
+      <c r="O13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="D14" s="0" t="str">
-        <f aca="false">MID(C14, 1, 3)</f>
+        <f aca="false">MID(C14,1, 3)</f>
         <v>ATL</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>5</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I14" s="0" t="n">
         <v>0</v>
@@ -1431,13 +1469,19 @@
         <v>0</v>
       </c>
       <c r="L14" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" s="0" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="N14" s="0" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="O14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1451,20 +1495,20 @@
         <v>53</v>
       </c>
       <c r="D15" s="0" t="str">
-        <f aca="false">MID(C15, 1, 3)</f>
-        <v>ORI</v>
+        <f aca="false">MID(C15,1, 3)</f>
+        <v>ATL</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F15" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G15" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="G15" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="H15" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I15" s="0" t="n">
         <v>0</v>
@@ -1476,16 +1520,16 @@
         <v>0</v>
       </c>
       <c r="L15" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" s="0" t="n">
-        <v>0.667</v>
-      </c>
-      <c r="O15" s="0" t="s">
-        <v>17</v>
+        <v>0</v>
+      </c>
+      <c r="O15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1499,20 +1543,20 @@
         <v>56</v>
       </c>
       <c r="D16" s="0" t="str">
-        <f aca="false">MID(C16, 1, 3)</f>
-        <v>TAM</v>
+        <f aca="false">MID(C16,1, 3)</f>
+        <v>ORI</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>4</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H16" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I16" s="0" t="n">
         <v>0</v>
@@ -1532,8 +1576,11 @@
       <c r="N16" s="0" t="n">
         <v>0.667</v>
       </c>
-      <c r="O16" s="0" t="s">
-        <v>17</v>
+      <c r="O16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1541,26 +1588,26 @@
         <v>57</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D17" s="0" t="str">
-        <f aca="false">MID(C17, 1, 3)</f>
-        <v>DOD</v>
+        <f aca="false">MID(C17,1, 3)</f>
+        <v>TAM</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>4</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H17" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I17" s="0" t="n">
         <v>0</v>
@@ -1572,43 +1619,46 @@
         <v>0</v>
       </c>
       <c r="L17" s="0" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M17" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N17" s="0" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="O17" s="0" t="s">
-        <v>17</v>
+        <v>0.667</v>
+      </c>
+      <c r="O17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>61</v>
       </c>
       <c r="D18" s="0" t="str">
-        <f aca="false">MID(C18, 1, 3)</f>
+        <f aca="false">MID(C18,1, 3)</f>
         <v>DOD</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H18" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I18" s="0" t="n">
         <v>0</v>
@@ -1620,16 +1670,19 @@
         <v>0</v>
       </c>
       <c r="L18" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M18" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N18" s="0" t="n">
-        <v>0.571</v>
-      </c>
-      <c r="O18" s="0" t="s">
-        <v>17</v>
+        <v>0.75</v>
+      </c>
+      <c r="O18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1640,23 +1693,23 @@
         <v>63</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D19" s="0" t="str">
-        <f aca="false">MID(C19, 1, 3)</f>
-        <v>TAM</v>
+        <f aca="false">MID(C19,1, 3)</f>
+        <v>ORI</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G19" s="0" t="n">
         <v>3</v>
       </c>
       <c r="H19" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" s="0" t="n">
         <v>0</v>
@@ -1673,35 +1726,38 @@
       <c r="M19" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="O19" s="0" t="s">
-        <v>17</v>
+      <c r="O19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="B20" s="0" t="s">
-        <v>66</v>
-      </c>
       <c r="C20" s="0" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="D20" s="0" t="str">
-        <f aca="false">MID(C20, 1, 3)</f>
-        <v>TAM</v>
+        <f aca="false">MID(C20,1, 3)</f>
+        <v>ORI</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>3</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H20" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" s="0" t="n">
         <v>0</v>
@@ -1713,43 +1769,43 @@
         <v>0</v>
       </c>
       <c r="L20" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" s="0" t="n">
-        <v>0.667</v>
-      </c>
-      <c r="O20" s="0" t="s">
-        <v>17</v>
+        <v>0</v>
+      </c>
+      <c r="O20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="B21" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>53</v>
-      </c>
       <c r="D21" s="0" t="str">
-        <f aca="false">MID(C21, 1, 3)</f>
-        <v>ORI</v>
+        <f aca="false">MID(C21,1, 3)</f>
+        <v>TAM</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>3</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H21" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" s="0" t="n">
         <v>0</v>
@@ -1766,35 +1822,38 @@
       <c r="M21" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="O21" s="0" t="s">
-        <v>17</v>
+      <c r="O21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="C22" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="C22" s="0" t="s">
-        <v>20</v>
-      </c>
       <c r="D22" s="0" t="str">
-        <f aca="false">MID(C22, 1, 3)</f>
-        <v>ATL</v>
+        <f aca="false">MID(C22,1, 3)</f>
+        <v>TAM</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>3</v>
       </c>
       <c r="G22" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H22" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22" s="0" t="n">
         <v>0</v>
@@ -1806,13 +1865,19 @@
         <v>0</v>
       </c>
       <c r="L22" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" s="0" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="N22" s="0" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="O22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1823,23 +1888,23 @@
         <v>73</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="D23" s="0" t="str">
-        <f aca="false">MID(C23, 1, 3)</f>
-        <v>ORI</v>
+        <f aca="false">MID(C23,1, 3)</f>
+        <v>ATL</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>3</v>
       </c>
       <c r="G23" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H23" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" s="0" t="n">
         <v>0</v>
@@ -1856,13 +1921,16 @@
       <c r="M23" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="O23" s="0" t="s">
-        <v>17</v>
+      <c r="O23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>74</v>
@@ -1871,11 +1939,11 @@
         <v>75</v>
       </c>
       <c r="D24" s="0" t="str">
-        <f aca="false">MID(C24, 1, 3)</f>
+        <f aca="false">MID(C24,1, 3)</f>
         <v>ATL</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>2</v>
@@ -1896,7 +1964,7 @@
         <v>0</v>
       </c>
       <c r="L24" s="0" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="M24" s="0" t="n">
         <v>0</v>
@@ -1904,8 +1972,11 @@
       <c r="N24" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="O24" s="0" t="s">
-        <v>17</v>
+      <c r="O24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1913,74 +1984,77 @@
         <v>76</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="D25" s="0" t="str">
-        <f aca="false">MID(C25, 1, 3)</f>
-        <v>ORI</v>
+        <f aca="false">MID(C25,1, 3)</f>
+        <v>TAM</v>
       </c>
       <c r="E25" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="F25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H25" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K25" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" s="0" t="n">
-        <v>2</v>
-      </c>
       <c r="M25" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N25" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O25" s="0" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="O25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>78</v>
+        <v>28</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="D26" s="0" t="str">
-        <f aca="false">MID(C26, 1, 3)</f>
-        <v>TAM</v>
+        <f aca="false">MID(C26,1, 3)</f>
+        <v>ORI</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G26" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" s="0" t="n">
         <v>0</v>
@@ -1992,16 +2066,19 @@
         <v>0</v>
       </c>
       <c r="L26" s="0" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="M26" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N26" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O26" s="0" t="s">
-        <v>17</v>
+        <v>0.5</v>
+      </c>
+      <c r="O26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2012,68 +2089,71 @@
         <v>81</v>
       </c>
       <c r="C27" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="0" t="str">
+        <f aca="false">MID(C27,1, 3)</f>
+        <v>ORI</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="G27" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="H27" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="I27" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="J27" s="0" t="n">
+        <v>0.982</v>
+      </c>
+      <c r="K27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="D27" s="0" t="str">
-        <f aca="false">MID(C27, 1, 3)</f>
-        <v>ORI</v>
-      </c>
-      <c r="E27" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="F27" s="0" t="n">
-        <v>105</v>
-      </c>
-      <c r="G27" s="0" t="n">
-        <v>90</v>
-      </c>
-      <c r="H27" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="I27" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="J27" s="0" t="n">
-        <v>0.981</v>
-      </c>
-      <c r="K27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" s="0" t="n">
-        <v>26</v>
-      </c>
       <c r="M27" s="0" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N27" s="0" t="n">
-        <v>0.684</v>
-      </c>
-      <c r="O27" s="0" t="s">
-        <v>82</v>
+        <v>0.674</v>
+      </c>
+      <c r="O27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P27" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="B28" s="0" t="s">
-        <v>84</v>
-      </c>
       <c r="C28" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D28" s="0" t="str">
-        <f aca="false">MID(C28, 1, 3)</f>
+        <f aca="false">MID(C28,1, 3)</f>
         <v>TAM</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H28" s="0" t="n">
         <v>6</v>
@@ -2096,80 +2176,86 @@
       <c r="N28" s="0" t="n">
         <v>0.692</v>
       </c>
-      <c r="O28" s="0" t="s">
-        <v>17</v>
+      <c r="O28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="B29" s="0" t="s">
-        <v>86</v>
-      </c>
       <c r="C29" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D29" s="0" t="str">
-        <f aca="false">MID(C29, 1, 3)</f>
+        <f aca="false">MID(C29,1, 3)</f>
         <v>ATL</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H29" s="0" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I29" s="0" t="n">
         <v>2</v>
       </c>
       <c r="J29" s="0" t="n">
-        <v>0.98</v>
+        <v>0.981</v>
       </c>
       <c r="K29" s="0" t="n">
         <v>0</v>
       </c>
       <c r="L29" s="0" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M29" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N29" s="0" t="n">
-        <v>0.857</v>
-      </c>
-      <c r="O29" s="0" t="s">
-        <v>82</v>
+        <v>0.842</v>
+      </c>
+      <c r="O29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P29" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="B30" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="C30" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="C30" s="0" t="s">
-        <v>89</v>
-      </c>
       <c r="D30" s="0" t="str">
-        <f aca="false">MID(C30, 1, 3)</f>
+        <f aca="false">MID(C30,1, 3)</f>
         <v>ORI</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H30" s="0" t="n">
         <v>1</v>
@@ -2178,10 +2264,10 @@
         <v>1</v>
       </c>
       <c r="J30" s="0" t="n">
-        <v>0.97</v>
+        <v>0.974</v>
       </c>
       <c r="K30" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L30" s="0" t="n">
         <v>5</v>
@@ -2192,247 +2278,268 @@
       <c r="N30" s="0" t="n">
         <v>0.833</v>
       </c>
-      <c r="O30" s="0" t="s">
-        <v>17</v>
+      <c r="O30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="B31" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="B31" s="0" t="s">
-        <v>91</v>
-      </c>
       <c r="C31" s="0" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="D31" s="0" t="str">
-        <f aca="false">MID(C31, 1, 3)</f>
-        <v>DOD</v>
+        <f aca="false">MID(C31,1, 3)</f>
+        <v>TAM</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="H31" s="0" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="I31" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J31" s="0" t="n">
-        <v>0.968</v>
+        <v>0.971</v>
       </c>
       <c r="K31" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L31" s="0" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="M31" s="0" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N31" s="0" t="n">
-        <v>0.615</v>
-      </c>
-      <c r="O31" s="0" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="O31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="B32" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="B32" s="0" t="s">
-        <v>93</v>
-      </c>
       <c r="C32" s="0" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="D32" s="0" t="str">
-        <f aca="false">MID(C32, 1, 3)</f>
-        <v>TAM</v>
+        <f aca="false">MID(C32,1, 3)</f>
+        <v>DOD</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="G32" s="0" t="n">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="H32" s="0" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I32" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J32" s="0" t="n">
         <v>0.968</v>
       </c>
       <c r="K32" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L32" s="0" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="M32" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N32" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O32" s="0" t="s">
-        <v>17</v>
+        <v>0.615</v>
+      </c>
+      <c r="O32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B33" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="B33" s="0" t="s">
-        <v>95</v>
-      </c>
       <c r="C33" s="0" t="s">
-        <v>96</v>
+        <v>23</v>
       </c>
       <c r="D33" s="0" t="str">
-        <f aca="false">MID(C33, 1, 3)</f>
+        <f aca="false">MID(C33,1, 3)</f>
         <v>TAM</v>
       </c>
       <c r="E33" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="G33" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="F33" s="0" t="n">
-        <v>57</v>
-      </c>
-      <c r="G33" s="0" t="n">
-        <v>54</v>
-      </c>
       <c r="H33" s="0" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="I33" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J33" s="0" t="n">
-        <v>0.965</v>
+        <v>0.968</v>
       </c>
       <c r="K33" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33" s="0" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="M33" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="N33" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O33" s="0" t="s">
-        <v>82</v>
+      <c r="O33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="C34" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="B34" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="C34" s="0" t="s">
-        <v>99</v>
-      </c>
       <c r="D34" s="0" t="str">
-        <f aca="false">MID(C34, 1, 3)</f>
-        <v>DOD</v>
+        <f aca="false">MID(C34,1, 3)</f>
+        <v>TAM</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="H34" s="0" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="I34" s="0" t="n">
         <v>2</v>
       </c>
       <c r="J34" s="0" t="n">
-        <v>0.961</v>
+        <v>0.967</v>
       </c>
       <c r="K34" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L34" s="0" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="M34" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="O34" s="0" t="s">
-        <v>17</v>
+      <c r="N34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P34" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="C35" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="B35" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="C35" s="0" t="s">
-        <v>26</v>
-      </c>
       <c r="D35" s="0" t="str">
-        <f aca="false">MID(C35, 1, 3)</f>
+        <f aca="false">MID(C35,1, 3)</f>
         <v>TAM</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F35" s="0" t="n">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>6</v>
+        <v>74</v>
       </c>
       <c r="H35" s="0" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="I35" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J35" s="0" t="n">
-        <v>0.96</v>
+        <v>0.963</v>
       </c>
       <c r="K35" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L35" s="0" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="M35" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" s="0" t="s">
-        <v>17</v>
+        <v>3</v>
+      </c>
+      <c r="N35" s="0" t="n">
+        <v>0.824</v>
+      </c>
+      <c r="O35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B36" s="0" t="s">
         <v>101</v>
@@ -2441,26 +2548,26 @@
         <v>102</v>
       </c>
       <c r="D36" s="0" t="str">
-        <f aca="false">MID(C36, 1, 3)</f>
+        <f aca="false">MID(C36,1, 3)</f>
         <v>DOD</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F36" s="0" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G36" s="0" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H36" s="0" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I36" s="0" t="n">
         <v>1</v>
       </c>
       <c r="J36" s="0" t="n">
-        <v>0.96</v>
+        <v>0.963</v>
       </c>
       <c r="K36" s="0" t="n">
         <v>0</v>
@@ -2474,8 +2581,11 @@
       <c r="N36" s="0" t="n">
         <v>0.667</v>
       </c>
-      <c r="O36" s="0" t="s">
-        <v>17</v>
+      <c r="O36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2489,41 +2599,41 @@
         <v>105</v>
       </c>
       <c r="D37" s="0" t="str">
-        <f aca="false">MID(C37, 1, 3)</f>
-        <v>TAM</v>
+        <f aca="false">MID(C37,1, 3)</f>
+        <v>DOD</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F37" s="0" t="n">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="H37" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I37" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J37" s="0" t="n">
-        <v>0.959</v>
+        <v>0.962</v>
       </c>
       <c r="K37" s="0" t="n">
         <v>0</v>
       </c>
       <c r="L37" s="0" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="M37" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="N37" s="0" t="n">
-        <v>0.786</v>
-      </c>
-      <c r="O37" s="0" t="s">
-        <v>17</v>
+        <v>0</v>
+      </c>
+      <c r="O37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2537,17 +2647,17 @@
         <v>108</v>
       </c>
       <c r="D38" s="0" t="str">
-        <f aca="false">MID(C38, 1, 3)</f>
+        <f aca="false">MID(C38,1, 3)</f>
         <v>ATL</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F38" s="0" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G38" s="0" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H38" s="0" t="n">
         <v>12</v>
@@ -2556,7 +2666,7 @@
         <v>1</v>
       </c>
       <c r="J38" s="0" t="n">
-        <v>0.957</v>
+        <v>0.958</v>
       </c>
       <c r="K38" s="0" t="n">
         <v>2</v>
@@ -2570,8 +2680,11 @@
       <c r="N38" s="0" t="n">
         <v>0.667</v>
       </c>
-      <c r="O38" s="0" t="s">
-        <v>17</v>
+      <c r="O38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2582,32 +2695,32 @@
         <v>110</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D39" s="0" t="str">
-        <f aca="false">MID(C39, 1, 3)</f>
+        <f aca="false">MID(C39,1, 3)</f>
         <v>TAM</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G39" s="0" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H39" s="0" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I39" s="0" t="n">
         <v>1</v>
       </c>
       <c r="J39" s="0" t="n">
-        <v>0.947</v>
+        <v>0.952</v>
       </c>
       <c r="K39" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L39" s="0" t="n">
         <v>1</v>
@@ -2618,8 +2731,11 @@
       <c r="N39" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="O39" s="0" t="s">
-        <v>17</v>
+      <c r="O39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2633,29 +2749,29 @@
         <v>113</v>
       </c>
       <c r="D40" s="0" t="str">
-        <f aca="false">MID(C40, 1, 3)</f>
+        <f aca="false">MID(C40,1, 3)</f>
         <v>DOD</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F40" s="0" t="n">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="G40" s="0" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H40" s="0" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I40" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J40" s="0" t="n">
-        <v>0.947</v>
+        <v>0.946</v>
       </c>
       <c r="K40" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L40" s="0" t="n">
         <v>0</v>
@@ -2663,8 +2779,11 @@
       <c r="M40" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="O40" s="0" t="s">
-        <v>17</v>
+      <c r="O40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2672,74 +2791,74 @@
         <v>114</v>
       </c>
       <c r="B41" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="C41" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="C41" s="0" t="s">
-        <v>116</v>
-      </c>
       <c r="D41" s="0" t="str">
-        <f aca="false">MID(C41, 1, 3)</f>
-        <v>ORI</v>
+        <f aca="false">MID(C41,1, 3)</f>
+        <v>ATL</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F41" s="0" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="G41" s="0" t="n">
         <v>15</v>
       </c>
       <c r="H41" s="0" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="I41" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J41" s="0" t="n">
-        <v>0.933</v>
+        <v>0.941</v>
       </c>
       <c r="K41" s="0" t="n">
         <v>0</v>
       </c>
       <c r="L41" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M41" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="N41" s="0" t="n">
-        <v>0.667</v>
-      </c>
-      <c r="O41" s="0" t="s">
-        <v>17</v>
+        <v>0</v>
+      </c>
+      <c r="O41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="B42" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="B42" s="0" t="s">
-        <v>78</v>
-      </c>
       <c r="C42" s="0" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="D42" s="0" t="str">
-        <f aca="false">MID(C42, 1, 3)</f>
-        <v>ATL</v>
+        <f aca="false">MID(C42,1, 3)</f>
+        <v>DOD</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F42" s="0" t="n">
         <v>14</v>
       </c>
       <c r="G42" s="0" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H42" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I42" s="0" t="n">
         <v>1</v>
@@ -2751,106 +2870,121 @@
         <v>0</v>
       </c>
       <c r="L42" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M42" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="O42" s="0" t="s">
-        <v>17</v>
+      <c r="N42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="B43" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="C43" s="0" t="s">
-        <v>120</v>
-      </c>
       <c r="D43" s="0" t="str">
-        <f aca="false">MID(C43, 1, 3)</f>
-        <v>ORI</v>
+        <f aca="false">MID(C43,1, 3)</f>
+        <v>DOD</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F43" s="0" t="n">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="G43" s="0" t="n">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="H43" s="0" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I43" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J43" s="0" t="n">
-        <v>0.917</v>
+        <v>0.919</v>
       </c>
       <c r="K43" s="0" t="n">
         <v>0</v>
       </c>
       <c r="L43" s="0" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="M43" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" s="0" t="s">
-        <v>17</v>
+        <v>2</v>
+      </c>
+      <c r="N43" s="0" t="n">
+        <v>0.923</v>
+      </c>
+      <c r="O43" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P43" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C44" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="B44" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="C44" s="0" t="s">
-        <v>102</v>
-      </c>
       <c r="D44" s="0" t="str">
-        <f aca="false">MID(C44, 1, 3)</f>
-        <v>DOD</v>
+        <f aca="false">MID(C44,1, 3)</f>
+        <v>ORI</v>
       </c>
       <c r="E44" s="0" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F44" s="0" t="n">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="G44" s="0" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="H44" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="I44" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="I44" s="0" t="n">
-        <v>3</v>
-      </c>
       <c r="J44" s="0" t="n">
-        <v>0.912</v>
+        <v>0.917</v>
       </c>
       <c r="K44" s="0" t="n">
         <v>3</v>
       </c>
       <c r="L44" s="0" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M44" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N44" s="0" t="n">
-        <v>0.857</v>
-      </c>
-      <c r="O44" s="0" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="O44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2858,35 +2992,35 @@
         <v>122</v>
       </c>
       <c r="B45" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C45" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="C45" s="0" t="s">
-        <v>102</v>
-      </c>
       <c r="D45" s="0" t="str">
-        <f aca="false">MID(C45, 1, 3)</f>
-        <v>DOD</v>
+        <f aca="false">MID(C45,1, 3)</f>
+        <v>ORI</v>
       </c>
       <c r="E45" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="F45" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="F45" s="0" t="n">
-        <v>22</v>
-      </c>
       <c r="G45" s="0" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H45" s="0" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I45" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J45" s="0" t="n">
-        <v>0.909</v>
+        <v>0.917</v>
       </c>
       <c r="K45" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L45" s="0" t="n">
         <v>0</v>
@@ -2894,8 +3028,11 @@
       <c r="M45" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="O45" s="0" t="s">
-        <v>17</v>
+      <c r="O45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2903,308 +3040,323 @@
         <v>124</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="C46" s="0" t="s">
         <v>102</v>
       </c>
       <c r="D46" s="0" t="str">
-        <f aca="false">MID(C46, 1, 3)</f>
+        <f aca="false">MID(C46,1, 3)</f>
         <v>DOD</v>
       </c>
       <c r="E46" s="0" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F46" s="0" t="n">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G46" s="0" t="n">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="H46" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I46" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J46" s="0" t="n">
-        <v>0.909</v>
+        <v>0.912</v>
       </c>
       <c r="K46" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L46" s="0" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M46" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N46" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O46" s="0" t="s">
-        <v>17</v>
+        <v>0.857</v>
+      </c>
+      <c r="O46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="B47" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="B47" s="0" t="s">
-        <v>34</v>
-      </c>
       <c r="C47" s="0" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="D47" s="0" t="str">
-        <f aca="false">MID(C47, 1, 3)</f>
-        <v>ORI</v>
+        <f aca="false">MID(C47,1, 3)</f>
+        <v>DOD</v>
       </c>
       <c r="E47" s="0" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F47" s="0" t="n">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="G47" s="0" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H47" s="0" t="n">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="I47" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J47" s="0" t="n">
-        <v>0.907</v>
+        <v>0.909</v>
       </c>
       <c r="K47" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L47" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M47" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="N47" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O47" s="0" t="s">
-        <v>17</v>
+      <c r="O47" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P47" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="B48" s="0" t="s">
         <v>128</v>
-      </c>
-      <c r="B48" s="0" t="s">
-        <v>22</v>
       </c>
       <c r="C48" s="0" t="s">
         <v>129</v>
       </c>
       <c r="D48" s="0" t="str">
-        <f aca="false">MID(C48, 1, 3)</f>
+        <f aca="false">MID(C48,1, 3)</f>
         <v>DOD</v>
       </c>
       <c r="E48" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="F48" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="G48" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="H48" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="F48" s="0" t="n">
-        <v>53</v>
-      </c>
-      <c r="G48" s="0" t="n">
-        <v>42</v>
-      </c>
-      <c r="H48" s="0" t="n">
-        <v>6</v>
-      </c>
       <c r="I48" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J48" s="0" t="n">
-        <v>0.906</v>
+        <v>0.893</v>
       </c>
       <c r="K48" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L48" s="0" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="M48" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N48" s="0" t="n">
-        <v>0.913</v>
-      </c>
-      <c r="O48" s="0" t="s">
-        <v>130</v>
+        <v>1</v>
+      </c>
+      <c r="O48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P48" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="B49" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="B49" s="0" t="s">
-        <v>132</v>
-      </c>
       <c r="C49" s="0" t="s">
-        <v>133</v>
+        <v>53</v>
       </c>
       <c r="D49" s="0" t="str">
-        <f aca="false">MID(C49, 1, 3)</f>
-        <v>DOD</v>
+        <f aca="false">MID(C49,1, 3)</f>
+        <v>ATL</v>
       </c>
       <c r="E49" s="0" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F49" s="0" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="G49" s="0" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H49" s="0" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I49" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J49" s="0" t="n">
-        <v>0.893</v>
+        <v>0.889</v>
       </c>
       <c r="K49" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L49" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M49" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N49" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O49" s="0" t="s">
-        <v>17</v>
+        <v>0.5</v>
+      </c>
+      <c r="O49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P49" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="C50" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="B50" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="C50" s="0" t="s">
-        <v>50</v>
-      </c>
       <c r="D50" s="0" t="str">
-        <f aca="false">MID(C50, 1, 3)</f>
-        <v>ATL</v>
+        <f aca="false">MID(C50,1, 3)</f>
+        <v>ORI</v>
       </c>
       <c r="E50" s="0" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F50" s="0" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="G50" s="0" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="H50" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I50" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J50" s="0" t="n">
         <v>0.889</v>
       </c>
       <c r="K50" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L50" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M50" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O50" s="0" t="s">
-        <v>82</v>
+        <v>0</v>
+      </c>
+      <c r="O50" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P50" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="B51" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="B51" s="0" t="s">
+      <c r="C51" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="C51" s="0" t="s">
-        <v>138</v>
-      </c>
       <c r="D51" s="0" t="str">
-        <f aca="false">MID(C51, 1, 3)</f>
+        <f aca="false">MID(C51,1, 3)</f>
         <v>ORI</v>
       </c>
       <c r="E51" s="0" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F51" s="0" t="n">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="G51" s="0" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="H51" s="0" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="I51" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J51" s="0" t="n">
-        <v>0.889</v>
+        <v>0.886</v>
       </c>
       <c r="K51" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L51" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M51" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O51" s="0" t="s">
-        <v>17</v>
+        <v>2</v>
+      </c>
+      <c r="N51" s="0" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="O51" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P51" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="B52" s="0" t="s">
         <v>139</v>
       </c>
-      <c r="B52" s="0" t="s">
-        <v>140</v>
-      </c>
       <c r="C52" s="0" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="D52" s="0" t="str">
-        <f aca="false">MID(C52, 1, 3)</f>
+        <f aca="false">MID(C52,1, 3)</f>
         <v>DOD</v>
       </c>
       <c r="E52" s="0" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F52" s="0" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G52" s="0" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H52" s="0" t="n">
         <v>4</v>
@@ -3213,13 +3365,13 @@
         <v>2</v>
       </c>
       <c r="J52" s="0" t="n">
-        <v>0.875</v>
+        <v>0.882</v>
       </c>
       <c r="K52" s="0" t="n">
         <v>2</v>
       </c>
       <c r="L52" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M52" s="0" t="n">
         <v>0</v>
@@ -3227,134 +3379,143 @@
       <c r="N52" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="O52" s="0" t="s">
-        <v>17</v>
+      <c r="O52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P52" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C53" s="0" t="s">
         <v>141</v>
       </c>
-      <c r="B53" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="C53" s="0" t="s">
-        <v>29</v>
-      </c>
       <c r="D53" s="0" t="str">
-        <f aca="false">MID(C53, 1, 3)</f>
+        <f aca="false">MID(C53,1, 3)</f>
         <v>ORI</v>
       </c>
       <c r="E53" s="0" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F53" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="G53" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="G53" s="0" t="n">
+      <c r="H53" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="H53" s="0" t="n">
-        <v>8</v>
-      </c>
       <c r="I53" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J53" s="0" t="n">
-        <v>0.875</v>
+        <v>0.88</v>
       </c>
       <c r="K53" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L53" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M53" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="N53" s="0" t="n">
-        <v>0.333</v>
-      </c>
-      <c r="O53" s="0" t="s">
-        <v>17</v>
+        <v>0</v>
+      </c>
+      <c r="O53" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P53" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>46</v>
+        <v>142</v>
       </c>
       <c r="B54" s="0" t="s">
         <v>143</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>144</v>
+        <v>32</v>
       </c>
       <c r="D54" s="0" t="str">
-        <f aca="false">MID(C54, 1, 3)</f>
-        <v>ATL</v>
+        <f aca="false">MID(C54,1, 3)</f>
+        <v>ORI</v>
       </c>
       <c r="E54" s="0" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F54" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="G54" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="H54" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="G54" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="H54" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J54" s="0" t="n">
         <v>0.875</v>
       </c>
       <c r="K54" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L54" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M54" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O54" s="0" t="s">
-        <v>17</v>
+        <v>4</v>
+      </c>
+      <c r="N54" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O54" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P54" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="C55" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="B55" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="C55" s="0" t="s">
-        <v>147</v>
-      </c>
       <c r="D55" s="0" t="str">
-        <f aca="false">MID(C55, 1, 3)</f>
+        <f aca="false">MID(C55,1, 3)</f>
         <v>ATL</v>
       </c>
       <c r="E55" s="0" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F55" s="0" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G55" s="0" t="n">
         <v>7</v>
       </c>
       <c r="H55" s="0" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I55" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J55" s="0" t="n">
-        <v>0.857</v>
+        <v>0.875</v>
       </c>
       <c r="K55" s="0" t="n">
         <v>0</v>
@@ -3365,308 +3526,329 @@
       <c r="M55" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="O55" s="0" t="s">
-        <v>17</v>
+      <c r="O55" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P55" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="C56" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="B56" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="C56" s="0" t="s">
-        <v>113</v>
-      </c>
       <c r="D56" s="0" t="str">
-        <f aca="false">MID(C56, 1, 3)</f>
-        <v>DOD</v>
+        <f aca="false">MID(C56,1, 3)</f>
+        <v>ATL</v>
       </c>
       <c r="E56" s="0" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F56" s="0" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="G56" s="0" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H56" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I56" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J56" s="0" t="n">
-        <v>0.857</v>
+        <v>0.867</v>
       </c>
       <c r="K56" s="0" t="n">
         <v>0</v>
       </c>
       <c r="L56" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M56" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="N56" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O56" s="0" t="s">
-        <v>17</v>
+        <v>0</v>
+      </c>
+      <c r="O56" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P56" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="B57" s="0" t="s">
         <v>150</v>
       </c>
-      <c r="B57" s="0" t="s">
-        <v>151</v>
-      </c>
       <c r="C57" s="0" t="s">
-        <v>152</v>
+        <v>32</v>
       </c>
       <c r="D57" s="0" t="str">
-        <f aca="false">MID(C57, 1, 3)</f>
+        <f aca="false">MID(C57,1, 3)</f>
         <v>ORI</v>
       </c>
       <c r="E57" s="0" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F57" s="0" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G57" s="0" t="n">
         <v>12</v>
       </c>
       <c r="H57" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I57" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J57" s="0" t="n">
-        <v>0.842</v>
+        <v>0.857</v>
       </c>
       <c r="K57" s="0" t="n">
         <v>0</v>
       </c>
       <c r="L57" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M57" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" s="0" t="n">
-        <v>0.667</v>
-      </c>
-      <c r="O57" s="0" t="s">
-        <v>17</v>
+        <v>0</v>
+      </c>
+      <c r="O57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P57" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>28</v>
+        <v>152</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>154</v>
+        <v>105</v>
       </c>
       <c r="D58" s="0" t="str">
-        <f aca="false">MID(C58, 1, 3)</f>
-        <v>ORI</v>
+        <f aca="false">MID(C58,1, 3)</f>
+        <v>DOD</v>
       </c>
       <c r="E58" s="0" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F58" s="0" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="G58" s="0" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="H58" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="I58" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J58" s="0" t="n">
+        <v>0.857</v>
+      </c>
+      <c r="K58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="I58" s="0" t="n">
+      <c r="M58" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="J58" s="0" t="n">
-        <v>0.833</v>
-      </c>
-      <c r="K58" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L58" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M58" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O58" s="0" t="s">
-        <v>17</v>
+      <c r="N58" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P58" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>30</v>
+        <v>153</v>
       </c>
       <c r="B59" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="C59" s="0" t="s">
         <v>155</v>
       </c>
-      <c r="C59" s="0" t="s">
-        <v>96</v>
-      </c>
       <c r="D59" s="0" t="str">
-        <f aca="false">MID(C59, 1, 3)</f>
-        <v>TAM</v>
+        <f aca="false">MID(C59,1, 3)</f>
+        <v>ORI</v>
       </c>
       <c r="E59" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="F59" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="G59" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="F59" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="G59" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="H59" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I59" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J59" s="0" t="n">
-        <v>0.833</v>
+        <v>0.842</v>
       </c>
       <c r="K59" s="0" t="n">
         <v>0</v>
       </c>
       <c r="L59" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M59" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N59" s="0" t="n">
-        <v>0.571</v>
-      </c>
-      <c r="O59" s="0" t="s">
-        <v>17</v>
+        <v>0.667</v>
+      </c>
+      <c r="O59" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P59" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B60" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="B60" s="0" t="s">
-        <v>157</v>
-      </c>
       <c r="C60" s="0" t="s">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="D60" s="0" t="str">
-        <f aca="false">MID(C60, 1, 3)</f>
-        <v>ORI</v>
+        <f aca="false">MID(C60,1, 3)</f>
+        <v>TAM</v>
       </c>
       <c r="E60" s="0" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F60" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G60" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="G60" s="0" t="n">
+      <c r="I60" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J60" s="0" t="n">
+        <v>0.833</v>
+      </c>
+      <c r="K60" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L60" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="M60" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="H60" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J60" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="K60" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L60" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="N60" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O60" s="0" t="s">
-        <v>17</v>
+        <v>0.571</v>
+      </c>
+      <c r="O60" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P60" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="B61" s="0" t="s">
         <v>158</v>
       </c>
-      <c r="B61" s="0" t="s">
-        <v>159</v>
-      </c>
       <c r="C61" s="0" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="D61" s="0" t="str">
-        <f aca="false">MID(C61, 1, 3)</f>
+        <f aca="false">MID(C61,1, 3)</f>
         <v>ORI</v>
       </c>
       <c r="E61" s="0" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F61" s="0" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G61" s="0" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H61" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J61" s="0" t="n">
-        <v>0.778</v>
+        <v>0.8</v>
       </c>
       <c r="K61" s="0" t="n">
         <v>0</v>
       </c>
       <c r="L61" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M61" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="O61" s="0" t="s">
-        <v>17</v>
+      <c r="N61" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O61" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P61" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="B62" s="0" t="s">
         <v>160</v>
       </c>
-      <c r="B62" s="0" t="s">
-        <v>161</v>
-      </c>
       <c r="C62" s="0" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D62" s="0" t="str">
-        <f aca="false">MID(C62, 1, 3)</f>
+        <f aca="false">MID(C62,1, 3)</f>
         <v>DOD</v>
       </c>
       <c r="E62" s="0" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F62" s="0" t="n">
         <v>15</v>
@@ -3695,86 +3877,89 @@
       <c r="N62" s="0" t="n">
         <v>0.75</v>
       </c>
-      <c r="O62" s="0" t="s">
-        <v>17</v>
+      <c r="O62" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P62" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="B63" s="0" t="s">
         <v>162</v>
       </c>
-      <c r="B63" s="0" t="s">
+      <c r="C63" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="C63" s="0" t="s">
-        <v>164</v>
-      </c>
       <c r="D63" s="0" t="str">
-        <f aca="false">MID(C63, 1, 3)</f>
-        <v>ORI</v>
+        <f aca="false">MID(C63,1, 3)</f>
+        <v>DOD</v>
       </c>
       <c r="E63" s="0" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F63" s="0" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G63" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H63" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J63" s="0" t="n">
-        <v>0.667</v>
+        <v>0.714</v>
       </c>
       <c r="K63" s="0" t="n">
         <v>0</v>
       </c>
       <c r="L63" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M63" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" s="0" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="O63" s="0" t="s">
-        <v>17</v>
+        <v>0</v>
+      </c>
+      <c r="O63" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P63" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="B64" s="0" t="s">
         <v>165</v>
       </c>
-      <c r="B64" s="0" t="s">
+      <c r="C64" s="0" t="s">
         <v>166</v>
       </c>
-      <c r="C64" s="0" t="s">
-        <v>167</v>
-      </c>
       <c r="D64" s="0" t="str">
-        <f aca="false">MID(C64, 1, 3)</f>
-        <v>DOD</v>
+        <f aca="false">MID(C64,1, 3)</f>
+        <v>ORI</v>
       </c>
       <c r="E64" s="0" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F64" s="0" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G64" s="0" t="n">
         <v>4</v>
       </c>
       <c r="H64" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J64" s="0" t="n">
         <v>0.667</v>
@@ -3783,31 +3968,37 @@
         <v>0</v>
       </c>
       <c r="L64" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M64" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O64" s="0" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="N64" s="0" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="O64" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P64" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="B65" s="0" t="s">
         <v>168</v>
       </c>
-      <c r="B65" s="0" t="s">
+      <c r="C65" s="0" t="s">
         <v>169</v>
       </c>
-      <c r="C65" s="0" t="s">
-        <v>170</v>
-      </c>
       <c r="D65" s="0" t="str">
-        <f aca="false">MID(C65, 1, 3)</f>
+        <f aca="false">MID(C65,1, 3)</f>
         <v>DOD</v>
       </c>
       <c r="E65" s="0" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F65" s="0" t="n">
         <v>2</v>
@@ -3836,26 +4027,29 @@
       <c r="N65" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="O65" s="0" t="s">
-        <v>17</v>
+      <c r="O65" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P65" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C66" s="0" t="s">
         <v>108</v>
       </c>
       <c r="D66" s="0" t="str">
-        <f aca="false">MID(C66, 1, 3)</f>
+        <f aca="false">MID(C66,1, 3)</f>
         <v>ATL</v>
       </c>
       <c r="E66" s="0" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F66" s="0" t="n">
         <v>3</v>
@@ -3884,26 +4078,29 @@
       <c r="N66" s="0" t="n">
         <v>0.917</v>
       </c>
-      <c r="O66" s="0" t="s">
-        <v>17</v>
+      <c r="O66" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P66" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="B67" s="0" t="s">
         <v>172</v>
       </c>
-      <c r="B67" s="0" t="s">
-        <v>173</v>
-      </c>
       <c r="C67" s="0" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D67" s="0" t="str">
-        <f aca="false">MID(C67, 1, 3)</f>
+        <f aca="false">MID(C67,1, 3)</f>
         <v>ATL</v>
       </c>
       <c r="E67" s="0" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F67" s="0" t="n">
         <v>2</v>
@@ -3929,26 +4126,29 @@
       <c r="M67" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="O67" s="0" t="s">
-        <v>17</v>
+      <c r="O67" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P67" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D68" s="0" t="str">
-        <f aca="false">MID(C68, 1, 3)</f>
+        <f aca="false">MID(C68,1, 3)</f>
         <v>ATL</v>
       </c>
       <c r="E68" s="0" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F68" s="0" t="n">
         <v>2</v>
@@ -3974,26 +4174,29 @@
       <c r="M68" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="O68" s="0" t="s">
-        <v>17</v>
+      <c r="O68" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P68" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>112</v>
+        <v>174</v>
       </c>
       <c r="B69" s="0" t="s">
         <v>175</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="D69" s="0" t="str">
-        <f aca="false">MID(C69, 1, 3)</f>
-        <v>ATL</v>
+        <f aca="false">MID(C69,1, 3)</f>
+        <v>TAM</v>
       </c>
       <c r="E69" s="0" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F69" s="0" t="n">
         <v>0</v>
@@ -4014,16 +4217,19 @@
         <v>0</v>
       </c>
       <c r="L69" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M69" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N69" s="0" t="n">
-        <v>0.667</v>
-      </c>
-      <c r="O69" s="0" t="s">
-        <v>17</v>
+        <v>0.857</v>
+      </c>
+      <c r="O69" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P69" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4034,14 +4240,14 @@
         <v>177</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="D70" s="0" t="str">
-        <f aca="false">MID(C70, 1, 3)</f>
+        <f aca="false">MID(C70,1, 3)</f>
         <v>TAM</v>
       </c>
       <c r="E70" s="0" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F70" s="0" t="n">
         <v>0</v>
@@ -4062,16 +4268,19 @@
         <v>0</v>
       </c>
       <c r="L70" s="0" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M70" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N70" s="0" t="n">
-        <v>0.857</v>
-      </c>
-      <c r="O70" s="0" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="O70" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P70" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4082,14 +4291,14 @@
         <v>179</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>38</v>
+        <v>180</v>
       </c>
       <c r="D71" s="0" t="str">
-        <f aca="false">MID(C71, 1, 3)</f>
-        <v>TAM</v>
+        <f aca="false">MID(C71,1, 3)</f>
+        <v>ORI</v>
       </c>
       <c r="E71" s="0" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F71" s="0" t="n">
         <v>0</v>
@@ -4110,34 +4319,37 @@
         <v>0</v>
       </c>
       <c r="L71" s="0" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="M71" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N71" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O71" s="0" t="s">
-        <v>17</v>
+        <v>0.8</v>
+      </c>
+      <c r="O71" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P71" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D72" s="0" t="str">
-        <f aca="false">MID(C72, 1, 3)</f>
+        <f aca="false">MID(C72,1, 3)</f>
         <v>ATL</v>
       </c>
       <c r="E72" s="0" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F72" s="0" t="n">
         <v>0</v>
@@ -4166,26 +4378,29 @@
       <c r="N72" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="O72" s="0" t="s">
-        <v>17</v>
+      <c r="O72" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P72" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>183</v>
+        <v>104</v>
       </c>
       <c r="B73" s="0" t="s">
         <v>184</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>185</v>
+        <v>108</v>
       </c>
       <c r="D73" s="0" t="str">
-        <f aca="false">MID(C73, 1, 3)</f>
-        <v>ORI</v>
+        <f aca="false">MID(C73,1, 3)</f>
+        <v>ATL</v>
       </c>
       <c r="E73" s="0" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F73" s="0" t="n">
         <v>0</v>
@@ -4206,16 +4421,19 @@
         <v>0</v>
       </c>
       <c r="L73" s="0" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M73" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N73" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="O73" s="0" t="s">
-        <v>17</v>
+        <v>0.571</v>
+      </c>
+      <c r="O73" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P73" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/csv/stats_fielding_raw_tsl_2024.xlsx
+++ b/data/csv/stats_fielding_raw_tsl_2024.xlsx
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="186">
   <si>
     <t xml:space="preserve">Player</t>
   </si>
   <si>
-    <t xml:space="preserve">First Name</t>
+    <t xml:space="preserve">First name</t>
   </si>
   <si>
     <t xml:space="preserve">Team</t>
@@ -34,19 +34,19 @@
     <t xml:space="preserve">G</t>
   </si>
   <si>
-    <t xml:space="preserve">  C</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> PO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  E</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> FLD%</t>
+    <t xml:space="preserve"> C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLD%</t>
   </si>
   <si>
     <t xml:space="preserve">DPs</t>
@@ -58,13 +58,13 @@
     <t xml:space="preserve">CSB</t>
   </si>
   <si>
-    <t xml:space="preserve"> SBA%</t>
+    <t xml:space="preserve">SBA%</t>
   </si>
   <si>
     <t xml:space="preserve">PB</t>
   </si>
   <si>
-    <t xml:space="preserve"> CI</t>
+    <t xml:space="preserve">CI</t>
   </si>
   <si>
     <t xml:space="preserve">MENDOZA</t>
@@ -94,6 +94,9 @@
     <t xml:space="preserve">TAMPA......</t>
   </si>
   <si>
+    <t xml:space="preserve">  ---</t>
+  </si>
+  <si>
     <t xml:space="preserve">ARAYA</t>
   </si>
   <si>
@@ -121,6 +124,237 @@
     <t xml:space="preserve">ORIOLES.....</t>
   </si>
   <si>
+    <t xml:space="preserve">WALO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEBASTIAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AZCUY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOSHUA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAMPA........</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EVIAN ROMERO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JORGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATLANTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BONGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DODGERS.........</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAMONJCA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIRKO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORIOLES....</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARRASCO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FREIONIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DODGERS.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FRANCO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YANCARLO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOLENMAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEM OUDE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAMPA...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GAMBERA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANDREA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VAN MOOK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAURO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FINOL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DODGERS...........</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TORREALBA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAMPA.........</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PERUZZO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MATIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MERKELBACK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BENNETT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAMPA..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JUAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATLANTA........</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIAZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENMANUEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAMPA.......</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DELGADO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIEGO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGUILAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NIEMEYER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FINN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QUINTANA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMUEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GORTEMULDER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEPIJN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALBERTINI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DANIELE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORIOLES.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CASTILLO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALEJANDRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INFANTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAIMOND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAMPA.....</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASCANIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARLOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LARA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEDRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAMPA..........</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAVIDE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DODGERS....</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MILANO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MANUEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEREZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIGUEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DODGERS......</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROJAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANGEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARDINALES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARLOS A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DODGER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VARGAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATLANTA......</t>
+  </si>
+  <si>
     <t xml:space="preserve">RODRIGUEZ</t>
   </si>
   <si>
@@ -130,19 +364,55 @@
     <t xml:space="preserve">ATLANTA..</t>
   </si>
   <si>
-    <t xml:space="preserve">WALO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEBASTIAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AZCUY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JOSHUA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAMPA........</t>
+    <t xml:space="preserve">BALICE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALEX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATLANTA.......</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GONZALEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAYAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TORRES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORIOLES..........</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REGAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORIOLES......</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GANASSI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALONSO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DODGERS.....</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARTIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANSELMI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPECK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JURI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DODGERS........</t>
   </si>
   <si>
     <t xml:space="preserve">CHINEA</t>
@@ -151,265 +421,10 @@
     <t xml:space="preserve">PABLO</t>
   </si>
   <si>
-    <t xml:space="preserve">BONGE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DODGERS.........</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CARRASCO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FREIONIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DODGERS.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRANCO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YANCARLO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EVIAN ROMERO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JORGE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATLANTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VAN MOOK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAURO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORIOLES....</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOLENMAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEM OUDE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAMPA...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FINOL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DODGERS...........</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAMONJCA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MIRKO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GAMBERA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANDREA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MERKELBACK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BENNETT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAMPA..</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TORREALBA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAMPA.........</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PERUZZO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MATIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JUAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATLANTA........</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DELGADO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIEGO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAMPA.......</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGUILAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NIEMEYER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FINN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GORTEMULDER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PEPIJN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QUINTANA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAMUEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALBERTINI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DANIELE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORIOLES.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CASTILLO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALEJANDRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROJAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANGEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASCANIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CARLOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INFANTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RAIMOND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAMPA.....</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LARA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PEDRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAMPA..........</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DAVIDE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DODGERS....</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PEREZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MIGUEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DODGERS......</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BALICE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALEX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATLANTA.......</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MILANO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MANUEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CARDINALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CARLOS A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DODGER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VARGAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATLANTA......</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GONZALEZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DAYAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALONSO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DODGERS.....</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TORRES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORIOLES..........</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REGAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORIOLES......</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GANASSI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARTIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANSELMI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPECK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JURI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DODGERS........</t>
+    <t xml:space="preserve">NARANJO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORIOLES...</t>
   </si>
   <si>
     <t xml:space="preserve">BENCOMO</t>
@@ -418,6 +433,27 @@
     <t xml:space="preserve">JOSE ANGEL</t>
   </si>
   <si>
+    <t xml:space="preserve">COLOMBO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GABRIELE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORIOLES..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZIRONI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAICOL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COLLAZO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JESUS</t>
+  </si>
+  <si>
     <t xml:space="preserve">SWAAK</t>
   </si>
   <si>
@@ -427,25 +463,13 @@
     <t xml:space="preserve">ORIOLES........</t>
   </si>
   <si>
-    <t xml:space="preserve">COLOMBO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GABRIELE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORIOLES..</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COLLAZO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JESUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NARANJO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORIOLES...</t>
+    <t xml:space="preserve">KOCH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOBIAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORIOLES.......</t>
   </si>
   <si>
     <t xml:space="preserve">ROCCO</t>
@@ -469,27 +493,12 @@
     <t xml:space="preserve">ATLAN</t>
   </si>
   <si>
-    <t xml:space="preserve">ZIRONI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAICOL</t>
-  </si>
-  <si>
     <t xml:space="preserve">NACAR</t>
   </si>
   <si>
     <t xml:space="preserve">LESLIE</t>
   </si>
   <si>
-    <t xml:space="preserve">KOCH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOBIAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORIOLES.......</t>
-  </si>
-  <si>
     <t xml:space="preserve">KEVIN</t>
   </si>
   <si>
@@ -523,6 +532,9 @@
     <t xml:space="preserve">ORIOLE</t>
   </si>
   <si>
+    <t xml:space="preserve">SERRA</t>
+  </si>
+  <si>
     <t xml:space="preserve">ZAMBRANO</t>
   </si>
   <si>
@@ -532,7 +544,7 @@
     <t xml:space="preserve">DODGERS..</t>
   </si>
   <si>
-    <t xml:space="preserve">SERRA</t>
+    <t xml:space="preserve">ROLDAN</t>
   </si>
   <si>
     <t xml:space="preserve">ANTON</t>
@@ -541,13 +553,13 @@
     <t xml:space="preserve">WILDER</t>
   </si>
   <si>
-    <t xml:space="preserve">ROLDAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIAZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENMANUEL</t>
+    <t xml:space="preserve">DE LA ROSA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EDUARDO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORIOLES</t>
   </si>
   <si>
     <t xml:space="preserve">REINA</t>
@@ -556,13 +568,7 @@
     <t xml:space="preserve">ROINEL</t>
   </si>
   <si>
-    <t xml:space="preserve">DE LA ROSA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EDUARDO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORIOLES</t>
+    <t xml:space="preserve">LUIS</t>
   </si>
   <si>
     <t xml:space="preserve">BORLONI</t>
@@ -572,9 +578,6 @@
   </si>
   <si>
     <t xml:space="preserve">ATLANTA....</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUIS</t>
   </si>
 </sst>
 </file>
@@ -778,24 +781,24 @@
   </sheetPr>
   <dimension ref="A1:P73"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N1" activeCellId="15" sqref="N4:N10 N12 N15 N19:N21 N23 N33 N37 N40:N41 N45 N47 N50 N53 N55:N57 N63 N67:N68 N1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="15.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="6.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="3.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="4.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="3.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="7.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="5.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="0" width="5.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="7.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="4.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="3.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="0" width="4.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="4.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="3.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="2.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="5.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="4.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="5.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="5.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="4.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="3.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="3.22"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -856,17 +859,17 @@
         <v>17</v>
       </c>
       <c r="D2" s="0" t="str">
-        <f aca="false">MID(C2,1, 3)</f>
+        <f aca="false">MID(C2, 1, 3)</f>
         <v>ATL</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="H2" s="0" t="n">
         <v>1</v>
@@ -878,7 +881,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L2" s="0" t="n">
         <v>1</v>
@@ -907,17 +910,17 @@
         <v>20</v>
       </c>
       <c r="D3" s="0" t="str">
-        <f aca="false">MID(C3,1, 3)</f>
+        <f aca="false">MID(C3, 1, 3)</f>
         <v>ATL</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>21</v>
@@ -935,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="M3" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N3" s="0" t="n">
         <v>0</v>
@@ -958,20 +961,20 @@
         <v>23</v>
       </c>
       <c r="D4" s="0" t="str">
-        <f aca="false">MID(C4,1, 3)</f>
+        <f aca="false">MID(C4, 1, 3)</f>
         <v>TAM</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I4" s="0" t="n">
         <v>0</v>
@@ -980,13 +983,16 @@
         <v>1</v>
       </c>
       <c r="K4" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4" s="0" t="n">
         <v>0</v>
       </c>
       <c r="M4" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>24</v>
       </c>
       <c r="O4" s="0" t="n">
         <v>0</v>
@@ -997,26 +1003,26 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" s="0" t="str">
-        <f aca="false">MID(C5,1, 3)</f>
+        <f aca="false">MID(C5, 1, 3)</f>
         <v>ATL</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H5" s="0" t="n">
         <v>13</v>
@@ -1036,6 +1042,9 @@
       <c r="M5" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="N5" s="0" t="s">
+        <v>24</v>
+      </c>
       <c r="O5" s="0" t="n">
         <v>0</v>
       </c>
@@ -1045,20 +1054,20 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D6" s="0" t="str">
-        <f aca="false">MID(C6,1, 3)</f>
+        <f aca="false">MID(C6, 1, 3)</f>
         <v>DOD</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>16</v>
@@ -1084,6 +1093,9 @@
       <c r="M6" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="N6" s="0" t="s">
+        <v>24</v>
+      </c>
       <c r="O6" s="0" t="n">
         <v>0</v>
       </c>
@@ -1093,20 +1105,20 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D7" s="0" t="str">
-        <f aca="false">MID(C7,1, 3)</f>
+        <f aca="false">MID(C7, 1, 3)</f>
         <v>ORI</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>15</v>
@@ -1132,6 +1144,9 @@
       <c r="M7" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="N7" s="0" t="s">
+        <v>24</v>
+      </c>
       <c r="O7" s="0" t="n">
         <v>0</v>
       </c>
@@ -1141,29 +1156,29 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D8" s="0" t="str">
-        <f aca="false">MID(C8,1, 3)</f>
-        <v>ATL</v>
+        <f aca="false">MID(C8, 1, 3)</f>
+        <v>TAM</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I8" s="0" t="n">
         <v>0</v>
@@ -1172,13 +1187,16 @@
         <v>1</v>
       </c>
       <c r="K8" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L8" s="0" t="n">
         <v>0</v>
       </c>
       <c r="M8" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>24</v>
       </c>
       <c r="O8" s="0" t="n">
         <v>0</v>
@@ -1195,20 +1213,20 @@
         <v>37</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="D9" s="0" t="str">
-        <f aca="false">MID(C9,1, 3)</f>
+        <f aca="false">MID(C9, 1, 3)</f>
         <v>TAM</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H9" s="0" t="n">
         <v>0</v>
@@ -1227,6 +1245,9 @@
       </c>
       <c r="M9" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="N9" s="0" t="s">
+        <v>24</v>
       </c>
       <c r="O9" s="0" t="n">
         <v>0</v>
@@ -1237,29 +1258,29 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D10" s="0" t="str">
-        <f aca="false">MID(C10,1, 3)</f>
-        <v>TAM</v>
+        <f aca="false">MID(C10, 1, 3)</f>
+        <v>ATL</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>0</v>
@@ -1275,6 +1296,9 @@
       </c>
       <c r="M10" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="N10" s="0" t="s">
+        <v>24</v>
       </c>
       <c r="O10" s="0" t="n">
         <v>0</v>
@@ -1285,20 +1309,20 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D11" s="0" t="str">
-        <f aca="false">MID(C11,1, 3)</f>
-        <v>TAM</v>
+        <f aca="false">MID(C11, 1, 3)</f>
+        <v>DOD</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>6</v>
@@ -1319,13 +1343,13 @@
         <v>0</v>
       </c>
       <c r="L11" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M11" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N11" s="0" t="n">
-        <v>0.667</v>
+        <v>1</v>
       </c>
       <c r="O11" s="0" t="n">
         <v>0</v>
@@ -1336,29 +1360,29 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D12" s="0" t="str">
-        <f aca="false">MID(C12,1, 3)</f>
-        <v>DOD</v>
+        <f aca="false">MID(C12, 1, 3)</f>
+        <v>ORI</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G12" s="0" t="n">
         <v>4</v>
       </c>
       <c r="H12" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" s="0" t="n">
         <v>0</v>
@@ -1374,6 +1398,9 @@
       </c>
       <c r="M12" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="N12" s="0" t="s">
+        <v>24</v>
       </c>
       <c r="O12" s="0" t="n">
         <v>0</v>
@@ -1384,20 +1411,20 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D13" s="0" t="str">
-        <f aca="false">MID(C13,1, 3)</f>
+        <f aca="false">MID(C13, 1, 3)</f>
         <v>DOD</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>5</v>
@@ -1418,13 +1445,13 @@
         <v>0</v>
       </c>
       <c r="L13" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M13" s="0" t="n">
         <v>3</v>
       </c>
       <c r="N13" s="0" t="n">
-        <v>0.571</v>
+        <v>0.625</v>
       </c>
       <c r="O13" s="0" t="n">
         <v>0</v>
@@ -1435,20 +1462,20 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>17</v>
       </c>
       <c r="D14" s="0" t="str">
-        <f aca="false">MID(C14,1, 3)</f>
+        <f aca="false">MID(C14, 1, 3)</f>
         <v>ATL</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>5</v>
@@ -1486,29 +1513,29 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D15" s="0" t="str">
-        <f aca="false">MID(C15,1, 3)</f>
-        <v>ATL</v>
+        <f aca="false">MID(C15, 1, 3)</f>
+        <v>TAM</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>5</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" s="0" t="n">
         <v>0</v>
@@ -1520,10 +1547,13 @@
         <v>0</v>
       </c>
       <c r="L15" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M15" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="N15" s="0" t="n">
+        <v>0.667</v>
       </c>
       <c r="O15" s="0" t="n">
         <v>0</v>
@@ -1534,29 +1564,29 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="D16" s="0" t="str">
-        <f aca="false">MID(C16,1, 3)</f>
+        <f aca="false">MID(C16, 1, 3)</f>
         <v>ORI</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>4</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H16" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I16" s="0" t="n">
         <v>0</v>
@@ -1568,13 +1598,13 @@
         <v>0</v>
       </c>
       <c r="L16" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" s="0" t="n">
-        <v>0.667</v>
+        <v>0</v>
+      </c>
+      <c r="N16" s="0" t="s">
+        <v>24</v>
       </c>
       <c r="O16" s="0" t="n">
         <v>0</v>
@@ -1585,29 +1615,29 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="D17" s="0" t="str">
-        <f aca="false">MID(C17,1, 3)</f>
-        <v>TAM</v>
+        <f aca="false">MID(C17, 1, 3)</f>
+        <v>ORI</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>4</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H17" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I17" s="0" t="n">
         <v>0</v>
@@ -1645,11 +1675,11 @@
         <v>61</v>
       </c>
       <c r="D18" s="0" t="str">
-        <f aca="false">MID(C18,1, 3)</f>
+        <f aca="false">MID(C18, 1, 3)</f>
         <v>DOD</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>4</v>
@@ -1693,23 +1723,23 @@
         <v>63</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="D19" s="0" t="str">
-        <f aca="false">MID(C19,1, 3)</f>
-        <v>ORI</v>
+        <f aca="false">MID(C19, 1, 3)</f>
+        <v>TAM</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H19" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" s="0" t="n">
         <v>0</v>
@@ -1721,10 +1751,13 @@
         <v>0</v>
       </c>
       <c r="L19" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M19" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="N19" s="0" t="n">
+        <v>0.667</v>
       </c>
       <c r="O19" s="0" t="n">
         <v>0</v>
@@ -1735,29 +1768,29 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="D20" s="0" t="str">
-        <f aca="false">MID(C20,1, 3)</f>
-        <v>ORI</v>
+        <f aca="false">MID(C20, 1, 3)</f>
+        <v>ATL</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>3</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H20" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="0" t="n">
         <v>0</v>
@@ -1773,6 +1806,9 @@
       </c>
       <c r="M20" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="N20" s="0" t="s">
+        <v>24</v>
       </c>
       <c r="O20" s="0" t="n">
         <v>0</v>
@@ -1783,20 +1819,20 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D21" s="0" t="str">
-        <f aca="false">MID(C21,1, 3)</f>
+        <f aca="false">MID(C21, 1, 3)</f>
         <v>TAM</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>3</v>
@@ -1822,6 +1858,9 @@
       <c r="M21" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="N21" s="0" t="s">
+        <v>24</v>
+      </c>
       <c r="O21" s="0" t="n">
         <v>0</v>
       </c>
@@ -1831,7 +1870,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>70</v>
@@ -1840,20 +1879,20 @@
         <v>71</v>
       </c>
       <c r="D22" s="0" t="str">
-        <f aca="false">MID(C22,1, 3)</f>
-        <v>TAM</v>
+        <f aca="false">MID(C22, 1, 3)</f>
+        <v>ATL</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G22" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H22" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" s="0" t="n">
         <v>0</v>
@@ -1865,13 +1904,13 @@
         <v>0</v>
       </c>
       <c r="L22" s="0" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="M22" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22" s="0" t="n">
-        <v>0.667</v>
+        <v>1</v>
       </c>
       <c r="O22" s="0" t="n">
         <v>0</v>
@@ -1888,23 +1927,23 @@
         <v>73</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="D23" s="0" t="str">
-        <f aca="false">MID(C23,1, 3)</f>
-        <v>ATL</v>
+        <f aca="false">MID(C23, 1, 3)</f>
+        <v>TAM</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G23" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H23" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23" s="0" t="n">
         <v>0</v>
@@ -1916,10 +1955,13 @@
         <v>0</v>
       </c>
       <c r="L23" s="0" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M23" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="N23" s="0" t="n">
+        <v>0.9</v>
       </c>
       <c r="O23" s="0" t="n">
         <v>0</v>
@@ -1930,29 +1972,29 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="B24" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="C24" s="0" t="s">
-        <v>75</v>
-      </c>
       <c r="D24" s="0" t="str">
-        <f aca="false">MID(C24,1, 3)</f>
-        <v>ATL</v>
+        <f aca="false">MID(C24, 1, 3)</f>
+        <v>TAM</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G24" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H24" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" s="0" t="n">
         <v>0</v>
@@ -1964,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="L24" s="0" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="M24" s="0" t="n">
         <v>0</v>
@@ -1981,29 +2023,29 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="D25" s="0" t="str">
-        <f aca="false">MID(C25,1, 3)</f>
-        <v>TAM</v>
+        <f aca="false">MID(C25, 1, 3)</f>
+        <v>ORI</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G25" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" s="0" t="n">
         <v>0</v>
@@ -2015,13 +2057,13 @@
         <v>0</v>
       </c>
       <c r="L25" s="0" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="M25" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N25" s="0" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="O25" s="0" t="n">
         <v>0</v>
@@ -2032,50 +2074,50 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="B26" s="0" t="s">
-        <v>28</v>
-      </c>
       <c r="C26" s="0" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="D26" s="0" t="str">
-        <f aca="false">MID(C26,1, 3)</f>
+        <f aca="false">MID(C26, 1, 3)</f>
         <v>ORI</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>1</v>
+        <v>116</v>
       </c>
       <c r="G26" s="0" t="n">
-        <v>1</v>
+        <v>98</v>
       </c>
       <c r="H26" s="0" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="I26" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J26" s="0" t="n">
-        <v>1</v>
+        <v>0.983</v>
       </c>
       <c r="K26" s="0" t="n">
         <v>0</v>
       </c>
       <c r="L26" s="0" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="M26" s="0" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="N26" s="0" t="n">
-        <v>0.5</v>
+        <v>0.667</v>
       </c>
       <c r="O26" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P26" s="0" t="n">
         <v>0</v>
@@ -2089,23 +2131,23 @@
         <v>81</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D27" s="0" t="str">
-        <f aca="false">MID(C27,1, 3)</f>
-        <v>ORI</v>
+        <f aca="false">MID(C27, 1, 3)</f>
+        <v>ATL</v>
       </c>
       <c r="E27" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>112</v>
+      </c>
+      <c r="G27" s="0" t="n">
+        <v>97</v>
+      </c>
+      <c r="H27" s="0" t="n">
         <v>13</v>
-      </c>
-      <c r="F27" s="0" t="n">
-        <v>110</v>
-      </c>
-      <c r="G27" s="0" t="n">
-        <v>93</v>
-      </c>
-      <c r="H27" s="0" t="n">
-        <v>15</v>
       </c>
       <c r="I27" s="0" t="n">
         <v>2</v>
@@ -2114,16 +2156,16 @@
         <v>0.982</v>
       </c>
       <c r="K27" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27" s="0" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M27" s="0" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N27" s="0" t="n">
-        <v>0.674</v>
+        <v>0.821</v>
       </c>
       <c r="O27" s="0" t="n">
         <v>1</v>
@@ -2140,14 +2182,14 @@
         <v>83</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D28" s="0" t="str">
-        <f aca="false">MID(C28,1, 3)</f>
+        <f aca="false">MID(C28, 1, 3)</f>
         <v>TAM</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F28" s="0" t="n">
         <v>54</v>
@@ -2191,44 +2233,44 @@
         <v>85</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>17</v>
+        <v>86</v>
       </c>
       <c r="D29" s="0" t="str">
-        <f aca="false">MID(C29,1, 3)</f>
-        <v>ATL</v>
+        <f aca="false">MID(C29, 1, 3)</f>
+        <v>ORI</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>103</v>
+        <v>39</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="H29" s="0" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="I29" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J29" s="0" t="n">
-        <v>0.981</v>
+        <v>0.974</v>
       </c>
       <c r="K29" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L29" s="0" t="n">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="M29" s="0" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="N29" s="0" t="n">
-        <v>0.842</v>
+        <v>0.857</v>
       </c>
       <c r="O29" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P29" s="0" t="n">
         <v>0</v>
@@ -2236,47 +2278,47 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="D30" s="0" t="str">
-        <f aca="false">MID(C30,1, 3)</f>
-        <v>ORI</v>
+        <f aca="false">MID(C30, 1, 3)</f>
+        <v>TAM</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="H30" s="0" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="I30" s="0" t="n">
         <v>1</v>
       </c>
       <c r="J30" s="0" t="n">
-        <v>0.974</v>
+        <v>0.971</v>
       </c>
       <c r="K30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="L30" s="0" t="n">
-        <v>5</v>
-      </c>
       <c r="M30" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N30" s="0" t="n">
-        <v>0.833</v>
+        <v>1</v>
       </c>
       <c r="O30" s="0" t="n">
         <v>0</v>
@@ -2293,36 +2335,36 @@
         <v>90</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="D31" s="0" t="str">
-        <f aca="false">MID(C31,1, 3)</f>
+        <f aca="false">MID(C31, 1, 3)</f>
         <v>TAM</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="H31" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="I31" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="J31" s="0" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="K31" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L31" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="I31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J31" s="0" t="n">
-        <v>0.971</v>
-      </c>
-      <c r="K31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" s="0" t="n">
-        <v>3</v>
-      </c>
       <c r="M31" s="0" t="n">
         <v>0</v>
       </c>
@@ -2330,7 +2372,7 @@
         <v>1</v>
       </c>
       <c r="O31" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P31" s="0" t="n">
         <v>0</v>
@@ -2338,47 +2380,47 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D32" s="0" t="str">
-        <f aca="false">MID(C32,1, 3)</f>
-        <v>DOD</v>
+        <f aca="false">MID(C32, 1, 3)</f>
+        <v>TAM</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="G32" s="0" t="n">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="H32" s="0" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="I32" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J32" s="0" t="n">
         <v>0.968</v>
       </c>
       <c r="K32" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32" s="0" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="M32" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="N32" s="0" t="n">
-        <v>0.615</v>
+        <v>0</v>
+      </c>
+      <c r="N32" s="0" t="s">
+        <v>24</v>
       </c>
       <c r="O32" s="0" t="n">
         <v>0</v>
@@ -2389,44 +2431,47 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="D33" s="0" t="str">
-        <f aca="false">MID(C33,1, 3)</f>
+        <f aca="false">MID(C33, 1, 3)</f>
         <v>TAM</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>31</v>
+        <v>90</v>
       </c>
       <c r="G33" s="0" t="n">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="H33" s="0" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="I33" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J33" s="0" t="n">
-        <v>0.968</v>
+        <v>0.967</v>
       </c>
       <c r="K33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="M33" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="L33" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" s="0" t="n">
-        <v>0</v>
+      <c r="N33" s="0" t="n">
+        <v>0.824</v>
       </c>
       <c r="O33" s="0" t="n">
         <v>0</v>
@@ -2437,50 +2482,50 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D34" s="0" t="str">
-        <f aca="false">MID(C34,1, 3)</f>
-        <v>TAM</v>
+        <f aca="false">MID(C34, 1, 3)</f>
+        <v>DOD</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="H34" s="0" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="I34" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J34" s="0" t="n">
-        <v>0.967</v>
+        <v>0.966</v>
       </c>
       <c r="K34" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L34" s="0" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="M34" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N34" s="0" t="n">
-        <v>1</v>
+        <v>0.667</v>
       </c>
       <c r="O34" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P34" s="0" t="n">
         <v>0</v>
@@ -2488,47 +2533,47 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="D35" s="0" t="str">
-        <f aca="false">MID(C35,1, 3)</f>
+        <f aca="false">MID(C35, 1, 3)</f>
         <v>TAM</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F35" s="0" t="n">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="H35" s="0" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="I35" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J35" s="0" t="n">
         <v>0.963</v>
       </c>
       <c r="K35" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L35" s="0" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="M35" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N35" s="0" t="n">
-        <v>0.824</v>
+        <v>1</v>
       </c>
       <c r="O35" s="0" t="n">
         <v>0</v>
@@ -2539,47 +2584,47 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D36" s="0" t="str">
-        <f aca="false">MID(C36,1, 3)</f>
+        <f aca="false">MID(C36, 1, 3)</f>
         <v>DOD</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F36" s="0" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G36" s="0" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="H36" s="0" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="I36" s="0" t="n">
         <v>1</v>
       </c>
       <c r="J36" s="0" t="n">
-        <v>0.963</v>
+        <v>0.962</v>
       </c>
       <c r="K36" s="0" t="n">
         <v>0</v>
       </c>
       <c r="L36" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M36" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" s="0" t="n">
-        <v>0.667</v>
+        <v>0</v>
+      </c>
+      <c r="N36" s="0" t="s">
+        <v>24</v>
       </c>
       <c r="O36" s="0" t="n">
         <v>0</v>
@@ -2590,44 +2635,47 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>105</v>
+        <v>30</v>
       </c>
       <c r="D37" s="0" t="str">
-        <f aca="false">MID(C37,1, 3)</f>
+        <f aca="false">MID(C37, 1, 3)</f>
         <v>DOD</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F37" s="0" t="n">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="H37" s="0" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I37" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J37" s="0" t="n">
-        <v>0.962</v>
+        <v>0.958</v>
       </c>
       <c r="K37" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L37" s="0" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="M37" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="N37" s="0" t="n">
+        <v>0.688</v>
       </c>
       <c r="O37" s="0" t="n">
         <v>0</v>
@@ -2647,38 +2695,38 @@
         <v>108</v>
       </c>
       <c r="D38" s="0" t="str">
-        <f aca="false">MID(C38,1, 3)</f>
-        <v>ATL</v>
+        <f aca="false">MID(C38, 1, 3)</f>
+        <v>DOD</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F38" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="G38" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="H38" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="I38" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="J38" s="0" t="n">
+        <v>0.949</v>
+      </c>
+      <c r="K38" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="L38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" s="0" t="s">
         <v>24</v>
-      </c>
-      <c r="G38" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="H38" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="I38" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J38" s="0" t="n">
-        <v>0.958</v>
-      </c>
-      <c r="K38" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="L38" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="M38" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" s="0" t="n">
-        <v>0.667</v>
       </c>
       <c r="O38" s="0" t="n">
         <v>0</v>
@@ -2692,44 +2740,44 @@
         <v>109</v>
       </c>
       <c r="B39" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="C39" s="0" t="s">
-        <v>78</v>
-      </c>
       <c r="D39" s="0" t="str">
-        <f aca="false">MID(C39,1, 3)</f>
-        <v>TAM</v>
+        <f aca="false">MID(C39, 1, 3)</f>
+        <v>ATL</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G39" s="0" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="H39" s="0" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="I39" s="0" t="n">
         <v>1</v>
       </c>
       <c r="J39" s="0" t="n">
-        <v>0.952</v>
+        <v>0.944</v>
       </c>
       <c r="K39" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L39" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M39" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="N39" s="0" t="n">
-        <v>1</v>
+      <c r="N39" s="0" t="s">
+        <v>24</v>
       </c>
       <c r="O39" s="0" t="n">
         <v>0</v>
@@ -2749,35 +2797,38 @@
         <v>113</v>
       </c>
       <c r="D40" s="0" t="str">
-        <f aca="false">MID(C40,1, 3)</f>
-        <v>DOD</v>
+        <f aca="false">MID(C40, 1, 3)</f>
+        <v>ATL</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F40" s="0" t="n">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="G40" s="0" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="H40" s="0" t="n">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="I40" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J40" s="0" t="n">
-        <v>0.946</v>
+        <v>0.938</v>
       </c>
       <c r="K40" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L40" s="0" t="n">
         <v>0</v>
       </c>
       <c r="M40" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="N40" s="0" t="s">
+        <v>24</v>
       </c>
       <c r="O40" s="0" t="n">
         <v>0</v>
@@ -2791,41 +2842,44 @@
         <v>114</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D41" s="0" t="str">
-        <f aca="false">MID(C41,1, 3)</f>
+        <f aca="false">MID(C41, 1, 3)</f>
         <v>ATL</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F41" s="0" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="G41" s="0" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H41" s="0" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="I41" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J41" s="0" t="n">
-        <v>0.941</v>
+        <v>0.929</v>
       </c>
       <c r="K41" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L41" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M41" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="N41" s="0" t="n">
+        <v>0.667</v>
       </c>
       <c r="O41" s="0" t="n">
         <v>0</v>
@@ -2836,20 +2890,20 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D42" s="0" t="str">
-        <f aca="false">MID(C42,1, 3)</f>
+        <f aca="false">MID(C42, 1, 3)</f>
         <v>DOD</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F42" s="0" t="n">
         <v>14</v>
@@ -2887,50 +2941,50 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D43" s="0" t="str">
-        <f aca="false">MID(C43,1, 3)</f>
-        <v>DOD</v>
+        <f aca="false">MID(C43, 1, 3)</f>
+        <v>ORI</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F43" s="0" t="n">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="G43" s="0" t="n">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="H43" s="0" t="n">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="I43" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J43" s="0" t="n">
-        <v>0.919</v>
+        <v>0.923</v>
       </c>
       <c r="K43" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L43" s="0" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="M43" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N43" s="0" t="n">
-        <v>0.923</v>
+        <v>1</v>
       </c>
       <c r="O43" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P43" s="0" t="n">
         <v>0</v>
@@ -2938,47 +2992,47 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D44" s="0" t="str">
-        <f aca="false">MID(C44,1, 3)</f>
+        <f aca="false">MID(C44, 1, 3)</f>
         <v>ORI</v>
       </c>
       <c r="E44" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="F44" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="F44" s="0" t="n">
-        <v>48</v>
-      </c>
       <c r="G44" s="0" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="H44" s="0" t="n">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="I44" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J44" s="0" t="n">
-        <v>0.917</v>
+        <v>0.923</v>
       </c>
       <c r="K44" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L44" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M44" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="N44" s="0" t="n">
-        <v>1</v>
+      <c r="N44" s="0" t="s">
+        <v>24</v>
       </c>
       <c r="O44" s="0" t="n">
         <v>0</v>
@@ -2989,44 +3043,47 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="D45" s="0" t="str">
-        <f aca="false">MID(C45,1, 3)</f>
-        <v>ORI</v>
+        <f aca="false">MID(C45, 1, 3)</f>
+        <v>DOD</v>
       </c>
       <c r="E45" s="0" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F45" s="0" t="n">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="G45" s="0" t="n">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="H45" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="I45" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="I45" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="J45" s="0" t="n">
-        <v>0.917</v>
+        <v>0.921</v>
       </c>
       <c r="K45" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L45" s="0" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M45" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="N45" s="0" t="n">
+        <v>0.857</v>
       </c>
       <c r="O45" s="0" t="n">
         <v>0</v>
@@ -3040,47 +3097,47 @@
         <v>124</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>101</v>
+        <v>29</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="D46" s="0" t="str">
-        <f aca="false">MID(C46,1, 3)</f>
+        <f aca="false">MID(C46, 1, 3)</f>
         <v>DOD</v>
       </c>
       <c r="E46" s="0" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F46" s="0" t="n">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="G46" s="0" t="n">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="H46" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I46" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J46" s="0" t="n">
-        <v>0.912</v>
+        <v>0.919</v>
       </c>
       <c r="K46" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L46" s="0" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="M46" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N46" s="0" t="n">
-        <v>0.857</v>
+        <v>0.923</v>
       </c>
       <c r="O46" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P46" s="0" t="n">
         <v>0</v>
@@ -3088,20 +3145,20 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D47" s="0" t="str">
-        <f aca="false">MID(C47,1, 3)</f>
+        <f aca="false">MID(C47, 1, 3)</f>
         <v>DOD</v>
       </c>
       <c r="E47" s="0" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F47" s="0" t="n">
         <v>22</v>
@@ -3127,6 +3184,9 @@
       <c r="M47" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="N47" s="0" t="s">
+        <v>24</v>
+      </c>
       <c r="O47" s="0" t="n">
         <v>0</v>
       </c>
@@ -3136,35 +3196,35 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D48" s="0" t="str">
-        <f aca="false">MID(C48,1, 3)</f>
+        <f aca="false">MID(C48, 1, 3)</f>
         <v>DOD</v>
       </c>
       <c r="E48" s="0" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F48" s="0" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G48" s="0" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H48" s="0" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I48" s="0" t="n">
         <v>3</v>
       </c>
       <c r="J48" s="0" t="n">
-        <v>0.893</v>
+        <v>0.903</v>
       </c>
       <c r="K48" s="0" t="n">
         <v>1</v>
@@ -3187,50 +3247,50 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="D49" s="0" t="str">
-        <f aca="false">MID(C49,1, 3)</f>
-        <v>ATL</v>
+        <f aca="false">MID(C49, 1, 3)</f>
+        <v>TAM</v>
       </c>
       <c r="E49" s="0" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F49" s="0" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G49" s="0" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="H49" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I49" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J49" s="0" t="n">
-        <v>0.889</v>
+        <v>0.9</v>
       </c>
       <c r="K49" s="0" t="n">
         <v>0</v>
       </c>
       <c r="L49" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M49" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N49" s="0" t="n">
-        <v>0.5</v>
+        <v>0.667</v>
       </c>
       <c r="O49" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P49" s="0" t="n">
         <v>0</v>
@@ -3238,44 +3298,47 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>133</v>
+        <v>32</v>
       </c>
       <c r="C50" s="0" t="s">
         <v>134</v>
       </c>
       <c r="D50" s="0" t="str">
-        <f aca="false">MID(C50,1, 3)</f>
+        <f aca="false">MID(C50, 1, 3)</f>
         <v>ORI</v>
       </c>
       <c r="E50" s="0" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F50" s="0" t="n">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="G50" s="0" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="H50" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="I50" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="I50" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="J50" s="0" t="n">
-        <v>0.889</v>
+        <v>0.897</v>
       </c>
       <c r="K50" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L50" s="0" t="n">
         <v>0</v>
       </c>
       <c r="M50" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="N50" s="0" t="s">
+        <v>24</v>
       </c>
       <c r="O50" s="0" t="n">
         <v>0</v>
@@ -3292,44 +3355,44 @@
         <v>136</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>137</v>
+        <v>41</v>
       </c>
       <c r="D51" s="0" t="str">
-        <f aca="false">MID(C51,1, 3)</f>
-        <v>ORI</v>
+        <f aca="false">MID(C51, 1, 3)</f>
+        <v>ATL</v>
       </c>
       <c r="E51" s="0" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F51" s="0" t="n">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="G51" s="0" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H51" s="0" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="I51" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J51" s="0" t="n">
-        <v>0.886</v>
+        <v>0.895</v>
       </c>
       <c r="K51" s="0" t="n">
         <v>0</v>
       </c>
       <c r="L51" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M51" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N51" s="0" t="n">
-        <v>0.667</v>
+        <v>0.5</v>
       </c>
       <c r="O51" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P51" s="0" t="n">
         <v>0</v>
@@ -3337,47 +3400,47 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="B52" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="B52" s="0" t="s">
+      <c r="C52" s="0" t="s">
         <v>139</v>
       </c>
-      <c r="C52" s="0" t="s">
-        <v>119</v>
-      </c>
       <c r="D52" s="0" t="str">
-        <f aca="false">MID(C52,1, 3)</f>
-        <v>DOD</v>
+        <f aca="false">MID(C52, 1, 3)</f>
+        <v>ORI</v>
       </c>
       <c r="E52" s="0" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F52" s="0" t="n">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="G52" s="0" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H52" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="I52" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="I52" s="0" t="n">
-        <v>2</v>
-      </c>
       <c r="J52" s="0" t="n">
-        <v>0.882</v>
+        <v>0.889</v>
       </c>
       <c r="K52" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L52" s="0" t="n">
         <v>4</v>
       </c>
       <c r="M52" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N52" s="0" t="n">
-        <v>1</v>
+        <v>0.571</v>
       </c>
       <c r="O52" s="0" t="n">
         <v>0</v>
@@ -3391,41 +3454,44 @@
         <v>140</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>31</v>
+        <v>141</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>141</v>
+        <v>33</v>
       </c>
       <c r="D53" s="0" t="str">
-        <f aca="false">MID(C53,1, 3)</f>
+        <f aca="false">MID(C53, 1, 3)</f>
         <v>ORI</v>
       </c>
       <c r="E53" s="0" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F53" s="0" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G53" s="0" t="n">
         <v>16</v>
       </c>
       <c r="H53" s="0" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I53" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J53" s="0" t="n">
-        <v>0.88</v>
+        <v>0.889</v>
       </c>
       <c r="K53" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L53" s="0" t="n">
         <v>0</v>
       </c>
       <c r="M53" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="N53" s="0" t="s">
+        <v>24</v>
       </c>
       <c r="O53" s="0" t="n">
         <v>0</v>
@@ -3442,41 +3508,41 @@
         <v>143</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="D54" s="0" t="str">
-        <f aca="false">MID(C54,1, 3)</f>
-        <v>ORI</v>
+        <f aca="false">MID(C54, 1, 3)</f>
+        <v>DOD</v>
       </c>
       <c r="E54" s="0" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F54" s="0" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G54" s="0" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H54" s="0" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I54" s="0" t="n">
         <v>2</v>
       </c>
       <c r="J54" s="0" t="n">
-        <v>0.875</v>
+        <v>0.889</v>
       </c>
       <c r="K54" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L54" s="0" t="n">
         <v>4</v>
       </c>
       <c r="M54" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N54" s="0" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="O54" s="0" t="n">
         <v>0</v>
@@ -3487,44 +3553,47 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>49</v>
+        <v>144</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D55" s="0" t="str">
-        <f aca="false">MID(C55,1, 3)</f>
-        <v>ATL</v>
+        <f aca="false">MID(C55, 1, 3)</f>
+        <v>ORI</v>
       </c>
       <c r="E55" s="0" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F55" s="0" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G55" s="0" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H55" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I55" s="0" t="n">
         <v>1</v>
       </c>
       <c r="J55" s="0" t="n">
-        <v>0.875</v>
+        <v>0.889</v>
       </c>
       <c r="K55" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L55" s="0" t="n">
         <v>0</v>
       </c>
       <c r="M55" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="N55" s="0" t="s">
+        <v>24</v>
       </c>
       <c r="O55" s="0" t="n">
         <v>0</v>
@@ -3535,44 +3604,47 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D56" s="0" t="str">
-        <f aca="false">MID(C56,1, 3)</f>
-        <v>ATL</v>
+        <f aca="false">MID(C56, 1, 3)</f>
+        <v>ORI</v>
       </c>
       <c r="E56" s="0" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F56" s="0" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G56" s="0" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="H56" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I56" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J56" s="0" t="n">
-        <v>0.867</v>
+        <v>0.875</v>
       </c>
       <c r="K56" s="0" t="n">
         <v>0</v>
       </c>
       <c r="L56" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M56" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="N56" s="0" t="n">
+        <v>0.667</v>
       </c>
       <c r="O56" s="0" t="n">
         <v>0</v>
@@ -3583,44 +3655,47 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D57" s="0" t="str">
-        <f aca="false">MID(C57,1, 3)</f>
+        <f aca="false">MID(C57, 1, 3)</f>
         <v>ORI</v>
       </c>
       <c r="E57" s="0" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F57" s="0" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G57" s="0" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H57" s="0" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I57" s="0" t="n">
         <v>2</v>
       </c>
       <c r="J57" s="0" t="n">
-        <v>0.857</v>
+        <v>0.875</v>
       </c>
       <c r="K57" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L57" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M57" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="N57" s="0" t="n">
+        <v>0.5</v>
       </c>
       <c r="O57" s="0" t="n">
         <v>0</v>
@@ -3631,47 +3706,47 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>151</v>
+        <v>51</v>
       </c>
       <c r="B58" s="0" t="s">
         <v>152</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>105</v>
+        <v>153</v>
       </c>
       <c r="D58" s="0" t="str">
-        <f aca="false">MID(C58,1, 3)</f>
-        <v>DOD</v>
+        <f aca="false">MID(C58, 1, 3)</f>
+        <v>ATL</v>
       </c>
       <c r="E58" s="0" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F58" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G58" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="G58" s="0" t="n">
-        <v>2</v>
-      </c>
       <c r="H58" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I58" s="0" t="n">
         <v>1</v>
       </c>
       <c r="J58" s="0" t="n">
-        <v>0.857</v>
+        <v>0.875</v>
       </c>
       <c r="K58" s="0" t="n">
         <v>0</v>
       </c>
       <c r="L58" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M58" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="N58" s="0" t="n">
-        <v>0.5</v>
+        <v>0</v>
+      </c>
+      <c r="N58" s="0" t="s">
+        <v>24</v>
       </c>
       <c r="O58" s="0" t="n">
         <v>0</v>
@@ -3682,47 +3757,47 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D59" s="0" t="str">
-        <f aca="false">MID(C59,1, 3)</f>
-        <v>ORI</v>
+        <f aca="false">MID(C59, 1, 3)</f>
+        <v>ATL</v>
       </c>
       <c r="E59" s="0" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F59" s="0" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G59" s="0" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H59" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I59" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J59" s="0" t="n">
-        <v>0.842</v>
+        <v>0.867</v>
       </c>
       <c r="K59" s="0" t="n">
         <v>0</v>
       </c>
       <c r="L59" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M59" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" s="0" t="n">
-        <v>0.667</v>
+        <v>0</v>
+      </c>
+      <c r="N59" s="0" t="s">
+        <v>24</v>
       </c>
       <c r="O59" s="0" t="n">
         <v>0</v>
@@ -3733,47 +3808,47 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>33</v>
+        <v>157</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="D60" s="0" t="str">
-        <f aca="false">MID(C60,1, 3)</f>
-        <v>TAM</v>
+        <f aca="false">MID(C60, 1, 3)</f>
+        <v>DOD</v>
       </c>
       <c r="E60" s="0" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F60" s="0" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G60" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H60" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I60" s="0" t="n">
         <v>1</v>
       </c>
       <c r="J60" s="0" t="n">
-        <v>0.833</v>
+        <v>0.857</v>
       </c>
       <c r="K60" s="0" t="n">
         <v>0</v>
       </c>
       <c r="L60" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M60" s="0" t="n">
         <v>3</v>
       </c>
       <c r="N60" s="0" t="n">
-        <v>0.571</v>
+        <v>0.5</v>
       </c>
       <c r="O60" s="0" t="n">
         <v>0</v>
@@ -3784,47 +3859,47 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>157</v>
+        <v>111</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>56</v>
+        <v>91</v>
       </c>
       <c r="D61" s="0" t="str">
-        <f aca="false">MID(C61,1, 3)</f>
-        <v>ORI</v>
+        <f aca="false">MID(C61, 1, 3)</f>
+        <v>TAM</v>
       </c>
       <c r="E61" s="0" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F61" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G61" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="G61" s="0" t="n">
+      <c r="I61" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J61" s="0" t="n">
+        <v>0.833</v>
+      </c>
+      <c r="K61" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="M61" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="H61" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J61" s="0" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="K61" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L61" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="N61" s="0" t="n">
-        <v>1</v>
+        <v>0.571</v>
       </c>
       <c r="O61" s="0" t="n">
         <v>0</v>
@@ -3835,47 +3910,47 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="D62" s="0" t="str">
-        <f aca="false">MID(C62,1, 3)</f>
-        <v>DOD</v>
+        <f aca="false">MID(C62, 1, 3)</f>
+        <v>ORI</v>
       </c>
       <c r="E62" s="0" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F62" s="0" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G62" s="0" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H62" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I62" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J62" s="0" t="n">
-        <v>0.733</v>
+        <v>0.8</v>
       </c>
       <c r="K62" s="0" t="n">
         <v>0</v>
       </c>
       <c r="L62" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M62" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N62" s="0" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="O62" s="0" t="n">
         <v>0</v>
@@ -3886,44 +3961,47 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>163</v>
+        <v>30</v>
       </c>
       <c r="D63" s="0" t="str">
-        <f aca="false">MID(C63,1, 3)</f>
+        <f aca="false">MID(C63, 1, 3)</f>
         <v>DOD</v>
       </c>
       <c r="E63" s="0" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F63" s="0" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="G63" s="0" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H63" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J63" s="0" t="n">
-        <v>0.714</v>
+        <v>0.75</v>
       </c>
       <c r="K63" s="0" t="n">
         <v>0</v>
       </c>
       <c r="L63" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M63" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="N63" s="0" t="n">
+        <v>0.75</v>
       </c>
       <c r="O63" s="0" t="n">
         <v>0</v>
@@ -3943,38 +4021,38 @@
         <v>166</v>
       </c>
       <c r="D64" s="0" t="str">
-        <f aca="false">MID(C64,1, 3)</f>
-        <v>ORI</v>
+        <f aca="false">MID(C64, 1, 3)</f>
+        <v>DOD</v>
       </c>
       <c r="E64" s="0" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F64" s="0" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G64" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H64" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J64" s="0" t="n">
-        <v>0.667</v>
+        <v>0.714</v>
       </c>
       <c r="K64" s="0" t="n">
         <v>0</v>
       </c>
       <c r="L64" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M64" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" s="0" t="n">
-        <v>0.75</v>
+        <v>0</v>
+      </c>
+      <c r="N64" s="0" t="s">
+        <v>24</v>
       </c>
       <c r="O64" s="0" t="n">
         <v>0</v>
@@ -3994,38 +4072,38 @@
         <v>169</v>
       </c>
       <c r="D65" s="0" t="str">
-        <f aca="false">MID(C65,1, 3)</f>
-        <v>DOD</v>
+        <f aca="false">MID(C65, 1, 3)</f>
+        <v>ORI</v>
       </c>
       <c r="E65" s="0" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F65" s="0" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G65" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H65" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J65" s="0" t="n">
-        <v>0.5</v>
+        <v>0.667</v>
       </c>
       <c r="K65" s="0" t="n">
         <v>0</v>
       </c>
       <c r="L65" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M65" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N65" s="0" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="O65" s="0" t="n">
         <v>0</v>
@@ -4039,35 +4117,35 @@
         <v>170</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="D66" s="0" t="str">
-        <f aca="false">MID(C66,1, 3)</f>
+        <f aca="false">MID(C66, 1, 3)</f>
         <v>ATL</v>
       </c>
       <c r="E66" s="0" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F66" s="0" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G66" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H66" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I66" s="0" t="n">
         <v>2</v>
       </c>
       <c r="J66" s="0" t="n">
-        <v>0.333</v>
+        <v>0.667</v>
       </c>
       <c r="K66" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L66" s="0" t="n">
         <v>11</v>
@@ -4093,38 +4171,41 @@
         <v>172</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>115</v>
+        <v>173</v>
       </c>
       <c r="D67" s="0" t="str">
-        <f aca="false">MID(C67,1, 3)</f>
-        <v>ATL</v>
+        <f aca="false">MID(C67, 1, 3)</f>
+        <v>DOD</v>
       </c>
       <c r="E67" s="0" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F67" s="0" t="n">
         <v>2</v>
       </c>
       <c r="G67" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H67" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I67" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J67" s="0" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K67" s="0" t="n">
         <v>0</v>
       </c>
       <c r="L67" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M67" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="N67" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="O67" s="0" t="n">
         <v>0</v>
@@ -4135,20 +4216,20 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C68" s="0" t="s">
         <v>17</v>
       </c>
       <c r="D68" s="0" t="str">
-        <f aca="false">MID(C68,1, 3)</f>
+        <f aca="false">MID(C68, 1, 3)</f>
         <v>ATL</v>
       </c>
       <c r="E68" s="0" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F68" s="0" t="n">
         <v>2</v>
@@ -4173,6 +4254,9 @@
       </c>
       <c r="M68" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="N68" s="0" t="s">
+        <v>24</v>
       </c>
       <c r="O68" s="0" t="n">
         <v>0</v>
@@ -4183,23 +4267,23 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="D69" s="0" t="str">
-        <f aca="false">MID(C69,1, 3)</f>
-        <v>TAM</v>
+        <f aca="false">MID(C69, 1, 3)</f>
+        <v>ATL</v>
       </c>
       <c r="E69" s="0" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F69" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G69" s="0" t="n">
         <v>0</v>
@@ -4208,7 +4292,7 @@
         <v>0</v>
       </c>
       <c r="I69" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J69" s="0" t="n">
         <v>0</v>
@@ -4217,13 +4301,13 @@
         <v>0</v>
       </c>
       <c r="L69" s="0" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M69" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" s="0" t="n">
-        <v>0.857</v>
+        <v>0</v>
+      </c>
+      <c r="N69" s="0" t="s">
+        <v>24</v>
       </c>
       <c r="O69" s="0" t="n">
         <v>0</v>
@@ -4234,20 +4318,20 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>40</v>
+        <v>179</v>
       </c>
       <c r="D70" s="0" t="str">
-        <f aca="false">MID(C70,1, 3)</f>
-        <v>TAM</v>
+        <f aca="false">MID(C70, 1, 3)</f>
+        <v>ORI</v>
       </c>
       <c r="E70" s="0" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F70" s="0" t="n">
         <v>0</v>
@@ -4268,13 +4352,13 @@
         <v>0</v>
       </c>
       <c r="L70" s="0" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="M70" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N70" s="0" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="O70" s="0" t="n">
         <v>0</v>
@@ -4285,20 +4369,20 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>180</v>
+        <v>38</v>
       </c>
       <c r="D71" s="0" t="str">
-        <f aca="false">MID(C71,1, 3)</f>
-        <v>ORI</v>
+        <f aca="false">MID(C71, 1, 3)</f>
+        <v>TAM</v>
       </c>
       <c r="E71" s="0" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F71" s="0" t="n">
         <v>0</v>
@@ -4319,13 +4403,13 @@
         <v>0</v>
       </c>
       <c r="L71" s="0" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="M71" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N71" s="0" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="O71" s="0" t="n">
         <v>0</v>
@@ -4336,20 +4420,20 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>181</v>
+        <v>102</v>
       </c>
       <c r="B72" s="0" t="s">
         <v>182</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>183</v>
+        <v>116</v>
       </c>
       <c r="D72" s="0" t="str">
-        <f aca="false">MID(C72,1, 3)</f>
+        <f aca="false">MID(C72, 1, 3)</f>
         <v>ATL</v>
       </c>
       <c r="E72" s="0" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F72" s="0" t="n">
         <v>0</v>
@@ -4373,10 +4457,10 @@
         <v>4</v>
       </c>
       <c r="M72" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N72" s="0" t="n">
-        <v>1</v>
+        <v>0.571</v>
       </c>
       <c r="O72" s="0" t="n">
         <v>0</v>
@@ -4387,20 +4471,20 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>104</v>
+        <v>183</v>
       </c>
       <c r="B73" s="0" t="s">
         <v>184</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>108</v>
+        <v>185</v>
       </c>
       <c r="D73" s="0" t="str">
-        <f aca="false">MID(C73,1, 3)</f>
+        <f aca="false">MID(C73, 1, 3)</f>
         <v>ATL</v>
       </c>
       <c r="E73" s="0" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F73" s="0" t="n">
         <v>0</v>
@@ -4424,10 +4508,10 @@
         <v>4</v>
       </c>
       <c r="M73" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N73" s="0" t="n">
-        <v>0.571</v>
+        <v>1</v>
       </c>
       <c r="O73" s="0" t="n">
         <v>0</v>

--- a/data/csv/stats_fielding_raw_tsl_2024.xlsx
+++ b/data/csv/stats_fielding_raw_tsl_2024.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="184">
   <si>
     <t xml:space="preserve">Player</t>
   </si>
@@ -85,6 +85,15 @@
     <t xml:space="preserve">ATLANTA.....</t>
   </si>
   <si>
+    <t xml:space="preserve">ARAYA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATLANTA...........</t>
+  </si>
+  <si>
     <t xml:space="preserve">GARCIA</t>
   </si>
   <si>
@@ -94,18 +103,6 @@
     <t xml:space="preserve">TAMPA......</t>
   </si>
   <si>
-    <t xml:space="preserve">  ---</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARAYA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATLANTA...........</t>
-  </si>
-  <si>
     <t xml:space="preserve">CRUZ</t>
   </si>
   <si>
@@ -130,6 +127,15 @@
     <t xml:space="preserve">SEBASTIAN</t>
   </si>
   <si>
+    <t xml:space="preserve">EVIAN ROMERO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JORGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATLANTA</t>
+  </si>
+  <si>
     <t xml:space="preserve">AZCUY</t>
   </si>
   <si>
@@ -139,15 +145,6 @@
     <t xml:space="preserve">TAMPA........</t>
   </si>
   <si>
-    <t xml:space="preserve">EVIAN ROMERO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JORGE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATLANTA</t>
-  </si>
-  <si>
     <t xml:space="preserve">BONGE</t>
   </si>
   <si>
@@ -157,6 +154,21 @@
     <t xml:space="preserve">DODGERS.........</t>
   </si>
   <si>
+    <t xml:space="preserve">MOLENMAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEM OUDE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAMPA...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FRANCO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YANCARLO</t>
+  </si>
+  <si>
     <t xml:space="preserve">LAMONJCA</t>
   </si>
   <si>
@@ -175,19 +187,16 @@
     <t xml:space="preserve">DODGERS.</t>
   </si>
   <si>
-    <t xml:space="preserve">FRANCO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YANCARLO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOLENMAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEM OUDE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAMPA...</t>
+    <t xml:space="preserve">VAN MOOK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAURO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FINOL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DODGERS...........</t>
   </si>
   <si>
     <t xml:space="preserve">GAMBERA</t>
@@ -196,18 +205,6 @@
     <t xml:space="preserve">ANDREA</t>
   </si>
   <si>
-    <t xml:space="preserve">VAN MOOK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAURO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FINOL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DODGERS...........</t>
-  </si>
-  <si>
     <t xml:space="preserve">TORREALBA</t>
   </si>
   <si>
@@ -217,19 +214,28 @@
     <t xml:space="preserve">TAMPA.........</t>
   </si>
   <si>
+    <t xml:space="preserve">MERKELBACK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BENNETT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAMPA..</t>
+  </si>
+  <si>
     <t xml:space="preserve">PERUZZO</t>
   </si>
   <si>
     <t xml:space="preserve">MATIS</t>
   </si>
   <si>
-    <t xml:space="preserve">MERKELBACK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BENNETT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAMPA..</t>
+    <t xml:space="preserve">DIAZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENMANUEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAMPA.......</t>
   </si>
   <si>
     <t xml:space="preserve">JUAN</t>
@@ -238,13 +244,7 @@
     <t xml:space="preserve">ATLANTA........</t>
   </si>
   <si>
-    <t xml:space="preserve">DIAZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENMANUEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAMPA.......</t>
+    <t xml:space="preserve">AGUILAR</t>
   </si>
   <si>
     <t xml:space="preserve">DELGADO</t>
@@ -253,115 +253,163 @@
     <t xml:space="preserve">DIEGO</t>
   </si>
   <si>
-    <t xml:space="preserve">AGUILAR</t>
-  </si>
-  <si>
     <t xml:space="preserve">NIEMEYER</t>
   </si>
   <si>
     <t xml:space="preserve">FINN</t>
   </si>
   <si>
+    <t xml:space="preserve">ALBERTINI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DANIELE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORIOLES.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CASTILLO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALEJANDRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INFANTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAIMOND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAMPA.....</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASCANIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARLOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LARA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEDRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAMPA..........</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEREZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIGUEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DODGERS......</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAVIDE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DODGERS....</t>
+  </si>
+  <si>
     <t xml:space="preserve">QUINTANA</t>
   </si>
   <si>
     <t xml:space="preserve">SAMUEL</t>
   </si>
   <si>
+    <t xml:space="preserve">MILANO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MANUEL</t>
+  </si>
+  <si>
     <t xml:space="preserve">GORTEMULDER</t>
   </si>
   <si>
     <t xml:space="preserve">PEPIJN</t>
   </si>
   <si>
-    <t xml:space="preserve">ALBERTINI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DANIELE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORIOLES.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CASTILLO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALEJANDRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INFANTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RAIMOND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAMPA.....</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASCANIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CARLOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LARA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PEDRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAMPA..........</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DAVIDE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DODGERS....</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MILANO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MANUEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PEREZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MIGUEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DODGERS......</t>
-  </si>
-  <si>
     <t xml:space="preserve">ROJAS</t>
   </si>
   <si>
     <t xml:space="preserve">ANGEL</t>
   </si>
   <si>
+    <t xml:space="preserve">RODRIGUEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAINER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATLANTA..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VARGAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATLANTA......</t>
+  </si>
+  <si>
     <t xml:space="preserve">CARDINALES</t>
   </si>
   <si>
-    <t xml:space="preserve">CARLOS A</t>
-  </si>
-  <si>
     <t xml:space="preserve">DODGER</t>
   </si>
   <si>
-    <t xml:space="preserve">VARGAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATLANTA......</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RODRIGUEZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RAINER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATLANTA..</t>
+    <t xml:space="preserve">REGAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORIOLES......</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GONZALEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAYAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TORRES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORIOLES..........</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALONSO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DODGERS.....</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GANASSI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARTIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANSELMI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NARANJO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORIOLES...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SWAAK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORIOLES........</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHINEA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PABLO</t>
   </si>
   <si>
     <t xml:space="preserve">BALICE</t>
@@ -373,37 +421,46 @@
     <t xml:space="preserve">ATLANTA.......</t>
   </si>
   <si>
-    <t xml:space="preserve">GONZALEZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DAYAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TORRES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORIOLES..........</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REGAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORIOLES......</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GANASSI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALONSO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DODGERS.....</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARTIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANSELMI</t>
+    <t xml:space="preserve">BENCOMO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOSE ANGEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZIRONI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAICOL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COLOMBO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GABRIELE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORIOLES..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COLLAZO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JESUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROCCO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RUBERTI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE LOS SANTOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOS GUARIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATLAN</t>
   </si>
   <si>
     <t xml:space="preserve">SPECK</t>
@@ -415,52 +472,16 @@
     <t xml:space="preserve">DODGERS........</t>
   </si>
   <si>
-    <t xml:space="preserve">CHINEA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PABLO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NARANJO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORIOLES...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BENCOMO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JOSE ANGEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COLOMBO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GABRIELE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORIOLES..</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZIRONI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAICOL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COLLAZO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JESUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SWAAK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BLUE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORIOLES........</t>
+    <t xml:space="preserve">NACAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LESLIE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOAN KELLY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATLANTA.</t>
   </si>
   <si>
     <t xml:space="preserve">KOCH</t>
@@ -472,33 +493,6 @@
     <t xml:space="preserve">ORIOLES.......</t>
   </si>
   <si>
-    <t xml:space="preserve">ROCCO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RUBERTI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JOAN KELLY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATLANTA.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE LOS SANTOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GUARIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATLAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NACAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LESLIE</t>
-  </si>
-  <si>
     <t xml:space="preserve">KEVIN</t>
   </si>
   <si>
@@ -544,13 +538,22 @@
     <t xml:space="preserve">DODGERS..</t>
   </si>
   <si>
+    <t xml:space="preserve">ANTON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WILDER</t>
+  </si>
+  <si>
     <t xml:space="preserve">ROLDAN</t>
   </si>
   <si>
-    <t xml:space="preserve">ANTON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WILDER</t>
+    <t xml:space="preserve">BORLONI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MATTEO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATLANTA....</t>
   </si>
   <si>
     <t xml:space="preserve">DE LA ROSA</t>
@@ -562,22 +565,13 @@
     <t xml:space="preserve">ORIOLES</t>
   </si>
   <si>
+    <t xml:space="preserve">LUIS</t>
+  </si>
+  <si>
     <t xml:space="preserve">REINA</t>
   </si>
   <si>
     <t xml:space="preserve">ROINEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BORLONI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MATTEO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATLANTA....</t>
   </si>
 </sst>
 </file>
@@ -781,15 +775,18 @@
   </sheetPr>
   <dimension ref="A1:P73"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="0" width="4.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="4.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="4.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="5.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="5" style="0" width="4.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="3.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="2.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="5.92"/>
@@ -863,16 +860,16 @@
         <v>ATL</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I2" s="0" t="n">
         <v>0</v>
@@ -881,7 +878,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L2" s="0" t="n">
         <v>1</v>
@@ -914,16 +911,16 @@
         <v>ATL</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G3" s="0" t="n">
         <v>15</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I3" s="0" t="n">
         <v>0</v>
@@ -962,19 +959,19 @@
       </c>
       <c r="D4" s="0" t="str">
         <f aca="false">MID(C4, 1, 3)</f>
-        <v>TAM</v>
+        <v>ATL</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="I4" s="0" t="n">
         <v>0</v>
@@ -983,16 +980,13 @@
         <v>1</v>
       </c>
       <c r="K4" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L4" s="0" t="n">
         <v>0</v>
       </c>
       <c r="M4" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>24</v>
       </c>
       <c r="O4" s="0" t="n">
         <v>0</v>
@@ -1003,29 +997,29 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="C5" s="0" t="s">
         <v>26</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>27</v>
       </c>
       <c r="D5" s="0" t="str">
         <f aca="false">MID(C5, 1, 3)</f>
-        <v>ATL</v>
+        <v>TAM</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>14</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I5" s="0" t="n">
         <v>0</v>
@@ -1034,16 +1028,13 @@
         <v>1</v>
       </c>
       <c r="K5" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5" s="0" t="n">
         <v>0</v>
       </c>
       <c r="M5" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="N5" s="0" t="s">
-        <v>24</v>
       </c>
       <c r="O5" s="0" t="n">
         <v>0</v>
@@ -1054,29 +1045,29 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="C6" s="0" t="s">
         <v>29</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>30</v>
       </c>
       <c r="D6" s="0" t="str">
         <f aca="false">MID(C6, 1, 3)</f>
         <v>DOD</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I6" s="0" t="n">
         <v>0</v>
@@ -1092,9 +1083,6 @@
       </c>
       <c r="M6" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="N6" s="0" t="s">
-        <v>24</v>
       </c>
       <c r="O6" s="0" t="n">
         <v>0</v>
@@ -1105,27 +1093,27 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="C7" s="0" t="s">
         <v>32</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>33</v>
       </c>
       <c r="D7" s="0" t="str">
         <f aca="false">MID(C7, 1, 3)</f>
         <v>ORI</v>
       </c>
       <c r="E7" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="G7" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F7" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>13</v>
-      </c>
       <c r="H7" s="0" t="n">
         <v>2</v>
       </c>
@@ -1143,9 +1131,6 @@
       </c>
       <c r="M7" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="N7" s="0" t="s">
-        <v>24</v>
       </c>
       <c r="O7" s="0" t="n">
         <v>0</v>
@@ -1156,26 +1141,26 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>35</v>
-      </c>
       <c r="C8" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D8" s="0" t="str">
         <f aca="false">MID(C8, 1, 3)</f>
         <v>TAM</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H8" s="0" t="n">
         <v>0</v>
@@ -1194,9 +1179,6 @@
       </c>
       <c r="M8" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="N8" s="0" t="s">
-        <v>24</v>
       </c>
       <c r="O8" s="0" t="n">
         <v>0</v>
@@ -1207,29 +1189,29 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="C9" s="0" t="s">
         <v>37</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>38</v>
       </c>
       <c r="D9" s="0" t="str">
         <f aca="false">MID(C9, 1, 3)</f>
-        <v>TAM</v>
+        <v>ATL</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G9" s="0" t="n">
         <v>7</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" s="0" t="n">
         <v>0</v>
@@ -1245,9 +1227,6 @@
       </c>
       <c r="M9" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="N9" s="0" t="s">
-        <v>24</v>
       </c>
       <c r="O9" s="0" t="n">
         <v>0</v>
@@ -1258,29 +1237,29 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="C10" s="0" t="s">
         <v>40</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>41</v>
       </c>
       <c r="D10" s="0" t="str">
         <f aca="false">MID(C10, 1, 3)</f>
-        <v>ATL</v>
+        <v>TAM</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>0</v>
@@ -1296,9 +1275,6 @@
       </c>
       <c r="M10" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="N10" s="0" t="s">
-        <v>24</v>
       </c>
       <c r="O10" s="0" t="n">
         <v>0</v>
@@ -1309,20 +1285,20 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="C11" s="0" t="s">
         <v>43</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>44</v>
       </c>
       <c r="D11" s="0" t="str">
         <f aca="false">MID(C11, 1, 3)</f>
         <v>DOD</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>6</v>
@@ -1360,27 +1336,27 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="C12" s="0" t="s">
         <v>46</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>47</v>
       </c>
       <c r="D12" s="0" t="str">
         <f aca="false">MID(C12, 1, 3)</f>
-        <v>ORI</v>
+        <v>TAM</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F12" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G12" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="G12" s="0" t="n">
-        <v>4</v>
-      </c>
       <c r="H12" s="0" t="n">
         <v>1</v>
       </c>
@@ -1394,13 +1370,13 @@
         <v>0</v>
       </c>
       <c r="L12" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" s="0" t="s">
-        <v>24</v>
+        <v>1</v>
+      </c>
+      <c r="N12" s="0" t="n">
+        <v>0.75</v>
       </c>
       <c r="O12" s="0" t="n">
         <v>0</v>
@@ -1411,30 +1387,30 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="0" t="s">
-        <v>49</v>
-      </c>
       <c r="C13" s="0" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="D13" s="0" t="str">
         <f aca="false">MID(C13, 1, 3)</f>
-        <v>DOD</v>
+        <v>ATL</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>5</v>
       </c>
       <c r="G13" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H13" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="H13" s="0" t="n">
-        <v>2</v>
-      </c>
       <c r="I13" s="0" t="n">
         <v>0</v>
       </c>
@@ -1445,13 +1421,13 @@
         <v>0</v>
       </c>
       <c r="L13" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M13" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N13" s="0" t="n">
-        <v>0.625</v>
+        <v>0.667</v>
       </c>
       <c r="O13" s="0" t="n">
         <v>0</v>
@@ -1462,29 +1438,29 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="0" t="s">
         <v>51</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>17</v>
       </c>
       <c r="D14" s="0" t="str">
         <f aca="false">MID(C14, 1, 3)</f>
-        <v>ATL</v>
+        <v>ORI</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>5</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I14" s="0" t="n">
         <v>0</v>
@@ -1496,13 +1472,10 @@
         <v>0</v>
       </c>
       <c r="L14" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" s="0" t="n">
-        <v>0.667</v>
+        <v>0</v>
       </c>
       <c r="O14" s="0" t="n">
         <v>0</v>
@@ -1513,47 +1486,47 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="C15" s="0" t="s">
         <v>54</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>55</v>
       </c>
       <c r="D15" s="0" t="str">
         <f aca="false">MID(C15, 1, 3)</f>
-        <v>TAM</v>
+        <v>DOD</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>5</v>
       </c>
       <c r="G15" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="H15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" s="0" t="n">
-        <v>2</v>
-      </c>
       <c r="M15" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N15" s="0" t="n">
-        <v>0.667</v>
+        <v>0.625</v>
       </c>
       <c r="O15" s="0" t="n">
         <v>0</v>
@@ -1564,29 +1537,29 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="0" t="s">
-        <v>57</v>
-      </c>
       <c r="C16" s="0" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D16" s="0" t="str">
         <f aca="false">MID(C16, 1, 3)</f>
         <v>ORI</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>4</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H16" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I16" s="0" t="n">
         <v>0</v>
@@ -1598,13 +1571,13 @@
         <v>0</v>
       </c>
       <c r="L16" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" s="0" t="s">
-        <v>24</v>
+        <v>1</v>
+      </c>
+      <c r="N16" s="0" t="n">
+        <v>0.667</v>
       </c>
       <c r="O16" s="0" t="n">
         <v>0</v>
@@ -1615,29 +1588,29 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="0" t="s">
         <v>58</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>47</v>
       </c>
       <c r="D17" s="0" t="str">
         <f aca="false">MID(C17, 1, 3)</f>
-        <v>ORI</v>
+        <v>DOD</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>4</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I17" s="0" t="n">
         <v>0</v>
@@ -1649,13 +1622,13 @@
         <v>0</v>
       </c>
       <c r="L17" s="0" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M17" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N17" s="0" t="n">
-        <v>0.667</v>
+        <v>0.75</v>
       </c>
       <c r="O17" s="0" t="n">
         <v>0</v>
@@ -1666,17 +1639,17 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="B18" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="C18" s="0" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="D18" s="0" t="str">
         <f aca="false">MID(C18, 1, 3)</f>
-        <v>DOD</v>
+        <v>ORI</v>
       </c>
       <c r="E18" s="0" t="n">
         <v>14</v>
@@ -1685,10 +1658,10 @@
         <v>4</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H18" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I18" s="0" t="n">
         <v>0</v>
@@ -1700,13 +1673,10 @@
         <v>0</v>
       </c>
       <c r="L18" s="0" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M18" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="N18" s="0" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="O18" s="0" t="n">
         <v>0</v>
@@ -1717,20 +1687,20 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="C19" s="0" t="s">
         <v>63</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>64</v>
       </c>
       <c r="D19" s="0" t="str">
         <f aca="false">MID(C19, 1, 3)</f>
         <v>TAM</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>3</v>
@@ -1768,29 +1738,29 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="C20" s="0" t="s">
         <v>66</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>20</v>
       </c>
       <c r="D20" s="0" t="str">
         <f aca="false">MID(C20, 1, 3)</f>
-        <v>ATL</v>
+        <v>TAM</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>3</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H20" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" s="0" t="n">
         <v>0</v>
@@ -1806,9 +1776,6 @@
       </c>
       <c r="M20" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="N20" s="0" t="s">
-        <v>24</v>
       </c>
       <c r="O20" s="0" t="n">
         <v>0</v>
@@ -1825,23 +1792,23 @@
         <v>68</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="D21" s="0" t="str">
         <f aca="false">MID(C21, 1, 3)</f>
-        <v>TAM</v>
+        <v>ATL</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>3</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H21" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" s="0" t="n">
         <v>0</v>
@@ -1857,9 +1824,6 @@
       </c>
       <c r="M21" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="N21" s="0" t="s">
-        <v>24</v>
       </c>
       <c r="O21" s="0" t="n">
         <v>0</v>
@@ -1870,7 +1834,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>70</v>
@@ -1880,19 +1844,19 @@
       </c>
       <c r="D22" s="0" t="str">
         <f aca="false">MID(C22, 1, 3)</f>
-        <v>ATL</v>
+        <v>TAM</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>2</v>
       </c>
       <c r="G22" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H22" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" s="0" t="n">
         <v>0</v>
@@ -1907,10 +1871,10 @@
         <v>9</v>
       </c>
       <c r="M22" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22" s="0" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="O22" s="0" t="n">
         <v>0</v>
@@ -1921,29 +1885,29 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="C23" s="0" t="s">
         <v>73</v>
-      </c>
-      <c r="C23" s="0" t="s">
-        <v>74</v>
       </c>
       <c r="D23" s="0" t="str">
         <f aca="false">MID(C23, 1, 3)</f>
-        <v>TAM</v>
+        <v>ATL</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>2</v>
       </c>
       <c r="G23" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H23" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" s="0" t="n">
         <v>0</v>
@@ -1955,13 +1919,13 @@
         <v>0</v>
       </c>
       <c r="L23" s="0" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="M23" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N23" s="0" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="O23" s="0" t="n">
         <v>0</v>
@@ -1972,29 +1936,29 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="D24" s="0" t="str">
         <f aca="false">MID(C24, 1, 3)</f>
-        <v>TAM</v>
+        <v>ORI</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G24" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" s="0" t="n">
         <v>0</v>
@@ -2006,13 +1970,13 @@
         <v>0</v>
       </c>
       <c r="L24" s="0" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="M24" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N24" s="0" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="O24" s="0" t="n">
         <v>0</v>
@@ -2023,29 +1987,29 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="D25" s="0" t="str">
         <f aca="false">MID(C25, 1, 3)</f>
-        <v>ORI</v>
+        <v>TAM</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G25" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" s="0" t="n">
         <v>0</v>
@@ -2057,13 +2021,13 @@
         <v>0</v>
       </c>
       <c r="L25" s="0" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="M25" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N25" s="0" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="O25" s="0" t="n">
         <v>0</v>
@@ -2074,47 +2038,47 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="B26" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="B26" s="0" t="s">
-        <v>79</v>
-      </c>
       <c r="C26" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D26" s="0" t="str">
         <f aca="false">MID(C26, 1, 3)</f>
         <v>ORI</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="G26" s="0" t="n">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="H26" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="J26" s="0" t="n">
+        <v>0.984</v>
+      </c>
+      <c r="K26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="M26" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="I26" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="J26" s="0" t="n">
-        <v>0.983</v>
-      </c>
-      <c r="K26" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="M26" s="0" t="n">
-        <v>15</v>
-      </c>
       <c r="N26" s="0" t="n">
-        <v>0.667</v>
+        <v>0.68</v>
       </c>
       <c r="O26" s="0" t="n">
         <v>1</v>
@@ -2125,50 +2089,50 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="C27" s="0" t="s">
         <v>81</v>
-      </c>
-      <c r="C27" s="0" t="s">
-        <v>17</v>
       </c>
       <c r="D27" s="0" t="str">
         <f aca="false">MID(C27, 1, 3)</f>
-        <v>ATL</v>
+        <v>ORI</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>97</v>
+        <v>37</v>
       </c>
       <c r="H27" s="0" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="I27" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J27" s="0" t="n">
-        <v>0.982</v>
+        <v>0.975</v>
       </c>
       <c r="K27" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27" s="0" t="n">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="M27" s="0" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="N27" s="0" t="n">
-        <v>0.821</v>
+        <v>0.9</v>
       </c>
       <c r="O27" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P27" s="0" t="n">
         <v>0</v>
@@ -2182,41 +2146,41 @@
         <v>83</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D28" s="0" t="str">
         <f aca="false">MID(C28, 1, 3)</f>
         <v>TAM</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="H28" s="0" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="I28" s="0" t="n">
         <v>1</v>
       </c>
       <c r="J28" s="0" t="n">
-        <v>0.981</v>
+        <v>0.974</v>
       </c>
       <c r="K28" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L28" s="0" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="M28" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N28" s="0" t="n">
-        <v>0.692</v>
+        <v>1</v>
       </c>
       <c r="O28" s="0" t="n">
         <v>0</v>
@@ -2237,40 +2201,40 @@
       </c>
       <c r="D29" s="0" t="str">
         <f aca="false">MID(C29, 1, 3)</f>
-        <v>ORI</v>
+        <v>TAM</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="H29" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I29" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J29" s="0" t="n">
-        <v>0.974</v>
+        <v>0.971</v>
       </c>
       <c r="K29" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L29" s="0" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="M29" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N29" s="0" t="n">
-        <v>0.857</v>
+        <v>1</v>
       </c>
       <c r="O29" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P29" s="0" t="n">
         <v>0</v>
@@ -2284,23 +2248,23 @@
         <v>88</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="D30" s="0" t="str">
         <f aca="false">MID(C30, 1, 3)</f>
         <v>TAM</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H30" s="0" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I30" s="0" t="n">
         <v>1</v>
@@ -2309,16 +2273,13 @@
         <v>0.971</v>
       </c>
       <c r="K30" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L30" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M30" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="N30" s="0" t="n">
-        <v>1</v>
       </c>
       <c r="O30" s="0" t="n">
         <v>0</v>
@@ -2345,34 +2306,34 @@
         <v>14</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="H31" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="I31" s="0" t="n">
         <v>3</v>
-      </c>
-      <c r="I31" s="0" t="n">
-        <v>2</v>
       </c>
       <c r="J31" s="0" t="n">
         <v>0.97</v>
       </c>
       <c r="K31" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L31" s="0" t="n">
         <v>16</v>
       </c>
       <c r="M31" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N31" s="0" t="n">
-        <v>1</v>
+        <v>0.842</v>
       </c>
       <c r="O31" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P31" s="0" t="n">
         <v>0</v>
@@ -2386,41 +2347,38 @@
         <v>93</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>23</v>
+        <v>94</v>
       </c>
       <c r="D32" s="0" t="str">
         <f aca="false">MID(C32, 1, 3)</f>
-        <v>TAM</v>
+        <v>DOD</v>
       </c>
       <c r="E32" s="0" t="n">
         <v>14</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G32" s="0" t="n">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="H32" s="0" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="I32" s="0" t="n">
         <v>1</v>
       </c>
       <c r="J32" s="0" t="n">
-        <v>0.968</v>
+        <v>0.97</v>
       </c>
       <c r="K32" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L32" s="0" t="n">
         <v>0</v>
       </c>
       <c r="M32" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="N32" s="0" t="s">
-        <v>24</v>
       </c>
       <c r="O32" s="0" t="n">
         <v>0</v>
@@ -2431,7 +2389,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="B33" s="0" t="s">
         <v>95</v>
@@ -2441,37 +2399,37 @@
       </c>
       <c r="D33" s="0" t="str">
         <f aca="false">MID(C33, 1, 3)</f>
-        <v>TAM</v>
+        <v>DOD</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="G33" s="0" t="n">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="H33" s="0" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="I33" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J33" s="0" t="n">
-        <v>0.967</v>
+        <v>0.969</v>
       </c>
       <c r="K33" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L33" s="0" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="M33" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N33" s="0" t="n">
-        <v>0.824</v>
+        <v>0.5</v>
       </c>
       <c r="O33" s="0" t="n">
         <v>0</v>
@@ -2482,50 +2440,50 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="D34" s="0" t="str">
         <f aca="false">MID(C34, 1, 3)</f>
-        <v>DOD</v>
+        <v>ATL</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>29</v>
+        <v>116</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="H34" s="0" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I34" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J34" s="0" t="n">
         <v>0.966</v>
       </c>
       <c r="K34" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L34" s="0" t="n">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="M34" s="0" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N34" s="0" t="n">
-        <v>0.667</v>
+        <v>0.825</v>
       </c>
       <c r="O34" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P34" s="0" t="n">
         <v>0</v>
@@ -2539,20 +2497,20 @@
         <v>100</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D35" s="0" t="str">
         <f aca="false">MID(C35, 1, 3)</f>
         <v>TAM</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F35" s="0" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H35" s="0" t="n">
         <v>16</v>
@@ -2561,13 +2519,13 @@
         <v>1</v>
       </c>
       <c r="J35" s="0" t="n">
-        <v>0.963</v>
+        <v>0.964</v>
       </c>
       <c r="K35" s="0" t="n">
         <v>3</v>
       </c>
       <c r="L35" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M35" s="0" t="n">
         <v>0</v>
@@ -2590,41 +2548,41 @@
         <v>102</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>103</v>
+        <v>66</v>
       </c>
       <c r="D36" s="0" t="str">
         <f aca="false">MID(C36, 1, 3)</f>
-        <v>DOD</v>
+        <v>TAM</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F36" s="0" t="n">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="G36" s="0" t="n">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="H36" s="0" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I36" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J36" s="0" t="n">
-        <v>0.962</v>
+        <v>0.964</v>
       </c>
       <c r="K36" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L36" s="0" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" s="0" t="s">
-        <v>24</v>
+        <v>4</v>
+      </c>
+      <c r="N36" s="0" t="n">
+        <v>0.692</v>
       </c>
       <c r="O36" s="0" t="n">
         <v>0</v>
@@ -2635,13 +2593,13 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="B37" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="B37" s="0" t="s">
-        <v>105</v>
-      </c>
       <c r="C37" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D37" s="0" t="str">
         <f aca="false">MID(C37, 1, 3)</f>
@@ -2651,10 +2609,10 @@
         <v>14</v>
       </c>
       <c r="F37" s="0" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H37" s="0" t="n">
         <v>9</v>
@@ -2663,7 +2621,7 @@
         <v>3</v>
       </c>
       <c r="J37" s="0" t="n">
-        <v>0.958</v>
+        <v>0.959</v>
       </c>
       <c r="K37" s="0" t="n">
         <v>1</v>
@@ -2686,47 +2644,47 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="B38" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="B38" s="0" t="s">
+      <c r="C38" s="0" t="s">
         <v>107</v>
-      </c>
-      <c r="C38" s="0" t="s">
-        <v>108</v>
       </c>
       <c r="D38" s="0" t="str">
         <f aca="false">MID(C38, 1, 3)</f>
-        <v>DOD</v>
+        <v>ATL</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F38" s="0" t="n">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="G38" s="0" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="H38" s="0" t="n">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="I38" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J38" s="0" t="n">
-        <v>0.949</v>
+        <v>0.95</v>
       </c>
       <c r="K38" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L38" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M38" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" s="0" t="s">
-        <v>24</v>
+        <v>1</v>
+      </c>
+      <c r="N38" s="0" t="n">
+        <v>0.833</v>
       </c>
       <c r="O38" s="0" t="n">
         <v>0</v>
@@ -2737,13 +2695,13 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B39" s="0" t="s">
         <v>76</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D39" s="0" t="str">
         <f aca="false">MID(C39, 1, 3)</f>
@@ -2753,10 +2711,10 @@
         <v>14</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G39" s="0" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H39" s="0" t="n">
         <v>1</v>
@@ -2765,7 +2723,7 @@
         <v>1</v>
       </c>
       <c r="J39" s="0" t="n">
-        <v>0.944</v>
+        <v>0.947</v>
       </c>
       <c r="K39" s="0" t="n">
         <v>0</v>
@@ -2775,9 +2733,6 @@
       </c>
       <c r="M39" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="N39" s="0" t="s">
-        <v>24</v>
       </c>
       <c r="O39" s="0" t="n">
         <v>0</v>
@@ -2788,47 +2743,44 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="C40" s="0" t="s">
         <v>111</v>
-      </c>
-      <c r="B40" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="C40" s="0" t="s">
-        <v>113</v>
       </c>
       <c r="D40" s="0" t="str">
         <f aca="false">MID(C40, 1, 3)</f>
-        <v>ATL</v>
+        <v>DOD</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F40" s="0" t="n">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="G40" s="0" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="H40" s="0" t="n">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="I40" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J40" s="0" t="n">
-        <v>0.938</v>
+        <v>0.937</v>
       </c>
       <c r="K40" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L40" s="0" t="n">
         <v>0</v>
       </c>
       <c r="M40" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="N40" s="0" t="s">
-        <v>24</v>
       </c>
       <c r="O40" s="0" t="n">
         <v>0</v>
@@ -2839,47 +2791,44 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D41" s="0" t="str">
         <f aca="false">MID(C41, 1, 3)</f>
-        <v>ATL</v>
+        <v>ORI</v>
       </c>
       <c r="E41" s="0" t="n">
         <v>14</v>
       </c>
       <c r="F41" s="0" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="G41" s="0" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H41" s="0" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="I41" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J41" s="0" t="n">
         <v>0.929</v>
       </c>
       <c r="K41" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L41" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M41" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" s="0" t="n">
-        <v>0.667</v>
+        <v>0</v>
       </c>
       <c r="O41" s="0" t="n">
         <v>0</v>
@@ -2890,20 +2839,20 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D42" s="0" t="str">
         <f aca="false">MID(C42, 1, 3)</f>
         <v>DOD</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="F42" s="0" t="n">
         <v>14</v>
@@ -2941,35 +2890,35 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D43" s="0" t="str">
         <f aca="false">MID(C43, 1, 3)</f>
         <v>ORI</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F43" s="0" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G43" s="0" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H43" s="0" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I43" s="0" t="n">
         <v>4</v>
       </c>
       <c r="J43" s="0" t="n">
-        <v>0.923</v>
+        <v>0.927</v>
       </c>
       <c r="K43" s="0" t="n">
         <v>3</v>
@@ -2992,50 +2941,50 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>93</v>
+        <v>28</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D44" s="0" t="str">
         <f aca="false">MID(C44, 1, 3)</f>
-        <v>ORI</v>
+        <v>DOD</v>
       </c>
       <c r="E44" s="0" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F44" s="0" t="n">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="G44" s="0" t="n">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="H44" s="0" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I44" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J44" s="0" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="K44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="M44" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N44" s="0" t="n">
         <v>0.923</v>
       </c>
-      <c r="K44" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" s="0" t="s">
-        <v>24</v>
-      </c>
       <c r="O44" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P44" s="0" t="n">
         <v>0</v>
@@ -3043,35 +2992,35 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D45" s="0" t="str">
         <f aca="false">MID(C45, 1, 3)</f>
         <v>DOD</v>
       </c>
       <c r="E45" s="0" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F45" s="0" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G45" s="0" t="n">
         <v>31</v>
       </c>
       <c r="H45" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I45" s="0" t="n">
         <v>3</v>
       </c>
       <c r="J45" s="0" t="n">
-        <v>0.921</v>
+        <v>0.923</v>
       </c>
       <c r="K45" s="0" t="n">
         <v>3</v>
@@ -3080,10 +3029,10 @@
         <v>6</v>
       </c>
       <c r="M45" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N45" s="0" t="n">
-        <v>0.857</v>
+        <v>0.75</v>
       </c>
       <c r="O45" s="0" t="n">
         <v>0</v>
@@ -3094,50 +3043,47 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>29</v>
+        <v>122</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="D46" s="0" t="str">
         <f aca="false">MID(C46, 1, 3)</f>
         <v>DOD</v>
       </c>
       <c r="E46" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="F46" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="G46" s="0" t="n">
         <v>14</v>
-      </c>
-      <c r="F46" s="0" t="n">
-        <v>62</v>
-      </c>
-      <c r="G46" s="0" t="n">
-        <v>51</v>
       </c>
       <c r="H46" s="0" t="n">
         <v>6</v>
       </c>
       <c r="I46" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J46" s="0" t="n">
-        <v>0.919</v>
+        <v>0.909</v>
       </c>
       <c r="K46" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L46" s="0" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="M46" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="N46" s="0" t="n">
-        <v>0.923</v>
+        <v>0</v>
       </c>
       <c r="O46" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P46" s="0" t="n">
         <v>0</v>
@@ -3145,47 +3091,44 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>127</v>
+        <v>31</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="D47" s="0" t="str">
         <f aca="false">MID(C47, 1, 3)</f>
-        <v>DOD</v>
+        <v>ORI</v>
       </c>
       <c r="E47" s="0" t="n">
         <v>14</v>
       </c>
       <c r="F47" s="0" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="G47" s="0" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H47" s="0" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I47" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J47" s="0" t="n">
-        <v>0.909</v>
+        <v>0.903</v>
       </c>
       <c r="K47" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L47" s="0" t="n">
         <v>0</v>
       </c>
       <c r="M47" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="N47" s="0" t="s">
-        <v>24</v>
       </c>
       <c r="O47" s="0" t="n">
         <v>0</v>
@@ -3196,47 +3139,44 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D48" s="0" t="str">
         <f aca="false">MID(C48, 1, 3)</f>
-        <v>DOD</v>
+        <v>ORI</v>
       </c>
       <c r="E48" s="0" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F48" s="0" t="n">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="G48" s="0" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="H48" s="0" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="I48" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J48" s="0" t="n">
-        <v>0.903</v>
+        <v>0.9</v>
       </c>
       <c r="K48" s="0" t="n">
         <v>1</v>
       </c>
       <c r="L48" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M48" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="N48" s="0" t="n">
-        <v>1</v>
       </c>
       <c r="O48" s="0" t="n">
         <v>0</v>
@@ -3247,20 +3187,20 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D49" s="0" t="str">
         <f aca="false">MID(C49, 1, 3)</f>
         <v>TAM</v>
       </c>
       <c r="E49" s="0" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F49" s="0" t="n">
         <v>10</v>
@@ -3298,29 +3238,29 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>32</v>
+        <v>131</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D50" s="0" t="str">
         <f aca="false">MID(C50, 1, 3)</f>
-        <v>ORI</v>
+        <v>ATL</v>
       </c>
       <c r="E50" s="0" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F50" s="0" t="n">
         <v>29</v>
       </c>
       <c r="G50" s="0" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H50" s="0" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I50" s="0" t="n">
         <v>3</v>
@@ -3332,13 +3272,13 @@
         <v>2</v>
       </c>
       <c r="L50" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M50" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N50" s="0" t="s">
-        <v>24</v>
+        <v>1</v>
+      </c>
+      <c r="N50" s="0" t="n">
+        <v>0.667</v>
       </c>
       <c r="O50" s="0" t="n">
         <v>0</v>
@@ -3349,20 +3289,20 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D51" s="0" t="str">
         <f aca="false">MID(C51, 1, 3)</f>
         <v>ATL</v>
       </c>
       <c r="E51" s="0" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F51" s="0" t="n">
         <v>19</v>
@@ -3400,47 +3340,47 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>139</v>
+        <v>32</v>
       </c>
       <c r="D52" s="0" t="str">
         <f aca="false">MID(C52, 1, 3)</f>
         <v>ORI</v>
       </c>
       <c r="E52" s="0" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F52" s="0" t="n">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="G52" s="0" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H52" s="0" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="I52" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J52" s="0" t="n">
-        <v>0.889</v>
+        <v>0.895</v>
       </c>
       <c r="K52" s="0" t="n">
         <v>0</v>
       </c>
       <c r="L52" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M52" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N52" s="0" t="n">
-        <v>0.571</v>
+        <v>0.5</v>
       </c>
       <c r="O52" s="0" t="n">
         <v>0</v>
@@ -3451,32 +3391,32 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>33</v>
+        <v>139</v>
       </c>
       <c r="D53" s="0" t="str">
         <f aca="false">MID(C53, 1, 3)</f>
         <v>ORI</v>
       </c>
       <c r="E53" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="F53" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="G53" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="H53" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F53" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="G53" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="H53" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J53" s="0" t="n">
         <v>0.889</v>
@@ -3485,13 +3425,13 @@
         <v>0</v>
       </c>
       <c r="L53" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M53" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N53" s="0" t="s">
-        <v>24</v>
+        <v>3</v>
+      </c>
+      <c r="N53" s="0" t="n">
+        <v>0.571</v>
       </c>
       <c r="O53" s="0" t="n">
         <v>0</v>
@@ -3502,20 +3442,20 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D54" s="0" t="str">
         <f aca="false">MID(C54, 1, 3)</f>
         <v>DOD</v>
       </c>
       <c r="E54" s="0" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F54" s="0" t="n">
         <v>18</v>
@@ -3553,47 +3493,47 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>146</v>
+        <v>32</v>
       </c>
       <c r="D55" s="0" t="str">
         <f aca="false">MID(C55, 1, 3)</f>
         <v>ORI</v>
       </c>
       <c r="E55" s="0" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F55" s="0" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="G55" s="0" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H55" s="0" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I55" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J55" s="0" t="n">
-        <v>0.889</v>
+        <v>0.882</v>
       </c>
       <c r="K55" s="0" t="n">
         <v>1</v>
       </c>
       <c r="L55" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M55" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N55" s="0" t="s">
-        <v>24</v>
+        <v>4</v>
+      </c>
+      <c r="N55" s="0" t="n">
+        <v>0.5</v>
       </c>
       <c r="O55" s="0" t="n">
         <v>0</v>
@@ -3604,47 +3544,44 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D56" s="0" t="str">
         <f aca="false">MID(C56, 1, 3)</f>
-        <v>ORI</v>
+        <v>ATL</v>
       </c>
       <c r="E56" s="0" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F56" s="0" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="G56" s="0" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="H56" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I56" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J56" s="0" t="n">
-        <v>0.875</v>
+        <v>0.867</v>
       </c>
       <c r="K56" s="0" t="n">
         <v>0</v>
       </c>
       <c r="L56" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M56" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" s="0" t="n">
-        <v>0.667</v>
+        <v>0</v>
       </c>
       <c r="O56" s="0" t="n">
         <v>0</v>
@@ -3655,35 +3592,35 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>33</v>
+        <v>149</v>
       </c>
       <c r="D57" s="0" t="str">
         <f aca="false">MID(C57, 1, 3)</f>
-        <v>ORI</v>
+        <v>DOD</v>
       </c>
       <c r="E57" s="0" t="n">
         <v>14</v>
       </c>
       <c r="F57" s="0" t="n">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="G57" s="0" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H57" s="0" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I57" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J57" s="0" t="n">
-        <v>0.875</v>
+        <v>0.861</v>
       </c>
       <c r="K57" s="0" t="n">
         <v>1</v>
@@ -3692,10 +3629,10 @@
         <v>4</v>
       </c>
       <c r="M57" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N57" s="0" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="O57" s="0" t="n">
         <v>0</v>
@@ -3706,47 +3643,47 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>51</v>
+        <v>150</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>153</v>
+        <v>94</v>
       </c>
       <c r="D58" s="0" t="str">
         <f aca="false">MID(C58, 1, 3)</f>
-        <v>ATL</v>
+        <v>DOD</v>
       </c>
       <c r="E58" s="0" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F58" s="0" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G58" s="0" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H58" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I58" s="0" t="n">
         <v>1</v>
       </c>
       <c r="J58" s="0" t="n">
-        <v>0.875</v>
+        <v>0.857</v>
       </c>
       <c r="K58" s="0" t="n">
         <v>0</v>
       </c>
       <c r="L58" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M58" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N58" s="0" t="s">
-        <v>24</v>
+        <v>3</v>
+      </c>
+      <c r="N58" s="0" t="n">
+        <v>0.5</v>
       </c>
       <c r="O58" s="0" t="n">
         <v>0</v>
@@ -3757,35 +3694,35 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>154</v>
+        <v>47</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D59" s="0" t="str">
         <f aca="false">MID(C59, 1, 3)</f>
         <v>ATL</v>
       </c>
       <c r="E59" s="0" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F59" s="0" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G59" s="0" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H59" s="0" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I59" s="0" t="n">
         <v>2</v>
       </c>
       <c r="J59" s="0" t="n">
-        <v>0.867</v>
+        <v>0.846</v>
       </c>
       <c r="K59" s="0" t="n">
         <v>0</v>
@@ -3795,9 +3732,6 @@
       </c>
       <c r="M59" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="N59" s="0" t="s">
-        <v>24</v>
       </c>
       <c r="O59" s="0" t="n">
         <v>0</v>
@@ -3808,47 +3742,47 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>103</v>
+        <v>156</v>
       </c>
       <c r="D60" s="0" t="str">
         <f aca="false">MID(C60, 1, 3)</f>
-        <v>DOD</v>
+        <v>ORI</v>
       </c>
       <c r="E60" s="0" t="n">
         <v>14</v>
       </c>
       <c r="F60" s="0" t="n">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="G60" s="0" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="H60" s="0" t="n">
         <v>4</v>
       </c>
       <c r="I60" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J60" s="0" t="n">
-        <v>0.857</v>
+        <v>0.84</v>
       </c>
       <c r="K60" s="0" t="n">
         <v>0</v>
       </c>
       <c r="L60" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M60" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N60" s="0" t="n">
-        <v>0.5</v>
+        <v>0.667</v>
       </c>
       <c r="O60" s="0" t="n">
         <v>0</v>
@@ -3859,20 +3793,20 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D61" s="0" t="str">
         <f aca="false">MID(C61, 1, 3)</f>
         <v>TAM</v>
       </c>
       <c r="E61" s="0" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F61" s="0" t="n">
         <v>6</v>
@@ -3910,20 +3844,20 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D62" s="0" t="str">
         <f aca="false">MID(C62, 1, 3)</f>
         <v>ORI</v>
       </c>
       <c r="E62" s="0" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F62" s="0" t="n">
         <v>5</v>
@@ -3961,20 +3895,20 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D63" s="0" t="str">
         <f aca="false">MID(C63, 1, 3)</f>
         <v>DOD</v>
       </c>
       <c r="E63" s="0" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F63" s="0" t="n">
         <v>16</v>
@@ -4012,20 +3946,20 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="C64" s="0" t="s">
         <v>164</v>
-      </c>
-      <c r="B64" s="0" t="s">
-        <v>165</v>
-      </c>
-      <c r="C64" s="0" t="s">
-        <v>166</v>
       </c>
       <c r="D64" s="0" t="str">
         <f aca="false">MID(C64, 1, 3)</f>
         <v>DOD</v>
       </c>
       <c r="E64" s="0" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F64" s="0" t="n">
         <v>7</v>
@@ -4051,9 +3985,6 @@
       <c r="M64" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="N64" s="0" t="s">
-        <v>24</v>
-      </c>
       <c r="O64" s="0" t="n">
         <v>0</v>
       </c>
@@ -4063,20 +3994,20 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="C65" s="0" t="s">
         <v>167</v>
-      </c>
-      <c r="B65" s="0" t="s">
-        <v>168</v>
-      </c>
-      <c r="C65" s="0" t="s">
-        <v>169</v>
       </c>
       <c r="D65" s="0" t="str">
         <f aca="false">MID(C65, 1, 3)</f>
         <v>ORI</v>
       </c>
       <c r="E65" s="0" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="F65" s="0" t="n">
         <v>9</v>
@@ -4114,20 +4045,20 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B66" s="0" t="s">
         <v>76</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="D66" s="0" t="str">
         <f aca="false">MID(C66, 1, 3)</f>
         <v>ATL</v>
       </c>
       <c r="E66" s="0" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F66" s="0" t="n">
         <v>6</v>
@@ -4165,20 +4096,20 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="C67" s="0" t="s">
         <v>171</v>
-      </c>
-      <c r="B67" s="0" t="s">
-        <v>172</v>
-      </c>
-      <c r="C67" s="0" t="s">
-        <v>173</v>
       </c>
       <c r="D67" s="0" t="str">
         <f aca="false">MID(C67, 1, 3)</f>
         <v>DOD</v>
       </c>
       <c r="E67" s="0" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="F67" s="0" t="n">
         <v>2</v>
@@ -4216,20 +4147,20 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="D68" s="0" t="str">
         <f aca="false">MID(C68, 1, 3)</f>
         <v>ATL</v>
       </c>
       <c r="E68" s="0" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F68" s="0" t="n">
         <v>2</v>
@@ -4254,9 +4185,6 @@
       </c>
       <c r="M68" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="N68" s="0" t="s">
-        <v>24</v>
       </c>
       <c r="O68" s="0" t="n">
         <v>0</v>
@@ -4267,20 +4195,20 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>110</v>
+        <v>17</v>
       </c>
       <c r="D69" s="0" t="str">
         <f aca="false">MID(C69, 1, 3)</f>
         <v>ATL</v>
       </c>
       <c r="E69" s="0" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F69" s="0" t="n">
         <v>2</v>
@@ -4305,9 +4233,6 @@
       </c>
       <c r="M69" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="N69" s="0" t="s">
-        <v>24</v>
       </c>
       <c r="O69" s="0" t="n">
         <v>0</v>
@@ -4318,20 +4243,20 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="C70" s="0" t="s">
         <v>177</v>
-      </c>
-      <c r="B70" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="C70" s="0" t="s">
-        <v>179</v>
       </c>
       <c r="D70" s="0" t="str">
         <f aca="false">MID(C70, 1, 3)</f>
-        <v>ORI</v>
+        <v>ATL</v>
       </c>
       <c r="E70" s="0" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F70" s="0" t="n">
         <v>0</v>
@@ -4352,10 +4277,10 @@
         <v>0</v>
       </c>
       <c r="L70" s="0" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M70" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N70" s="0" t="n">
         <v>0.8</v>
@@ -4369,20 +4294,20 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="C71" s="0" t="s">
         <v>180</v>
-      </c>
-      <c r="B71" s="0" t="s">
-        <v>181</v>
-      </c>
-      <c r="C71" s="0" t="s">
-        <v>38</v>
       </c>
       <c r="D71" s="0" t="str">
         <f aca="false">MID(C71, 1, 3)</f>
-        <v>TAM</v>
+        <v>ORI</v>
       </c>
       <c r="E71" s="0" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="F71" s="0" t="n">
         <v>0</v>
@@ -4403,13 +4328,13 @@
         <v>0</v>
       </c>
       <c r="L71" s="0" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="M71" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N71" s="0" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="O71" s="0" t="n">
         <v>0</v>
@@ -4420,20 +4345,20 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="D72" s="0" t="str">
         <f aca="false">MID(C72, 1, 3)</f>
         <v>ATL</v>
       </c>
       <c r="E72" s="0" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F72" s="0" t="n">
         <v>0</v>
@@ -4454,13 +4379,13 @@
         <v>0</v>
       </c>
       <c r="L72" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M72" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N72" s="0" t="n">
-        <v>0.571</v>
+        <v>0.545</v>
       </c>
       <c r="O72" s="0" t="n">
         <v>0</v>
@@ -4471,20 +4396,20 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="B73" s="0" t="s">
         <v>183</v>
       </c>
-      <c r="B73" s="0" t="s">
-        <v>184</v>
-      </c>
       <c r="C73" s="0" t="s">
-        <v>185</v>
+        <v>40</v>
       </c>
       <c r="D73" s="0" t="str">
         <f aca="false">MID(C73, 1, 3)</f>
-        <v>ATL</v>
+        <v>TAM</v>
       </c>
       <c r="E73" s="0" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F73" s="0" t="n">
         <v>0</v>
@@ -4505,7 +4430,7 @@
         <v>0</v>
       </c>
       <c r="L73" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M73" s="0" t="n">
         <v>0</v>
